--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J2" t="n">
         <v>4.33</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -789,10 +789,10 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>15</v>
@@ -801,19 +801,19 @@
         <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -825,13 +825,13 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -846,13 +846,13 @@
         <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
         <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>67</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
         <v>160</v>
@@ -882,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BC2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,22 +953,22 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -977,16 +977,16 @@
         <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -1007,19 +1007,19 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9</v>
       </c>
-      <c r="AI3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -1046,13 +1046,13 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
         <v>501</v>
@@ -1064,13 +1064,13 @@
         <v>4.33</v>
       </c>
       <c r="AZ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="n">
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1323,10 +1323,10 @@
         <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1675,16 +1675,16 @@
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.5</v>
@@ -1717,7 +1717,7 @@
         <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
@@ -1732,13 +1732,13 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>10</v>
@@ -1759,7 +1759,7 @@
         <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1777,7 +1777,7 @@
         <v>3.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -2045,10 +2045,10 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.67</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2409,16 +2409,16 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,10 +2427,10 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>6.5</v>
@@ -2439,10 +2439,10 @@
         <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2454,32 +2454,32 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AL11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="n">
         <v>3</v>
@@ -2491,43 +2491,43 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>3.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
         <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="BD11" t="n">
         <v>126</v>
@@ -2747,46 +2747,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
         <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.38</v>
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="Y13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z13" t="n">
         <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -2813,10 +2813,10 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2828,16 +2828,16 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="n">
         <v>67</v>
@@ -2846,28 +2846,28 @@
         <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
@@ -2879,7 +2879,7 @@
         <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
@@ -3103,22 +3103,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>2.75</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
@@ -3145,25 +3145,25 @@
         <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
       <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
         <v>19</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
@@ -3172,7 +3172,7 @@
         <v>6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
@@ -3184,10 +3184,10 @@
         <v>500</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
@@ -3196,16 +3196,16 @@
         <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3238,7 +3238,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>34</v>
@@ -3250,7 +3250,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16">
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3333,19 +3333,19 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3357,7 +3357,7 @@
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
@@ -3366,19 +3366,19 @@
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -3387,7 +3387,7 @@
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3417,7 +3417,7 @@
         <v>51</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -4718,16 +4718,16 @@
         <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I24" t="n">
         <v>6.1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="K24" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L24" t="n">
         <v>5.4</v>
@@ -4736,25 +4736,25 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P24" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="U24" t="n">
         <v>1.57</v>
@@ -4763,16 +4763,16 @@
         <v>2.25</v>
       </c>
       <c r="W24" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X24" t="n">
         <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>10.25</v>
@@ -4781,10 +4781,10 @@
         <v>18.5</v>
       </c>
       <c r="AC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD24" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.75</v>
       </c>
       <c r="AE24" t="n">
         <v>15.5</v>
@@ -4796,7 +4796,7 @@
         <v>250</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>45</v>
@@ -4817,13 +4817,13 @@
         <v>3.65</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AP24" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="n">
         <v>32</v>
@@ -4832,13 +4832,13 @@
         <v>120</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AU24" t="n">
         <v>7.3</v>
       </c>
       <c r="AV24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW24" t="n">
         <v>81</v>
@@ -4853,10 +4853,10 @@
         <v>30</v>
       </c>
       <c r="BA24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC24" t="n">
         <v>150</v>
@@ -5642,8 +5642,12 @@
       <c r="L29" t="n">
         <v>2.55</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.6</v>
+      </c>
       <c r="O29" t="n">
         <v>1.23</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>3.94</v>
+        <v>3.92</v>
       </c>
       <c r="Q31" t="n">
         <v>1.57</v>
@@ -6341,22 +6345,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
         <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K33" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L33" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -6403,7 +6407,7 @@
         <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
         <v>6.2</v>
@@ -6439,22 +6443,22 @@
         <v>5.8</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ33" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR33" t="n">
         <v>150</v>
       </c>
       <c r="AS33" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="AU33" t="n">
         <v>7.2</v>
@@ -6545,10 +6549,10 @@
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R34" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S34" t="n">
         <v>1.29</v>
@@ -6725,10 +6729,10 @@
         <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S35" t="n">
         <v>1.3</v>
@@ -6876,19 +6880,19 @@
         <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J36" t="n">
         <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -6903,25 +6907,25 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R36" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -6939,7 +6943,7 @@
         <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -6951,7 +6955,7 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH36" t="n">
         <v>11</v>
@@ -6966,10 +6970,10 @@
         <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
         <v>4.33</v>
@@ -6990,10 +6994,10 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
@@ -7007,13 +7011,13 @@
         <v>17</v>
       </c>
       <c r="BA36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB36" t="n">
         <v>51</v>
       </c>
       <c r="BC36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7081,10 +7085,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7263,10 +7267,10 @@
         <v>5.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R38" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="S38" t="n">
         <v>1.22</v>
@@ -7419,7 +7423,7 @@
         <v>9.25</v>
       </c>
       <c r="I39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J39" t="n">
         <v>1.27</v>
@@ -7428,7 +7432,7 @@
         <v>3.9</v>
       </c>
       <c r="L39" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -7451,10 +7455,10 @@
         <v>7.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W39" t="n">
         <v>19</v>
@@ -7469,7 +7473,7 @@
         <v>7.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB39" t="n">
         <v>26</v>
@@ -7493,7 +7497,7 @@
         <v>90</v>
       </c>
       <c r="AI39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ39" t="n">
         <v>65</v>
@@ -7517,7 +7521,7 @@
         <v>12.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AR39" t="n">
         <v>19.5</v>
@@ -7537,13 +7541,13 @@
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB39" t="n">
         <v>800</v>
@@ -7605,10 +7609,10 @@
         <v>4.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7617,10 +7621,10 @@
         <v>2.63</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S40" t="n">
         <v>1.53</v>
@@ -7973,10 +7977,10 @@
         <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P42" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="Q42" t="n">
         <v>1.72</v>
@@ -7985,16 +7989,16 @@
         <v>1.88</v>
       </c>
       <c r="S42" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T42" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U42" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W42" t="n">
         <v>13</v>
@@ -8127,13 +8131,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
@@ -8151,16 +8155,16 @@
         <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8169,16 +8173,16 @@
         <v>2.63</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W43" t="n">
         <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
         <v>9.5</v>
@@ -8187,7 +8191,7 @@
         <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB43" t="n">
         <v>29</v>
@@ -8208,7 +8212,7 @@
         <v>301</v>
       </c>
       <c r="AH43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
         <v>15</v>
@@ -8220,7 +8224,7 @@
         <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM43" t="n">
         <v>41</v>
@@ -8268,7 +8272,7 @@
         <v>29</v>
       </c>
       <c r="BB43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC43" t="n">
         <v>81</v>
@@ -8309,22 +8313,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I44" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="n">
         <v>2.18</v>
       </c>
       <c r="L44" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -8351,25 +8355,25 @@
         <v>2.67</v>
       </c>
       <c r="U44" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
         <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X44" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB44" t="n">
         <v>37</v>
@@ -8378,10 +8382,10 @@
         <v>7.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF44" t="n">
         <v>150</v>
@@ -8396,22 +8400,22 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK44" t="n">
         <v>150</v>
       </c>
       <c r="AL44" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="n">
         <v>90</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO44" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AP44" t="n">
         <v>20</v>
@@ -8429,7 +8433,7 @@
         <v>2.67</v>
       </c>
       <c r="AU44" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV44" t="n">
         <v>100</v>
@@ -8437,16 +8441,16 @@
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AZ44" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA44" t="n">
         <v>45</v>
       </c>
       <c r="BB44" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC44" t="n">
         <v>350</v>
@@ -8669,7 +8673,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H46" t="n">
         <v>4.33</v>
@@ -8678,46 +8682,46 @@
         <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K46" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L46" t="n">
         <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.73</v>
       </c>
-      <c r="R46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X46" t="n">
         <v>6.5</v>
@@ -8732,22 +8736,22 @@
         <v>12</v>
       </c>
       <c r="AB46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>8.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG46" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH46" t="n">
         <v>19</v>
@@ -8768,7 +8772,7 @@
         <v>51</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO46" t="n">
         <v>7</v>
@@ -8777,22 +8781,22 @@
         <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR46" t="n">
         <v>41</v>
       </c>
       <c r="AS46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW46" t="n">
         <v>151</v>
@@ -8816,7 +8820,7 @@
         <v>151</v>
       </c>
       <c r="BD46" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
@@ -9033,52 +9037,52 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
         <v>2.35</v>
       </c>
       <c r="J48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U48" t="n">
         <v>2</v>
       </c>
-      <c r="L48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N48" t="n">
-        <v>8</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W48" t="n">
         <v>8</v>
@@ -9087,19 +9091,19 @@
         <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
         <v>34</v>
       </c>
       <c r="AA48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB48" t="n">
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD48" t="n">
         <v>6</v>
@@ -9108,22 +9112,22 @@
         <v>17</v>
       </c>
       <c r="AF48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG48" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL48" t="n">
         <v>21</v>
@@ -9141,16 +9145,16 @@
         <v>29</v>
       </c>
       <c r="AQ48" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS48" t="n">
         <v>251</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>8.5</v>
@@ -9162,13 +9166,13 @@
         <v>126</v>
       </c>
       <c r="AX48" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY48" t="n">
         <v>4.33</v>
       </c>
       <c r="AZ48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA48" t="n">
         <v>26</v>
@@ -9177,10 +9181,10 @@
         <v>51</v>
       </c>
       <c r="BC48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
@@ -9397,61 +9401,61 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H50" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J50" t="n">
         <v>4.5</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>4.55</v>
-      </c>
       <c r="K50" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="L50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="O50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P50" t="n">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R50" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="T50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="U50" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V50" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y50" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z50" t="n">
         <v>80</v>
@@ -9463,13 +9467,13 @@
         <v>32</v>
       </c>
       <c r="AC50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF50" t="n">
         <v>40</v>
@@ -9481,22 +9485,22 @@
         <v>11.25</v>
       </c>
       <c r="AI50" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL50" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM50" t="n">
         <v>17.5</v>
       </c>
       <c r="AN50" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO50" t="n">
         <v>23</v>
@@ -9514,32 +9518,32 @@
         <v>200</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AU50" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV50" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW50" t="n">
         <v>500</v>
       </c>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AZ50" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="BA50" t="n">
         <v>12.5</v>
       </c>
       <c r="BB50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC50" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BD50" t="n">
         <v>110</v>
@@ -10297,46 +10301,46 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I55" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="K55" t="n">
         <v>2.27</v>
       </c>
       <c r="L55" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
       </c>
       <c r="N55" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="O55" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R55" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="S55" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="T55" t="n">
-        <v>3.6</v>
+        <v>3.32</v>
       </c>
       <c r="U55" t="n">
         <v>1.47</v>
@@ -10345,76 +10349,76 @@
         <v>2.32</v>
       </c>
       <c r="W55" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X55" t="n">
         <v>11.75</v>
       </c>
       <c r="Y55" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z55" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP55" t="n">
         <v>14</v>
       </c>
-      <c r="AB55" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK55" t="n">
+      <c r="AQ55" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR55" t="n">
         <v>45</v>
       </c>
-      <c r="AL55" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>50</v>
-      </c>
       <c r="AS55" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU55" t="n">
         <v>6.3</v>
@@ -10427,22 +10431,22 @@
       </c>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AZ55" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="BA55" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB55" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BC55" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD55" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
@@ -10477,46 +10481,46 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K56" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L56" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S56" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T56" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="U56" t="n">
         <v>1.72</v>
@@ -10525,34 +10529,34 @@
         <v>1.9</v>
       </c>
       <c r="W56" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="X56" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z56" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA56" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB56" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC56" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD56" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE56" t="n">
         <v>15</v>
       </c>
       <c r="AF56" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG56" t="n">
         <v>500</v>
@@ -10561,31 +10565,31 @@
         <v>7.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK56" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM56" t="n">
         <v>26</v>
       </c>
       <c r="AN56" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO56" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AP56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ56" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR56" t="n">
         <v>150</v>
@@ -10594,7 +10598,7 @@
         <v>350</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="AU56" t="n">
         <v>7.3</v>
@@ -10605,19 +10609,19 @@
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AZ56" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="BA56" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BB56" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC56" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BD56" t="n">
         <v>250</v>
@@ -10655,22 +10659,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I57" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="J57" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="K57" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L57" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M57" t="n">
         <v>1.01</v>
@@ -10679,64 +10683,64 @@
         <v>12.5</v>
       </c>
       <c r="O57" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P57" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R57" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S57" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T57" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="U57" t="n">
         <v>1.7</v>
       </c>
       <c r="V57" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W57" t="n">
+        <v>13</v>
+      </c>
+      <c r="X57" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y57" t="n">
         <v>14</v>
       </c>
-      <c r="X57" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>14.5</v>
-      </c>
       <c r="Z57" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA57" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB57" t="n">
         <v>40</v>
       </c>
       <c r="AC57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE57" t="n">
         <v>14.5</v>
       </c>
       <c r="AF57" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG57" t="n">
         <v>450</v>
       </c>
       <c r="AH57" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AI57" t="n">
         <v>8.25</v>
@@ -10745,22 +10749,22 @@
         <v>8</v>
       </c>
       <c r="AK57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM57" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO57" t="n">
         <v>23</v>
       </c>
-      <c r="AN57" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>24</v>
-      </c>
       <c r="AP57" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ57" t="n">
         <v>120</v>
@@ -10772,10 +10776,10 @@
         <v>350</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="AU57" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV57" t="n">
         <v>60</v>
@@ -10786,16 +10790,16 @@
         <v>3.6</v>
       </c>
       <c r="AZ57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BA57" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB57" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC57" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BD57" t="n">
         <v>200</v>
@@ -11550,7 +11554,7 @@
         <v>1.02</v>
       </c>
       <c r="N62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O62" t="n">
         <v>1.11</v>
@@ -11709,16 +11713,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
         <v>3.45</v>
       </c>
       <c r="I63" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J63" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K63" t="n">
         <v>2.22</v>
@@ -11757,28 +11761,28 @@
         <v>2.37</v>
       </c>
       <c r="W63" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y63" t="n">
         <v>9</v>
       </c>
       <c r="Z63" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA63" t="n">
         <v>16</v>
       </c>
       <c r="AB63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC63" t="n">
         <v>14.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE63" t="n">
         <v>11</v>
@@ -11790,16 +11794,16 @@
         <v>200</v>
       </c>
       <c r="AH63" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI63" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ63" t="n">
         <v>10.25</v>
       </c>
       <c r="AK63" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL63" t="n">
         <v>21</v>
@@ -11808,10 +11812,10 @@
         <v>23</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO63" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP63" t="n">
         <v>16</v>
@@ -11839,13 +11843,13 @@
       </c>
       <c r="AX63" t="inlineStr"/>
       <c r="AY63" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AZ63" t="n">
         <v>14.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BB63" t="n">
         <v>60</v>
@@ -11925,10 +11929,10 @@
         <v>1.98</v>
       </c>
       <c r="S64" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T64" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U64" t="n">
         <v>1.62</v>
@@ -12085,10 +12089,10 @@
         <v>2.2</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N65" t="n">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="O65" t="n">
         <v>1.19</v>
@@ -12423,22 +12427,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="J67" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K67" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L67" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12459,79 +12463,79 @@
         <v>1.78</v>
       </c>
       <c r="S67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T67" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U67" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V67" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="W67" t="n">
         <v>5.9</v>
       </c>
       <c r="X67" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y67" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Z67" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA67" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC67" t="n">
         <v>10</v>
       </c>
       <c r="AD67" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH67" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK67" t="n">
         <v>50</v>
       </c>
       <c r="AL67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM67" t="n">
         <v>35</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO67" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP67" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR67" t="n">
         <v>65</v>
@@ -12540,7 +12544,7 @@
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU67" t="n">
         <v>7.7</v>
@@ -12557,7 +12561,7 @@
         <v>24</v>
       </c>
       <c r="BA67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB67" t="n">
         <v>150</v>
@@ -12981,10 +12985,10 @@
         <v>14.2</v>
       </c>
       <c r="O70" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P70" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q70" t="n">
         <v>1.6</v>
@@ -12993,16 +12997,16 @@
         <v>2.07</v>
       </c>
       <c r="S70" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T70" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V70" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W70" t="n">
         <v>7.3</v>
@@ -13135,22 +13139,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I71" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="J71" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="K71" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L71" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>1.03</v>
@@ -13162,7 +13166,7 @@
         <v>1.15</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q71" t="n">
         <v>1.62</v>
@@ -13177,37 +13181,37 @@
         <v>2.5</v>
       </c>
       <c r="U71" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W71" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X71" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y71" t="n">
         <v>6.9</v>
       </c>
       <c r="Z71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC71" t="n">
         <v>12</v>
       </c>
       <c r="AD71" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE71" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF71" t="n">
         <v>55</v>
@@ -13216,16 +13220,16 @@
         <v>350</v>
       </c>
       <c r="AH71" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI71" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ71" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL71" t="n">
         <v>50</v>
@@ -13234,16 +13238,16 @@
         <v>45</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO71" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AP71" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AR71" t="n">
         <v>45</v>
@@ -13252,24 +13256,24 @@
         <v>200</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU71" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW71" t="inlineStr"/>
       <c r="AX71" t="inlineStr"/>
       <c r="AY71" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AZ71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA71" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB71" t="n">
         <v>250</v>
@@ -13313,150 +13317,150 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="H72" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="I72" t="n">
-        <v>3.95</v>
+        <v>5.2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="K72" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="L72" t="n">
-        <v>4.35</v>
+        <v>5.3</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
       </c>
       <c r="N72" t="n">
-        <v>6.65</v>
+        <v>6.95</v>
       </c>
       <c r="O72" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P72" t="n">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="Q72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U72" t="n">
         <v>1.98</v>
       </c>
-      <c r="R72" t="n">
+      <c r="V72" t="n">
         <v>1.65</v>
       </c>
-      <c r="S72" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.72</v>
-      </c>
       <c r="W72" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X72" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y72" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z72" t="n">
-        <v>14.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA72" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB72" t="n">
         <v>32</v>
       </c>
       <c r="AC72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD72" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AE72" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF72" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK72" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL72" t="n">
         <v>60</v>
       </c>
-      <c r="AL72" t="n">
-        <v>40</v>
-      </c>
       <c r="AM72" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AO72" t="n">
-        <v>8.75</v>
+        <v>7.3</v>
       </c>
       <c r="AP72" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AR72" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS72" t="n">
         <v>250</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU72" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AV72" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="AZ72" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BA72" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BB72" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BC72" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BD72" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73">
@@ -13508,12 +13512,8 @@
       <c r="L73" t="n">
         <v>3.85</v>
       </c>
-      <c r="M73" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N73" t="n">
-        <v>10</v>
-      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="n">
         <v>1.26</v>
       </c>
@@ -13527,10 +13527,10 @@
         <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T73" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="U73" t="n">
         <v>1.65</v>
@@ -13687,10 +13687,10 @@
         <v>3.9</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N74" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="O74" t="n">
         <v>1.31</v>
@@ -13847,28 +13847,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>3.5</v>
       </c>
       <c r="I75" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
         <v>2.2</v>
       </c>
       <c r="L75" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O75" t="n">
         <v>1.29</v>
@@ -13889,16 +13889,16 @@
         <v>2.75</v>
       </c>
       <c r="U75" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V75" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X75" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y75" t="n">
         <v>13</v>
@@ -13907,13 +13907,13 @@
         <v>41</v>
       </c>
       <c r="AA75" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB75" t="n">
         <v>34</v>
       </c>
-      <c r="AB75" t="n">
-        <v>41</v>
-      </c>
       <c r="AC75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD75" t="n">
         <v>6.5</v>
@@ -13925,28 +13925,28 @@
         <v>51</v>
       </c>
       <c r="AG75" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH75" t="n">
         <v>7.5</v>
       </c>
       <c r="AI75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>9</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>8.5</v>
       </c>
       <c r="AK75" t="n">
         <v>17</v>
       </c>
       <c r="AL75" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM75" t="n">
         <v>26</v>
       </c>
       <c r="AN75" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO75" t="n">
         <v>21</v>
@@ -13978,13 +13978,13 @@
         <v>4</v>
       </c>
       <c r="AZ75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA75" t="n">
         <v>21</v>
       </c>
       <c r="BB75" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC75" t="n">
         <v>51</v>
@@ -14219,25 +14219,25 @@
         <v>2.1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L77" t="n">
         <v>6.4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P77" t="n">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R77" t="n">
         <v>1.52</v>
@@ -14246,22 +14246,22 @@
         <v>1.47</v>
       </c>
       <c r="T77" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U77" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V77" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W77" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="X77" t="n">
         <v>4.9</v>
       </c>
       <c r="Y77" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z77" t="n">
         <v>8</v>
@@ -14270,16 +14270,16 @@
         <v>12.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC77" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD77" t="n">
         <v>6.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF77" t="n">
         <v>120</v>
@@ -14322,7 +14322,7 @@
         <v>500</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AU77" t="n">
         <v>9.75</v>
@@ -14339,13 +14339,13 @@
         <v>45</v>
       </c>
       <c r="BA77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB77" t="n">
         <v>350</v>
       </c>
       <c r="BC77" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD77" t="inlineStr"/>
     </row>
@@ -14559,40 +14559,40 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>3.1</v>
       </c>
       <c r="I79" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J79" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="K79" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L79" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N79" t="n">
-        <v>6.74</v>
+        <v>6.77</v>
       </c>
       <c r="O79" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P79" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R79" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S79" t="n">
         <v>1.47</v>
@@ -14607,31 +14607,31 @@
         <v>1.65</v>
       </c>
       <c r="W79" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="X79" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Y79" t="n">
         <v>8.75</v>
       </c>
       <c r="Z79" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA79" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC79" t="n">
         <v>7</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE79" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF79" t="n">
         <v>110</v>
@@ -14640,68 +14640,70 @@
         <v>101</v>
       </c>
       <c r="AH79" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI79" t="n">
         <v>22</v>
       </c>
       <c r="AJ79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL79" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM79" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN79" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP79" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ79" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS79" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT79" t="n">
         <v>2.3</v>
       </c>
       <c r="AU79" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV79" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW79" t="inlineStr"/>
       <c r="AX79" t="inlineStr"/>
       <c r="AY79" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AZ79" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA79" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BB79" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC79" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD79" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14911,19 +14913,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="H81" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I81" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="J81" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="K81" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L81" t="n">
         <v>4.65</v>
@@ -14935,55 +14937,55 @@
         <v>7.8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P81" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R81" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T81" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U81" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V81" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W81" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X81" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Y81" t="n">
         <v>8.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA81" t="n">
         <v>15.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE81" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF81" t="n">
         <v>90</v>
@@ -14992,10 +14994,10 @@
         <v>800</v>
       </c>
       <c r="AH81" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ81" t="n">
         <v>14.5</v>
@@ -15010,16 +15012,16 @@
         <v>55</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO81" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP81" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ81" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR81" t="n">
         <v>65</v>
@@ -15028,10 +15030,10 @@
         <v>250</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV81" t="n">
         <v>70</v>
@@ -15644,7 +15646,7 @@
         <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>5.8</v>
+        <v>5.85</v>
       </c>
       <c r="O85" t="n">
         <v>1.57</v>
@@ -15799,46 +15801,46 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="H86" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="J86" t="n">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="K86" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L86" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M86" t="n">
         <v>1.08</v>
       </c>
       <c r="N86" t="n">
-        <v>5.25</v>
+        <v>5.3</v>
       </c>
       <c r="O86" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R86" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T86" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U86" t="n">
         <v>2.11</v>
@@ -15847,28 +15849,28 @@
         <v>1.69</v>
       </c>
       <c r="W86" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="X86" t="n">
-        <v>10.25</v>
+        <v>7.8</v>
       </c>
       <c r="Y86" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AA86" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB86" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC86" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AD86" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AE86" t="n">
         <v>15.5</v>
@@ -15880,43 +15882,43 @@
         <v>101</v>
       </c>
       <c r="AH86" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AI86" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ86" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK86" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AL86" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AM86" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AO86" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ86" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AR86" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AS86" t="n">
         <v>500</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AU86" t="n">
         <v>8.25</v>
@@ -15927,19 +15929,19 @@
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AZ86" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA86" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BB86" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BC86" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD86" t="n">
         <v>500</v>
@@ -15977,79 +15979,79 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="I87" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J87" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K87" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="L87" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M87" t="n">
         <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>6.15</v>
+        <v>5.95</v>
       </c>
       <c r="O87" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="P87" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.61</v>
+        <v>2.69</v>
       </c>
       <c r="R87" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S87" t="n">
         <v>1.55</v>
       </c>
       <c r="T87" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U87" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="V87" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="W87" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X87" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="Y87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB87" t="n">
         <v>40</v>
       </c>
       <c r="AC87" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="AD87" t="n">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="AE87" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF87" t="n">
         <v>90</v>
@@ -16058,66 +16060,70 @@
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AI87" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ87" t="n">
         <v>8.75</v>
       </c>
       <c r="AK87" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL87" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM87" t="n">
         <v>37</v>
       </c>
       <c r="AN87" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="AO87" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AP87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ87" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR87" t="n">
         <v>175</v>
       </c>
-      <c r="AS87" t="inlineStr"/>
+      <c r="AS87" t="n">
+        <v>500</v>
+      </c>
       <c r="AT87" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="AU87" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV87" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW87" t="inlineStr"/>
       <c r="AX87" t="inlineStr"/>
       <c r="AY87" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AZ87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA87" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB87" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC87" t="n">
         <v>150</v>
       </c>
-      <c r="BD87" t="inlineStr"/>
+      <c r="BD87" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -16355,7 +16361,7 @@
         <v>2.22</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="R89" t="n">
         <v>1.36</v>
@@ -17721,7 +17727,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="H97" t="n">
         <v>3.75</v>
@@ -17739,10 +17745,10 @@
         <v>2.2</v>
       </c>
       <c r="M97" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -17751,22 +17757,22 @@
         <v>3.8</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R97" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S97" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T97" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="U97" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="V97" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W97" t="n">
         <v>10.75</v>
@@ -17799,10 +17805,10 @@
         <v>50</v>
       </c>
       <c r="AG97" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI97" t="n">
         <v>6.9</v>
@@ -17832,10 +17838,10 @@
         <v>120</v>
       </c>
       <c r="AR97" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS97" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT97" t="n">
         <v>2.87</v>
@@ -17929,10 +17935,10 @@
         <v>2.32</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R98" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S98" t="n">
         <v>1.52</v>
@@ -17941,10 +17947,10 @@
         <v>2.12</v>
       </c>
       <c r="U98" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V98" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W98" t="n">
         <v>5.6</v>
@@ -18098,7 +18104,7 @@
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>5.5</v>
+        <v>5.55</v>
       </c>
       <c r="O99" t="n">
         <v>1.47</v>
@@ -18779,144 +18785,144 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="H103" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I103" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="L103" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="M103" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="O103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S103" t="n">
         <v>1.47</v>
       </c>
-      <c r="P103" t="n">
+      <c r="T103" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q103" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T103" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U103" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="V103" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W103" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="X103" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="Y103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z103" t="n">
         <v>9</v>
       </c>
-      <c r="Z103" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AA103" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB103" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC103" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD103" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AE103" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AG103" t="n">
         <v>101</v>
       </c>
       <c r="AH103" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AI103" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ103" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ103" t="n">
         <v>23</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP103" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ103" t="n">
-        <v>26</v>
       </c>
       <c r="AR103" t="n">
         <v>80</v>
       </c>
       <c r="AS103" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AU103" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AV103" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AW103" t="inlineStr"/>
       <c r="AX103" t="inlineStr"/>
       <c r="AY103" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AZ103" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA103" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BB103" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC103" t="n">
         <v>500</v>
@@ -19202,7 +19208,9 @@
       <c r="AF105" t="n">
         <v>250</v>
       </c>
-      <c r="AG105" t="inlineStr"/>
+      <c r="AG105" t="n">
+        <v>101</v>
+      </c>
       <c r="AH105" t="n">
         <v>8</v>
       </c>
@@ -19475,40 +19483,36 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="H107" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
         <v>3.3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="K107" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L107" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N107" t="n">
-        <v>8.4</v>
-      </c>
+        <v>3.55</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
       <c r="O107" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="P107" t="n">
-        <v>3.14</v>
+        <v>4.1</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="R107" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="S107" t="n">
         <v>1.38</v>
@@ -19517,108 +19521,110 @@
         <v>2.45</v>
       </c>
       <c r="U107" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="V107" t="n">
-        <v>2.08</v>
+        <v>2.51</v>
       </c>
       <c r="W107" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="X107" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y107" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z107" t="n">
         <v>15.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC107" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD107" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE107" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF107" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK107" t="n">
         <v>40</v>
       </c>
-      <c r="AG107" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI107" t="n">
+      <c r="AL107" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP107" t="n">
         <v>15</v>
       </c>
-      <c r="AJ107" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK107" t="n">
+      <c r="AQ107" t="n">
         <v>35</v>
       </c>
-      <c r="AL107" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ107" t="n">
+      <c r="AR107" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV107" t="n">
         <v>40</v>
       </c>
-      <c r="AR107" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW107" t="inlineStr"/>
+      <c r="AW107" t="n">
+        <v>500</v>
+      </c>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AZ107" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA107" t="n">
         <v>18.5</v>
       </c>
-      <c r="BA107" t="n">
-        <v>25</v>
-      </c>
       <c r="BB107" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BC107" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="BD107" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108">
@@ -19653,22 +19659,22 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="H108" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I108" t="n">
-        <v>4.65</v>
+        <v>5.6</v>
       </c>
       <c r="J108" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="L108" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="M108" t="n">
         <v>1.01</v>
@@ -19677,10 +19683,10 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P108" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="Q108" t="n">
         <v>1.53</v>
@@ -19689,91 +19695,91 @@
         <v>2.18</v>
       </c>
       <c r="S108" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="T108" t="n">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
       <c r="U108" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="V108" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="W108" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X108" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="Y108" t="n">
         <v>6.9</v>
       </c>
       <c r="Z108" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB108" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC108" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP108" t="n">
         <v>14</v>
       </c>
-      <c r="AD108" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AQ108" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR108" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AS108" t="n">
         <v>150</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AU108" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AV108" t="n">
         <v>50</v>
@@ -19781,19 +19787,19 @@
       <c r="AW108" t="inlineStr"/>
       <c r="AX108" t="inlineStr"/>
       <c r="AY108" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ108" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BA108" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB108" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC108" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD108" t="n">
         <v>300</v>
@@ -19855,10 +19861,10 @@
         <v>6.7</v>
       </c>
       <c r="O109" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P109" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="Q109" t="n">
         <v>2.32</v>
@@ -19873,10 +19879,10 @@
         <v>2.22</v>
       </c>
       <c r="U109" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V109" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W109" t="n">
         <v>5.4</v>
@@ -20407,10 +20413,10 @@
         <v>2.22</v>
       </c>
       <c r="U112" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V112" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W112" t="n">
         <v>5.6</v>
@@ -20719,130 +20725,130 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N114" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P114" t="n">
         <v>3.15</v>
       </c>
-      <c r="I114" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K114" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L114" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N114" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P114" t="n">
-        <v>2.65</v>
-      </c>
       <c r="Q114" t="n">
-        <v>2.05</v>
+        <v>1.78</v>
       </c>
       <c r="R114" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="S114" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="T114" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="U114" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="V114" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="W114" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="X114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE114" t="n">
         <v>14</v>
       </c>
-      <c r="Y114" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA114" t="n">
+      <c r="AF114" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM114" t="n">
         <v>27</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM114" t="n">
-        <v>35</v>
       </c>
       <c r="AN114" t="n">
         <v>4.7</v>
       </c>
       <c r="AO114" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP114" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ114" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR114" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS114" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="AU114" t="n">
         <v>7.2</v>
       </c>
       <c r="AV114" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW114" t="inlineStr"/>
       <c r="AX114" t="inlineStr"/>
@@ -20850,19 +20856,19 @@
         <v>4.15</v>
       </c>
       <c r="AZ114" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="BA114" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB114" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BC114" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BD114" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115">
@@ -20897,22 +20903,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="H115" t="n">
         <v>3</v>
       </c>
       <c r="I115" t="n">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="J115" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K115" t="n">
         <v>2.02</v>
       </c>
       <c r="L115" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="M115" t="n">
         <v>1.03</v>
@@ -20945,19 +20951,19 @@
         <v>1.88</v>
       </c>
       <c r="W115" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="X115" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y115" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z115" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA115" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB115" t="n">
         <v>32</v>
@@ -20978,43 +20984,43 @@
         <v>500</v>
       </c>
       <c r="AH115" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK115" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL115" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM115" t="n">
         <v>32</v>
       </c>
       <c r="AN115" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO115" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP115" t="n">
         <v>21</v>
       </c>
       <c r="AQ115" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR115" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS115" t="n">
         <v>250</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU115" t="n">
         <v>6.6</v>
@@ -21025,16 +21031,16 @@
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="inlineStr"/>
       <c r="AY115" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="AZ115" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA115" t="n">
         <v>21</v>
       </c>
       <c r="BB115" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BC115" t="n">
         <v>90</v>
@@ -21607,10 +21613,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I119" t="n">
         <v>5.5</v>
@@ -21619,43 +21625,43 @@
         <v>2.2</v>
       </c>
       <c r="K119" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L119" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N119" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="R119" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S119" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T119" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U119" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V119" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W119" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X119" t="n">
         <v>8</v>
@@ -21670,22 +21676,22 @@
         <v>13</v>
       </c>
       <c r="AB119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC119" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE119" t="n">
         <v>15</v>
       </c>
       <c r="AF119" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG119" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH119" t="n">
         <v>15</v>
@@ -21706,16 +21712,16 @@
         <v>41</v>
       </c>
       <c r="AN119" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR119" t="n">
         <v>41</v>
@@ -21724,10 +21730,10 @@
         <v>126</v>
       </c>
       <c r="AT119" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV119" t="n">
         <v>51</v>
@@ -21745,16 +21751,16 @@
         <v>26</v>
       </c>
       <c r="BA119" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB119" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC119" t="n">
         <v>101</v>
       </c>
       <c r="BD119" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120">
@@ -21789,94 +21795,94 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H120" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I120" t="n">
         <v>4.75</v>
       </c>
       <c r="J120" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K120" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L120" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M120" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N120" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O120" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P120" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R120" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="S120" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U120" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V120" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W120" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X120" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y120" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z120" t="n">
         <v>15</v>
       </c>
       <c r="AA120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB120" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC120" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF120" t="n">
         <v>51</v>
       </c>
       <c r="AG120" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH120" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI120" t="n">
         <v>23</v>
       </c>
       <c r="AJ120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK120" t="n">
         <v>51</v>
@@ -21891,13 +21897,13 @@
         <v>3.75</v>
       </c>
       <c r="AO120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR120" t="n">
         <v>51</v>
@@ -21906,13 +21912,13 @@
         <v>151</v>
       </c>
       <c r="AT120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU120" t="n">
         <v>8.5</v>
       </c>
       <c r="AV120" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW120" t="n">
         <v>81</v>
@@ -22001,10 +22007,10 @@
         <v>2.5</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S121" t="n">
         <v>1.57</v>
@@ -22167,10 +22173,10 @@
         <v>4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N122" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O122" t="n">
         <v>1.36</v>
@@ -22179,10 +22185,10 @@
         <v>3</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R122" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S122" t="n">
         <v>1.5</v>
@@ -23381,22 +23387,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
       </c>
       <c r="I129" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K129" t="n">
         <v>2.05</v>
       </c>
       <c r="L129" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M129" t="n">
         <v>1.08</v>
@@ -23423,10 +23429,10 @@
         <v>2.5</v>
       </c>
       <c r="U129" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V129" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W129" t="n">
         <v>6</v>
@@ -23438,7 +23444,7 @@
         <v>9</v>
       </c>
       <c r="Z129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA129" t="n">
         <v>17</v>
@@ -23465,10 +23471,10 @@
         <v>11</v>
       </c>
       <c r="AI129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK129" t="n">
         <v>51</v>
@@ -23477,13 +23483,13 @@
         <v>41</v>
       </c>
       <c r="AM129" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN129" t="n">
         <v>3.6</v>
       </c>
       <c r="AO129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP129" t="n">
         <v>23</v>
@@ -23509,10 +23515,10 @@
       <c r="AW129" t="inlineStr"/>
       <c r="AX129" t="inlineStr"/>
       <c r="AY129" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA129" t="n">
         <v>41</v>
@@ -23521,7 +23527,7 @@
         <v>101</v>
       </c>
       <c r="BC129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD129" t="n">
         <v>351</v>
@@ -23559,16 +23565,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H130" t="n">
         <v>3.1</v>
       </c>
       <c r="I130" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K130" t="n">
         <v>1.95</v>
@@ -23577,10 +23583,10 @@
         <v>3.75</v>
       </c>
       <c r="M130" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O130" t="n">
         <v>1.44</v>
@@ -23589,10 +23595,10 @@
         <v>2.63</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R130" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S130" t="n">
         <v>1.53</v>
@@ -23607,16 +23613,16 @@
         <v>1.73</v>
       </c>
       <c r="W130" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X130" t="n">
         <v>11</v>
       </c>
       <c r="Y130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA130" t="n">
         <v>23</v>
@@ -23646,19 +23652,19 @@
         <v>13</v>
       </c>
       <c r="AJ130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK130" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL130" t="n">
         <v>29</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>26</v>
       </c>
       <c r="AM130" t="n">
         <v>41</v>
       </c>
       <c r="AN130" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO130" t="n">
         <v>15</v>
@@ -23690,13 +23696,13 @@
         <v>4.75</v>
       </c>
       <c r="AZ130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA130" t="n">
         <v>29</v>
       </c>
       <c r="BB130" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC130" t="n">
         <v>101</v>
@@ -23943,16 +23949,16 @@
         <v>10</v>
       </c>
       <c r="O132" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P132" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S132" t="n">
         <v>1.44</v>
@@ -24095,22 +24101,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H133" t="n">
         <v>3.45</v>
       </c>
       <c r="I133" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J133" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K133" t="n">
         <v>2.18</v>
       </c>
       <c r="L133" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="M133" t="n">
         <v>1.04</v>
@@ -24143,31 +24149,31 @@
         <v>2.29</v>
       </c>
       <c r="W133" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X133" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC133" t="n">
         <v>11.5</v>
-      </c>
-      <c r="Y133" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>11.75</v>
       </c>
       <c r="AD133" t="n">
         <v>6</v>
       </c>
       <c r="AE133" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF133" t="n">
         <v>40</v>
@@ -24176,34 +24182,34 @@
         <v>250</v>
       </c>
       <c r="AH133" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI133" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ133" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AK133" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL133" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM133" t="n">
         <v>20</v>
       </c>
       <c r="AN133" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AO133" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP133" t="n">
         <v>20</v>
       </c>
       <c r="AQ133" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR133" t="n">
         <v>90</v>
@@ -24212,10 +24218,10 @@
         <v>250</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="AU133" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV133" t="n">
         <v>55</v>
@@ -24223,22 +24229,22 @@
       <c r="AW133" t="inlineStr"/>
       <c r="AX133" t="inlineStr"/>
       <c r="AY133" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AZ133" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BA133" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BB133" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BC133" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BD133" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134">
@@ -24291,10 +24297,10 @@
         <v>5</v>
       </c>
       <c r="M134" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N134" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O134" t="n">
         <v>1.5</v>
@@ -24303,10 +24309,10 @@
         <v>2.25</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="R134" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S134" t="n">
         <v>1.57</v>
@@ -24315,10 +24321,10 @@
         <v>2.02</v>
       </c>
       <c r="U134" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="V134" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W134" t="n">
         <v>4.3</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -795,19 +795,19 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -825,19 +825,19 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -849,19 +849,19 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
       </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.4</v>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
@@ -1660,55 +1660,55 @@
         <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
         <v>2.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1717,31 +1717,31 @@
         <v>51</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
@@ -1753,37 +1753,37 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>6.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX7" t="n">
         <v>160</v>
@@ -1795,16 +1795,16 @@
         <v>8.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BC7" t="n">
         <v>41</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.7</v>
@@ -2036,13 +2036,13 @@
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
         <v>1.2</v>
@@ -2051,25 +2051,25 @@
         <v>4.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -2081,28 +2081,28 @@
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2120,7 +2120,7 @@
         <v>26</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2135,28 +2135,28 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX9" t="n">
         <v>150</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA9" t="n">
         <v>21</v>
@@ -2165,7 +2165,7 @@
         <v>51</v>
       </c>
       <c r="BC9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
         <v>2.63</v>
       </c>
       <c r="L11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,71 +2427,73 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>501</v>
+      </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2503,10 +2505,10 @@
         <v>3.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
         <v>126</v>
@@ -2515,7 +2517,7 @@
         <v>151</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>51</v>
@@ -2524,13 +2526,13 @@
         <v>51</v>
       </c>
       <c r="BB11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD11" t="n">
         <v>451</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>401</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2565,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2589,16 +2591,16 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2607,34 +2609,34 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>15</v>
       </c>
       <c r="AB12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2646,34 +2648,34 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="n">
         <v>81</v>
       </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
       <c r="AM12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2685,7 +2687,7 @@
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
@@ -2697,19 +2699,19 @@
         <v>51</v>
       </c>
       <c r="AY12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD12" t="n">
         <v>351</v>
@@ -4181,22 +4183,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H21" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="J21" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -4208,25 +4210,25 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T21" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V21" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4235,61 +4237,61 @@
         <v>45</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC21" t="n">
         <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG21" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AL21" t="n">
         <v>9</v>
       </c>
       <c r="AM21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO21" t="n">
         <v>50</v>
       </c>
       <c r="AP21" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ21" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR21" t="n">
         <v>350</v>
@@ -4298,10 +4300,10 @@
         <v>500</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV21" t="n">
         <v>80</v>
@@ -4312,16 +4314,16 @@
         <v>3.1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BA21" t="n">
         <v>15.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BC21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BD21" t="n">
         <v>200</v>
@@ -4533,22 +4535,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J23" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K23" t="n">
         <v>2.18</v>
       </c>
       <c r="L23" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4560,13 +4562,13 @@
         <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
         <v>1.38</v>
@@ -4581,22 +4583,22 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z23" t="n">
         <v>16.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>7.8</v>
@@ -4605,10 +4607,10 @@
         <v>6.9</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="n">
         <v>400</v>
@@ -4617,16 +4619,16 @@
         <v>11.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK23" t="n">
         <v>50</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
         <v>35</v>
@@ -4635,25 +4637,25 @@
         <v>3.85</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>35</v>
       </c>
       <c r="AR23" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS23" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT23" t="n">
         <v>2.82</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV23" t="n">
         <v>60</v>
@@ -4665,22 +4667,22 @@
         <v>81</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC23" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD23" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24">
@@ -4718,43 +4720,43 @@
         <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K24" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="L24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P24" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R24" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="U24" t="n">
         <v>1.57</v>
@@ -4763,16 +4765,16 @@
         <v>2.25</v>
       </c>
       <c r="W24" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X24" t="n">
         <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA24" t="n">
         <v>10.25</v>
@@ -4781,10 +4783,10 @@
         <v>18.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE24" t="n">
         <v>15.5</v>
@@ -4796,13 +4798,13 @@
         <v>250</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>45</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
         <v>120</v>
@@ -4814,16 +4816,16 @@
         <v>40</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP24" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR24" t="n">
         <v>32</v>
@@ -4832,13 +4834,13 @@
         <v>120</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AU24" t="n">
         <v>7.3</v>
       </c>
       <c r="AV24" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW24" t="n">
         <v>81</v>
@@ -4847,16 +4849,16 @@
         <v>81</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC24" t="n">
         <v>150</v>
@@ -4897,130 +4899,130 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>12.9</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="S25" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V25" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA25" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
         <v>10.25</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
         <v>24</v>
       </c>
-      <c r="AC25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>21</v>
-      </c>
       <c r="AF25" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
         <v>27</v>
       </c>
       <c r="AK25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS25" t="n">
         <v>200</v>
       </c>
-      <c r="AL25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>150</v>
-      </c>
       <c r="AT25" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW25" t="n">
         <v>51</v>
@@ -5029,22 +5031,22 @@
         <v>51</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AZ25" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA25" t="n">
         <v>45</v>
       </c>
-      <c r="BA25" t="n">
-        <v>40</v>
-      </c>
       <c r="BB25" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC25" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BD25" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26">
@@ -5079,28 +5081,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="H26" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="K26" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="n">
         <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5109,25 +5111,25 @@
         <v>3.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="T26" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="W26" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="X26" t="n">
         <v>32</v>
@@ -5139,70 +5141,70 @@
         <v>80</v>
       </c>
       <c r="AA26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH26" t="n">
         <v>8.75</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AI26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK26" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
         <v>11.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR26" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS26" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW26" t="n">
         <v>500</v>
@@ -5211,13 +5213,13 @@
         <v>51</v>
       </c>
       <c r="AY26" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB26" t="n">
         <v>21</v>
@@ -5443,22 +5445,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -5470,7 +5472,7 @@
         <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q28" t="n">
         <v>2.07</v>
@@ -5485,7 +5487,7 @@
         <v>2.45</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
         <v>1.7</v>
@@ -5494,34 +5496,34 @@
         <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB28" t="n">
         <v>32</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>100</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH28" t="n">
         <v>10</v>
@@ -5530,31 +5532,31 @@
         <v>22</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN28" t="n">
         <v>3.55</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR28" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS28" t="n">
         <v>300</v>
@@ -5566,7 +5568,7 @@
         <v>7.6</v>
       </c>
       <c r="AV28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW28" t="n">
         <v>51</v>
@@ -5575,22 +5577,22 @@
         <v>51</v>
       </c>
       <c r="AY28" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AZ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA28" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB28" t="n">
         <v>150</v>
       </c>
       <c r="BC28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD28" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29">
@@ -5625,40 +5627,36 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J29" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
         <v>2.07</v>
       </c>
       <c r="L29" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.6</v>
-      </c>
+        <v>2.52</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>1.39</v>
@@ -5667,16 +5665,16 @@
         <v>2.57</v>
       </c>
       <c r="U29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W29" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
@@ -5688,25 +5686,25 @@
         <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI29" t="n">
         <v>10.25</v>
@@ -5730,22 +5728,22 @@
         <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR29" t="n">
         <v>110</v>
       </c>
-      <c r="AR29" t="n">
-        <v>120</v>
-      </c>
       <c r="AS29" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV29" t="n">
         <v>45</v>
@@ -5763,7 +5761,7 @@
         <v>10</v>
       </c>
       <c r="BA29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>37</v>
@@ -6012,7 +6010,7 @@
         <v>1.16</v>
       </c>
       <c r="P31" t="n">
-        <v>3.92</v>
+        <v>3.94</v>
       </c>
       <c r="Q31" t="n">
         <v>1.57</v>
@@ -6191,10 +6189,10 @@
         <v>7.13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="Q32" t="n">
         <v>1.98</v>
@@ -6877,55 +6875,55 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S36" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T36" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -6934,34 +6932,34 @@
         <v>9</v>
       </c>
       <c r="Z36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB36" t="n">
         <v>21</v>
       </c>
-      <c r="AA36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>26</v>
-      </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
@@ -6970,54 +6968,54 @@
         <v>34</v>
       </c>
       <c r="AL36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
         <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ36" t="n">
         <v>17</v>
       </c>
       <c r="BA36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB36" t="n">
         <v>51</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7055,28 +7053,28 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -7085,10 +7083,10 @@
         <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>1.5</v>
@@ -7106,19 +7104,19 @@
         <v>6.5</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -7136,10 +7134,10 @@
         <v>351</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
@@ -7148,16 +7146,16 @@
         <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>41</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP37" t="n">
         <v>23</v>
@@ -7190,19 +7188,19 @@
         <v>5.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC37" t="n">
         <v>101</v>
       </c>
       <c r="BD37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -7446,7 +7444,7 @@
         <v>1.06</v>
       </c>
       <c r="R39" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.06</v>
@@ -7455,10 +7453,10 @@
         <v>7.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V39" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
         <v>19</v>
@@ -7591,28 +7589,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J40" t="n">
         <v>3</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.88</v>
       </c>
       <c r="K40" t="n">
         <v>1.95</v>
       </c>
       <c r="L40" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7627,10 +7625,10 @@
         <v>1.5</v>
       </c>
       <c r="S40" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U40" t="n">
         <v>2.1</v>
@@ -7642,16 +7640,16 @@
         <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>41</v>
@@ -7660,7 +7658,7 @@
         <v>6.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE40" t="n">
         <v>17</v>
@@ -7670,10 +7668,10 @@
       </c>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>15</v>
@@ -7682,31 +7680,31 @@
         <v>41</v>
       </c>
       <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
         <v>41</v>
       </c>
-      <c r="AM40" t="n">
-        <v>51</v>
-      </c>
       <c r="AN40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
       </c>
       <c r="AR40" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS40" t="n">
         <v>251</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU40" t="n">
         <v>9</v>
@@ -7724,7 +7722,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA40" t="n">
         <v>34</v>
@@ -7953,19 +7951,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
         <v>1.44</v>
       </c>
       <c r="J42" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L42" t="n">
         <v>1.93</v>
@@ -7977,10 +7975,10 @@
         <v>12</v>
       </c>
       <c r="O42" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P42" t="n">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="Q42" t="n">
         <v>1.72</v>
@@ -7989,10 +7987,10 @@
         <v>1.88</v>
       </c>
       <c r="S42" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="T42" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="U42" t="n">
         <v>1.92</v>
@@ -8004,34 +8002,34 @@
         <v>13</v>
       </c>
       <c r="X42" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z42" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB42" t="n">
         <v>50</v>
       </c>
       <c r="AC42" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF42" t="n">
         <v>65</v>
       </c>
       <c r="AG42" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH42" t="n">
         <v>5.7</v>
@@ -8040,37 +8038,37 @@
         <v>5.8</v>
       </c>
       <c r="AJ42" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AK42" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AL42" t="n">
         <v>9.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN42" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP42" t="n">
         <v>40</v>
       </c>
       <c r="AQ42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR42" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS42" t="n">
         <v>500</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU42" t="n">
         <v>8.25</v>
@@ -8081,13 +8079,13 @@
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
       <c r="AY42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AZ42" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BA42" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB42" t="n">
         <v>19.5</v>
@@ -8140,7 +8138,7 @@
         <v>3.25</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>2.05</v>
@@ -8149,22 +8147,22 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O43" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8179,7 +8177,7 @@
         <v>1.91</v>
       </c>
       <c r="W43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X43" t="n">
         <v>11</v>
@@ -8194,7 +8192,7 @@
         <v>21</v>
       </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
@@ -8224,7 +8222,7 @@
         <v>34</v>
       </c>
       <c r="AL43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>41</v>
@@ -8236,7 +8234,7 @@
         <v>13</v>
       </c>
       <c r="AP43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ43" t="n">
         <v>41</v>
@@ -8251,7 +8249,7 @@
         <v>2.63</v>
       </c>
       <c r="AU43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
         <v>51</v>
@@ -8313,22 +8311,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I44" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L44" t="n">
         <v>6.2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -8355,25 +8353,25 @@
         <v>2.67</v>
       </c>
       <c r="U44" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V44" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W44" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X44" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y44" t="n">
         <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB44" t="n">
         <v>37</v>
@@ -8382,10 +8380,10 @@
         <v>7.6</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF44" t="n">
         <v>150</v>
@@ -8400,28 +8398,28 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK44" t="n">
         <v>150</v>
       </c>
       <c r="AL44" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM44" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO44" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AP44" t="n">
         <v>20</v>
       </c>
       <c r="AQ44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR44" t="n">
         <v>65</v>
@@ -8433,24 +8431,24 @@
         <v>2.67</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV44" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="inlineStr"/>
       <c r="AY44" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AZ44" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA44" t="n">
         <v>45</v>
       </c>
       <c r="BB44" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC44" t="n">
         <v>350</v>
@@ -9231,43 +9229,43 @@
         <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S49" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X49" t="n">
         <v>11</v>
@@ -9279,13 +9277,13 @@
         <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
         <v>6.5</v>
@@ -9297,25 +9295,25 @@
         <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI49" t="n">
         <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="n">
         <v>4.5</v>
@@ -9330,19 +9328,19 @@
         <v>51</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS49" t="n">
         <v>201</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW49" t="n">
         <v>126</v>
@@ -9357,7 +9355,7 @@
         <v>17</v>
       </c>
       <c r="BA49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB49" t="n">
         <v>51</v>
@@ -9366,7 +9364,7 @@
         <v>81</v>
       </c>
       <c r="BD49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50">
@@ -9428,7 +9426,7 @@
         <v>1.08</v>
       </c>
       <c r="P50" t="n">
-        <v>5.35</v>
+        <v>5.3</v>
       </c>
       <c r="Q50" t="n">
         <v>1.4</v>
@@ -9968,7 +9966,7 @@
         <v>1.1</v>
       </c>
       <c r="P53" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q53" t="n">
         <v>1.4</v>
@@ -10124,19 +10122,19 @@
         <v>1.65</v>
       </c>
       <c r="H54" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="J54" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
@@ -10148,13 +10146,13 @@
         <v>1.09</v>
       </c>
       <c r="P54" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R54" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S54" t="n">
         <v>1.23</v>
@@ -10166,7 +10164,7 @@
         <v>1.5</v>
       </c>
       <c r="V54" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W54" t="n">
         <v>10.5</v>
@@ -10181,19 +10179,19 @@
         <v>14.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF54" t="n">
         <v>40</v>
@@ -10202,16 +10200,16 @@
         <v>250</v>
       </c>
       <c r="AH54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL54" t="n">
         <v>35</v>
@@ -10220,50 +10218,50 @@
         <v>32</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AP54" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ54" t="n">
         <v>22</v>
       </c>
       <c r="AR54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS54" t="n">
         <v>120</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU54" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV54" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW54" t="n">
         <v>500</v>
       </c>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA54" t="n">
         <v>23</v>
       </c>
       <c r="BB54" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC54" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BD54" t="n">
         <v>200</v>
@@ -10861,10 +10859,10 @@
         <v>16</v>
       </c>
       <c r="O58" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P58" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q58" t="n">
         <v>1.44</v>
@@ -11044,7 +11042,7 @@
         <v>1.14</v>
       </c>
       <c r="P59" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q59" t="n">
         <v>1.5</v>
@@ -11740,7 +11738,7 @@
         <v>1.13</v>
       </c>
       <c r="P63" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="Q63" t="n">
         <v>1.53</v>
@@ -12249,7 +12247,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H66" t="n">
         <v>3.45</v>
@@ -12264,7 +12262,7 @@
         <v>2.22</v>
       </c>
       <c r="L66" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -12297,10 +12295,10 @@
         <v>2.32</v>
       </c>
       <c r="W66" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X66" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y66" t="n">
         <v>9.75</v>
@@ -12324,28 +12322,28 @@
         <v>11.25</v>
       </c>
       <c r="AF66" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG66" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH66" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ66" t="n">
         <v>9.25</v>
       </c>
       <c r="AK66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL66" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM66" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN66" t="n">
         <v>4.85</v>
@@ -12354,7 +12352,7 @@
         <v>13.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ66" t="n">
         <v>55</v>
@@ -12366,10 +12364,10 @@
         <v>175</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV66" t="n">
         <v>40</v>
@@ -12377,7 +12375,7 @@
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AZ66" t="n">
         <v>12</v>
@@ -12389,10 +12387,10 @@
         <v>45</v>
       </c>
       <c r="BC66" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BD66" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67">
@@ -12427,22 +12425,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H67" t="n">
         <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="J67" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="K67" t="n">
         <v>2.12</v>
       </c>
       <c r="L67" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.02</v>
@@ -12457,46 +12455,46 @@
         <v>3.22</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R67" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S67" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T67" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U67" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V67" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W67" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X67" t="n">
         <v>6.8</v>
       </c>
       <c r="Y67" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z67" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA67" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC67" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD67" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE67" t="n">
         <v>13</v>
@@ -12511,13 +12509,13 @@
         <v>9.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ67" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK67" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL67" t="n">
         <v>30</v>
@@ -12529,13 +12527,13 @@
         <v>3.55</v>
       </c>
       <c r="AO67" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP67" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR67" t="n">
         <v>65</v>
@@ -12544,7 +12542,7 @@
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU67" t="n">
         <v>7.7</v>
@@ -12555,16 +12553,16 @@
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AZ67" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA67" t="n">
         <v>30</v>
       </c>
       <c r="BB67" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC67" t="n">
         <v>175</v>
@@ -13003,10 +13001,10 @@
         <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V70" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="W70" t="n">
         <v>7.3</v>
@@ -13166,7 +13164,7 @@
         <v>1.15</v>
       </c>
       <c r="P71" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="Q71" t="n">
         <v>1.62</v>
@@ -14737,22 +14735,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H80" t="n">
         <v>4.2</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J80" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="K80" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L80" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="M80" t="n">
         <v>1.02</v>
@@ -14761,16 +14759,16 @@
         <v>9.6</v>
       </c>
       <c r="O80" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P80" t="n">
         <v>2.95</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="n">
         <v>1.4</v>
@@ -14779,31 +14777,31 @@
         <v>2.55</v>
       </c>
       <c r="U80" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V80" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W80" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X80" t="n">
         <v>5.6</v>
       </c>
-      <c r="X80" t="n">
-        <v>5.7</v>
-      </c>
       <c r="Y80" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z80" t="n">
         <v>8.25</v>
       </c>
       <c r="AA80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB80" t="n">
         <v>37</v>
       </c>
       <c r="AC80" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD80" t="n">
         <v>8.5</v>
@@ -14821,37 +14819,37 @@
         <v>17</v>
       </c>
       <c r="AI80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR80" t="n">
         <v>55</v>
       </c>
-      <c r="AJ80" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM80" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO80" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR80" t="n">
-        <v>50</v>
-      </c>
       <c r="AS80" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT80" t="n">
         <v>2.62</v>
@@ -14865,19 +14863,19 @@
       <c r="AW80" t="inlineStr"/>
       <c r="AX80" t="inlineStr"/>
       <c r="AY80" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AZ80" t="n">
         <v>50</v>
       </c>
       <c r="BA80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB80" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC80" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD80" t="inlineStr"/>
     </row>
@@ -15269,22 +15267,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H83" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I83" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="J83" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K83" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L83" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="M83" t="n">
         <v>1.05</v>
@@ -15308,52 +15306,52 @@
         <v>1.44</v>
       </c>
       <c r="T83" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U83" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V83" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W83" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X83" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y83" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z83" t="n">
         <v>29</v>
       </c>
       <c r="AA83" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB83" t="n">
         <v>35</v>
       </c>
       <c r="AC83" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD83" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE83" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF83" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG83" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH83" t="n">
         <v>7.8</v>
       </c>
       <c r="AI83" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>10.25</v>
@@ -15362,7 +15360,7 @@
         <v>35</v>
       </c>
       <c r="AL83" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM83" t="n">
         <v>37</v>
@@ -15374,10 +15372,10 @@
         <v>14</v>
       </c>
       <c r="AP83" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR83" t="n">
         <v>100</v>
@@ -15386,27 +15384,27 @@
         <v>300</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU83" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV83" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW83" t="inlineStr"/>
       <c r="AX83" t="inlineStr"/>
       <c r="AY83" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AZ83" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA83" t="n">
         <v>23</v>
       </c>
       <c r="BB83" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC83" t="n">
         <v>110</v>
@@ -15801,22 +15799,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>3</v>
       </c>
       <c r="I86" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K86" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L86" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M86" t="n">
         <v>1.08</v>
@@ -15828,7 +15826,7 @@
         <v>1.5</v>
       </c>
       <c r="P86" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Q86" t="n">
         <v>2.42</v>
@@ -15837,10 +15835,10 @@
         <v>1.42</v>
       </c>
       <c r="S86" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T86" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U86" t="n">
         <v>2.11</v>
@@ -15849,16 +15847,16 @@
         <v>1.69</v>
       </c>
       <c r="W86" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="X86" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y86" t="n">
         <v>8.25</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA86" t="n">
         <v>18</v>
@@ -15885,22 +15883,22 @@
         <v>6</v>
       </c>
       <c r="AI86" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK86" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL86" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM86" t="n">
         <v>40</v>
       </c>
       <c r="AN86" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO86" t="n">
         <v>12.5</v>
@@ -15918,30 +15916,30 @@
         <v>500</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AU86" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV86" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AZ86" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA86" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB86" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC86" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD86" t="n">
         <v>500</v>
@@ -16157,22 +16155,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H88" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="I88" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="J88" t="n">
         <v>2.72</v>
       </c>
       <c r="K88" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L88" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M88" t="n">
         <v>1.07</v>
@@ -16184,7 +16182,7 @@
         <v>1.62</v>
       </c>
       <c r="P88" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q88" t="n">
         <v>2.92</v>
@@ -16193,19 +16191,19 @@
         <v>1.29</v>
       </c>
       <c r="S88" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T88" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U88" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V88" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W88" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X88" t="n">
         <v>6.2</v>
@@ -16214,46 +16212,46 @@
         <v>8.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB88" t="n">
         <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AD88" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AE88" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ88" t="n">
         <v>13</v>
       </c>
       <c r="AK88" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN88" t="n">
         <v>3.5</v>
@@ -16262,40 +16260,40 @@
         <v>11</v>
       </c>
       <c r="AP88" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ88" t="n">
         <v>50</v>
       </c>
       <c r="AR88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS88" t="inlineStr"/>
       <c r="AT88" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AU88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV88" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AW88" t="inlineStr"/>
       <c r="AX88" t="inlineStr"/>
       <c r="AY88" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AZ88" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA88" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB88" t="n">
         <v>200</v>
       </c>
       <c r="BC88" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD88" t="inlineStr"/>
     </row>
@@ -16331,22 +16329,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H89" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="J89" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="K89" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L89" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
@@ -16361,16 +16359,16 @@
         <v>2.22</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="R89" t="n">
         <v>1.36</v>
       </c>
       <c r="S89" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="T89" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="U89" t="n">
         <v>2.35</v>
@@ -16379,99 +16377,99 @@
         <v>1.56</v>
       </c>
       <c r="W89" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="X89" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y89" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Z89" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA89" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB89" t="n">
         <v>35</v>
       </c>
       <c r="AC89" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD89" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE89" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI89" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AJ89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK89" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL89" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM89" t="n">
         <v>55</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP89" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AQ89" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR89" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV89" t="n">
         <v>110</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>120</v>
       </c>
       <c r="AW89" t="inlineStr"/>
       <c r="AX89" t="inlineStr"/>
       <c r="AY89" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AZ89" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB89" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC89" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD89" t="inlineStr"/>
     </row>
@@ -17039,10 +17037,10 @@
         <v>3.15</v>
       </c>
       <c r="M93" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N93" t="n">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="O93" t="n">
         <v>1.55</v>
@@ -17051,10 +17049,10 @@
         <v>2.15</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.75</v>
+        <v>2.58</v>
       </c>
       <c r="R93" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S93" t="n">
         <v>1.57</v>
@@ -17063,10 +17061,10 @@
         <v>2.02</v>
       </c>
       <c r="U93" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="V93" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="W93" t="n">
         <v>5.5</v>
@@ -17199,58 +17197,58 @@
         <v>4.05</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="J94" t="n">
         <v>1.91</v>
       </c>
       <c r="K94" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L94" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M94" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N94" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P94" t="n">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R94" t="n">
         <v>1.7</v>
       </c>
       <c r="S94" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T94" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U94" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V94" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W94" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="X94" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Y94" t="n">
         <v>7.4</v>
       </c>
       <c r="Z94" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA94" t="n">
         <v>10.75</v>
@@ -17259,13 +17257,13 @@
         <v>29</v>
       </c>
       <c r="AC94" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD94" t="n">
         <v>7.1</v>
       </c>
       <c r="AE94" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF94" t="n">
         <v>110</v>
@@ -17278,13 +17276,13 @@
         <v>32</v>
       </c>
       <c r="AJ94" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK94" t="n">
         <v>120</v>
       </c>
       <c r="AL94" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM94" t="n">
         <v>75</v>
@@ -17296,22 +17294,22 @@
         <v>6.4</v>
       </c>
       <c r="AP94" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ94" t="n">
         <v>19.5</v>
       </c>
       <c r="AR94" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS94" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU94" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV94" t="n">
         <v>120</v>
@@ -17319,10 +17317,10 @@
       <c r="AW94" t="inlineStr"/>
       <c r="AX94" t="inlineStr"/>
       <c r="AY94" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AZ94" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA94" t="n">
         <v>55</v>
@@ -17367,22 +17365,22 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I95" t="n">
         <v>3.4</v>
       </c>
-      <c r="I95" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K95" t="n">
         <v>2.2</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M95" t="n">
         <v>1.05</v>
@@ -17415,19 +17413,19 @@
         <v>2.1</v>
       </c>
       <c r="W95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z95" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA95" t="n">
         <v>17</v>
-      </c>
-      <c r="AA95" t="n">
-        <v>15</v>
       </c>
       <c r="AB95" t="n">
         <v>23</v>
@@ -17439,7 +17437,7 @@
         <v>6.5</v>
       </c>
       <c r="AE95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF95" t="n">
         <v>41</v>
@@ -17451,31 +17449,31 @@
         <v>12</v>
       </c>
       <c r="AI95" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ95" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK95" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL95" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM95" t="n">
         <v>29</v>
       </c>
-      <c r="AM95" t="n">
-        <v>34</v>
-      </c>
       <c r="AN95" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP95" t="n">
         <v>21</v>
       </c>
       <c r="AQ95" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR95" t="n">
         <v>51</v>
@@ -17499,19 +17497,19 @@
         <v>126</v>
       </c>
       <c r="AY95" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA95" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB95" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC95" t="n">
         <v>67</v>
-      </c>
-      <c r="BC95" t="n">
-        <v>81</v>
       </c>
       <c r="BD95" t="n">
         <v>151</v>
@@ -17727,7 +17725,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="H97" t="n">
         <v>3.75</v>
@@ -17736,7 +17734,7 @@
         <v>1.65</v>
       </c>
       <c r="J97" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="K97" t="n">
         <v>2.22</v>
@@ -17748,31 +17746,31 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O97" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P97" t="n">
-        <v>3.8</v>
+        <v>3.44</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R97" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S97" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="T97" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="U97" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V97" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W97" t="n">
         <v>10.75</v>
@@ -17799,16 +17797,16 @@
         <v>6.5</v>
       </c>
       <c r="AE97" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF97" t="n">
         <v>50</v>
       </c>
       <c r="AG97" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI97" t="n">
         <v>6.9</v>
@@ -17838,13 +17836,13 @@
         <v>120</v>
       </c>
       <c r="AR97" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS97" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU97" t="n">
         <v>7.5</v>
@@ -17914,7 +17912,7 @@
         <v>2.57</v>
       </c>
       <c r="J98" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K98" t="n">
         <v>1.9</v>
@@ -17926,7 +17924,7 @@
         <v>1.07</v>
       </c>
       <c r="N98" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O98" t="n">
         <v>1.47</v>
@@ -17974,10 +17972,10 @@
         <v>6.7</v>
       </c>
       <c r="AD98" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AE98" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF98" t="n">
         <v>80</v>
@@ -18036,7 +18034,7 @@
         <v>4.25</v>
       </c>
       <c r="AZ98" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA98" t="n">
         <v>29</v>
@@ -19500,8 +19498,12 @@
       <c r="L107" t="n">
         <v>3.55</v>
       </c>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N107" t="n">
+        <v>13.2</v>
+      </c>
       <c r="O107" t="n">
         <v>1.14</v>
       </c>
@@ -19659,34 +19661,34 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H108" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="K108" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="L108" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M108" t="n">
         <v>1.01</v>
       </c>
       <c r="N108" t="n">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="O108" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P108" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q108" t="n">
         <v>1.53</v>
@@ -19707,10 +19709,10 @@
         <v>2.2</v>
       </c>
       <c r="W108" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X108" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y108" t="n">
         <v>6.9</v>
@@ -19719,7 +19721,7 @@
         <v>9.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB108" t="n">
         <v>15.5</v>
@@ -19728,19 +19730,19 @@
         <v>15.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE108" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG108" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH108" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI108" t="n">
         <v>32</v>
@@ -19749,37 +19751,37 @@
         <v>14.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL108" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM108" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN108" t="n">
         <v>3.5</v>
       </c>
       <c r="AO108" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AP108" t="n">
         <v>14</v>
       </c>
       <c r="AQ108" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR108" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS108" t="n">
         <v>150</v>
       </c>
       <c r="AT108" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU108" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
         <v>50</v>
@@ -19787,19 +19789,19 @@
       <c r="AW108" t="inlineStr"/>
       <c r="AX108" t="inlineStr"/>
       <c r="AY108" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AZ108" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA108" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB108" t="n">
         <v>175</v>
       </c>
       <c r="BC108" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD108" t="n">
         <v>300</v>
@@ -19858,7 +19860,7 @@
         <v>1.07</v>
       </c>
       <c r="N109" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="O109" t="n">
         <v>1.45</v>
@@ -20214,13 +20216,13 @@
         <v>1.02</v>
       </c>
       <c r="N111" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O111" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P111" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="Q111" t="n">
         <v>2.22</v>
@@ -20235,7 +20237,7 @@
         <v>2.2</v>
       </c>
       <c r="U111" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V111" t="n">
         <v>1.79</v>
@@ -20567,16 +20569,16 @@
         <v>7.5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N113" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O113" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="P113" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="Q113" t="n">
         <v>2.25</v>
@@ -20591,10 +20593,10 @@
         <v>2.27</v>
       </c>
       <c r="U113" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="V113" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="W113" t="n">
         <v>3.95</v>
@@ -20743,10 +20745,10 @@
         <v>2.85</v>
       </c>
       <c r="M114" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N114" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="O114" t="n">
         <v>1.26</v>
@@ -22354,13 +22356,13 @@
         <v>1.02</v>
       </c>
       <c r="N123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O123" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P123" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q123" t="n">
         <v>1.39</v>
@@ -23209,19 +23211,19 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H128" t="n">
         <v>2.9</v>
       </c>
       <c r="I128" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J128" t="n">
         <v>3.85</v>
       </c>
       <c r="K128" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L128" t="n">
         <v>2.82</v>
@@ -23257,40 +23259,40 @@
         <v>1.7</v>
       </c>
       <c r="W128" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X128" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y128" t="n">
         <v>9.75</v>
       </c>
       <c r="Z128" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA128" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB128" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC128" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD128" t="n">
         <v>5.1</v>
       </c>
       <c r="AE128" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF128" t="n">
         <v>65</v>
       </c>
       <c r="AG128" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH128" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AI128" t="n">
         <v>8.25</v>
@@ -23299,13 +23301,13 @@
         <v>7.7</v>
       </c>
       <c r="AK128" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL128" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM128" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN128" t="n">
         <v>5</v>
@@ -23314,7 +23316,7 @@
         <v>19</v>
       </c>
       <c r="AP128" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ128" t="n">
         <v>100</v>
@@ -23323,7 +23325,7 @@
         <v>150</v>
       </c>
       <c r="AS128" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT128" t="n">
         <v>2.27</v>
@@ -23343,7 +23345,7 @@
         <v>11.75</v>
       </c>
       <c r="BA128" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB128" t="n">
         <v>50</v>
@@ -23352,7 +23354,7 @@
         <v>90</v>
       </c>
       <c r="BD128" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129">
@@ -23405,10 +23407,10 @@
         <v>5.5</v>
       </c>
       <c r="M129" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N129" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O129" t="n">
         <v>1.36</v>
@@ -24101,22 +24103,22 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="H133" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I133" t="n">
-        <v>2.22</v>
+        <v>2.35</v>
       </c>
       <c r="J133" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K133" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L133" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="M133" t="n">
         <v>1.04</v>
@@ -24134,13 +24136,13 @@
         <v>1.7</v>
       </c>
       <c r="R133" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S133" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T133" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U133" t="n">
         <v>1.59</v>
@@ -24152,25 +24154,25 @@
         <v>8.5</v>
       </c>
       <c r="X133" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC133" t="n">
         <v>12</v>
       </c>
-      <c r="Y133" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z133" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA133" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD133" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE133" t="n">
         <v>10.75</v>
@@ -24182,37 +24184,37 @@
         <v>250</v>
       </c>
       <c r="AH133" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AI133" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ133" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AK133" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL133" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM133" t="n">
         <v>20</v>
       </c>
       <c r="AN133" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="AO133" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP133" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ133" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR133" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS133" t="n">
         <v>250</v>
@@ -24229,19 +24231,19 @@
       <c r="AW133" t="inlineStr"/>
       <c r="AX133" t="inlineStr"/>
       <c r="AY133" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="AZ133" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BA133" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BB133" t="n">
         <v>45</v>
       </c>
       <c r="BC133" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BD133" t="n">
         <v>200</v>
@@ -24321,7 +24323,7 @@
         <v>2.02</v>
       </c>
       <c r="U134" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="V134" t="n">
         <v>1.56</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1302,7 +1302,7 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1314,7 +1314,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1350,19 +1350,19 @@
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21</v>
       </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1374,7 +1374,7 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1398,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1413,7 +1413,7 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1681,16 +1681,16 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,16 +1869,16 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1887,10 +1887,10 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1899,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1908,31 +1908,31 @@
         <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
         <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1941,13 +1941,13 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,10 +1956,10 @@
         <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
@@ -1974,7 +1974,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA8" t="n">
         <v>23</v>
@@ -1983,7 +1983,7 @@
         <v>67</v>
       </c>
       <c r="BC8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD8" t="n">
         <v>126</v>
@@ -2385,40 +2385,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,19 +2427,19 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>7.5</v>
@@ -2454,16 +2454,16 @@
         <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -2475,19 +2475,19 @@
         <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2499,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="n">
         <v>3.4</v>
@@ -2517,22 +2517,22 @@
         <v>151</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
@@ -4219,10 +4219,10 @@
         <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T21" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U21" t="n">
         <v>1.95</v>
@@ -4399,10 +4399,10 @@
         <v>2.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="W22" t="n">
         <v>9.25</v>
@@ -4920,7 +4920,7 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -5099,10 +5099,10 @@
         <v>2.05</v>
       </c>
       <c r="M26" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5644,8 +5644,12 @@
       <c r="L29" t="n">
         <v>2.52</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
       <c r="O29" t="n">
         <v>1.22</v>
       </c>
@@ -6366,7 +6370,7 @@
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q33" t="n">
         <v>1.72</v>
@@ -6541,10 +6545,10 @@
         <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.53</v>
@@ -6700,16 +6704,16 @@
         <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>4.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L35" t="n">
         <v>4.5</v>
@@ -6721,34 +6725,34 @@
         <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6763,19 +6767,19 @@
         <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH35" t="n">
         <v>17</v>
@@ -6799,7 +6803,7 @@
         <v>4</v>
       </c>
       <c r="AO35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP35" t="n">
         <v>17</v>
@@ -6814,13 +6818,13 @@
         <v>101</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="inlineStr"/>
@@ -6875,13 +6879,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
         <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
         <v>2.75</v>
@@ -6890,7 +6894,7 @@
         <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -6911,19 +6915,19 @@
         <v>2.05</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -6932,19 +6936,19 @@
         <v>9</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE36" t="n">
         <v>12</v>
@@ -6953,13 +6957,13 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ36" t="n">
         <v>12</v>
@@ -6977,28 +6981,28 @@
         <v>4.33</v>
       </c>
       <c r="AO36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR36" t="n">
         <v>51</v>
       </c>
       <c r="AS36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
       </c>
       <c r="AV36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
@@ -7256,7 +7260,7 @@
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
@@ -7265,10 +7269,10 @@
         <v>5.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R38" t="n">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="S38" t="n">
         <v>1.22</v>
@@ -7453,10 +7457,10 @@
         <v>7.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W39" t="n">
         <v>19</v>
@@ -7589,28 +7593,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
         <v>2.9</v>
       </c>
       <c r="I40" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K40" t="n">
         <v>1.95</v>
       </c>
       <c r="L40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O40" t="n">
         <v>1.44</v>
@@ -7643,7 +7647,7 @@
         <v>9</v>
       </c>
       <c r="Y40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z40" t="n">
         <v>19</v>
@@ -7658,7 +7662,7 @@
         <v>6.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE40" t="n">
         <v>17</v>
@@ -7722,7 +7726,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA40" t="n">
         <v>34</v>
@@ -7972,7 +7976,7 @@
         <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
         <v>1.2</v>
@@ -8147,10 +8151,10 @@
         <v>3.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -8159,10 +8163,10 @@
         <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8853,22 +8857,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -8904,10 +8908,10 @@
         <v>8</v>
       </c>
       <c r="X47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z47" t="n">
         <v>12</v>
@@ -8937,10 +8941,10 @@
         <v>17</v>
       </c>
       <c r="AI47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK47" t="n">
         <v>51</v>
@@ -8952,10 +8956,10 @@
         <v>41</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP47" t="n">
         <v>17</v>
@@ -8967,7 +8971,7 @@
         <v>41</v>
       </c>
       <c r="AS47" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT47" t="n">
         <v>3.25</v>
@@ -8979,7 +8983,7 @@
         <v>51</v>
       </c>
       <c r="AW47" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AX47" t="n">
         <v>151</v>
@@ -8988,13 +8992,13 @@
         <v>7</v>
       </c>
       <c r="AZ47" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA47" t="n">
         <v>29</v>
       </c>
-      <c r="BA47" t="n">
-        <v>34</v>
-      </c>
       <c r="BB47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC47" t="n">
         <v>101</v>
@@ -9217,13 +9221,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
@@ -9232,7 +9236,7 @@
         <v>2</v>
       </c>
       <c r="L49" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.08</v>
@@ -9259,10 +9263,10 @@
         <v>2.5</v>
       </c>
       <c r="U49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W49" t="n">
         <v>7</v>
@@ -9277,7 +9281,7 @@
         <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
@@ -9292,10 +9296,10 @@
         <v>17</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG49" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH49" t="n">
         <v>7.5</v>
@@ -9316,13 +9320,13 @@
         <v>41</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO49" t="n">
         <v>15</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ49" t="n">
         <v>51</v>
@@ -9331,7 +9335,7 @@
         <v>81</v>
       </c>
       <c r="AS49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT49" t="n">
         <v>2.5</v>
@@ -9966,7 +9970,7 @@
         <v>1.1</v>
       </c>
       <c r="P53" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q53" t="n">
         <v>1.4</v>
@@ -11549,16 +11553,16 @@
         <v>2.42</v>
       </c>
       <c r="M62" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N62" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="O62" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P62" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Q62" t="n">
         <v>1.42</v>
@@ -11567,10 +11571,10 @@
         <v>2.45</v>
       </c>
       <c r="S62" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="T62" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="U62" t="n">
         <v>1.42</v>
@@ -11909,10 +11913,10 @@
         <v>2.47</v>
       </c>
       <c r="M64" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="O64" t="n">
         <v>1.22</v>
@@ -13001,10 +13005,10 @@
         <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V70" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W70" t="n">
         <v>7.3</v>
@@ -14023,22 +14027,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H76" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="I76" t="n">
         <v>2.27</v>
       </c>
       <c r="J76" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K76" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -14047,64 +14051,64 @@
         <v>7.5</v>
       </c>
       <c r="O76" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P76" t="n">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="R76" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="S76" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T76" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="U76" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V76" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="W76" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X76" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA76" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB76" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AC76" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AD76" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AE76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF76" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG76" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH76" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI76" t="n">
         <v>8.5</v>
@@ -14116,16 +14120,16 @@
         <v>18.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AO76" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP76" t="n">
         <v>27</v>
@@ -14140,13 +14144,13 @@
         <v>400</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AU76" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AV76" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW76" t="n">
         <v>81</v>
@@ -14158,19 +14162,19 @@
         <v>4.05</v>
       </c>
       <c r="AZ76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA76" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BB76" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC76" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BD76" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77">
@@ -15829,10 +15833,10 @@
         <v>2.25</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R86" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S86" t="n">
         <v>1.52</v>
@@ -15841,7 +15845,7 @@
         <v>2.12</v>
       </c>
       <c r="U86" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="V86" t="n">
         <v>1.69</v>
@@ -16176,7 +16180,7 @@
         <v>1.07</v>
       </c>
       <c r="N88" t="n">
-        <v>5.45</v>
+        <v>5.35</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
@@ -16185,10 +16189,10 @@
         <v>2.02</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="R88" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S88" t="n">
         <v>1.62</v>
@@ -16197,7 +16201,7 @@
         <v>1.95</v>
       </c>
       <c r="U88" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="V88" t="n">
         <v>1.5</v>
@@ -16350,7 +16354,7 @@
         <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="O89" t="n">
         <v>1.52</v>
@@ -16371,10 +16375,10 @@
         <v>2.12</v>
       </c>
       <c r="U89" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="V89" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W89" t="n">
         <v>4.25</v>
@@ -16505,52 +16509,52 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K90" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="L90" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="M90" t="n">
         <v>1.02</v>
       </c>
       <c r="N90" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="O90" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P90" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="Q90" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T90" t="n">
         <v>2.22</v>
       </c>
-      <c r="R90" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2.15</v>
-      </c>
       <c r="U90" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="V90" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W90" t="n">
         <v>4.75</v>
@@ -16559,73 +16563,73 @@
         <v>6.6</v>
       </c>
       <c r="Y90" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z90" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA90" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC90" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AE90" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF90" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AG90" t="n">
         <v>500</v>
       </c>
       <c r="AH90" t="n">
-        <v>8.25</v>
+        <v>7.2</v>
       </c>
       <c r="AI90" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ90" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL90" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN90" t="n">
         <v>3.55</v>
       </c>
       <c r="AO90" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AP90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ90" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR90" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS90" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AU90" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV90" t="n">
         <v>90</v>
@@ -16633,19 +16637,19 @@
       <c r="AW90" t="inlineStr"/>
       <c r="AX90" t="inlineStr"/>
       <c r="AY90" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AZ90" t="n">
         <v>26</v>
       </c>
       <c r="BA90" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB90" t="n">
         <v>175</v>
       </c>
       <c r="BC90" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD90" t="n">
         <v>500</v>
@@ -16686,19 +16690,19 @@
         <v>2.2</v>
       </c>
       <c r="H91" t="n">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I91" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="J91" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K91" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L91" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="M91" t="n">
         <v>1.07</v>
@@ -16713,10 +16717,10 @@
         <v>2.51</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="R91" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="S91" t="n">
         <v>1.47</v>
@@ -16731,102 +16735,102 @@
         <v>1.79</v>
       </c>
       <c r="W91" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="X91" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y91" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA91" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB91" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="AD91" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AE91" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF91" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG91" t="n">
         <v>101</v>
       </c>
       <c r="AH91" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI91" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ91" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK91" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AL91" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM91" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN91" t="n">
         <v>3.95</v>
       </c>
       <c r="AO91" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP91" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ91" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR91" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS91" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AT91" t="n">
         <v>2.22</v>
       </c>
       <c r="AU91" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV91" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW91" t="inlineStr"/>
       <c r="AX91" t="inlineStr"/>
       <c r="AY91" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AZ91" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="BA91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB91" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC91" t="n">
         <v>150</v>
       </c>
       <c r="BD91" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92">
@@ -17233,10 +17237,10 @@
         <v>2.4</v>
       </c>
       <c r="U94" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="V94" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W94" t="n">
         <v>4.65</v>
@@ -17933,10 +17937,10 @@
         <v>2.32</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="R98" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S98" t="n">
         <v>1.52</v>
@@ -17945,10 +17949,10 @@
         <v>2.12</v>
       </c>
       <c r="U98" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V98" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W98" t="n">
         <v>5.6</v>
@@ -19324,7 +19328,7 @@
         <v>1.01</v>
       </c>
       <c r="N106" t="n">
-        <v>9.85</v>
+        <v>10.3</v>
       </c>
       <c r="O106" t="n">
         <v>1.22</v>
@@ -19505,7 +19509,7 @@
         <v>13.2</v>
       </c>
       <c r="O107" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P107" t="n">
         <v>4.1</v>
@@ -19523,10 +19527,10 @@
         <v>2.45</v>
       </c>
       <c r="U107" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="V107" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="W107" t="n">
         <v>9</v>
@@ -20415,10 +20419,10 @@
         <v>2.22</v>
       </c>
       <c r="U112" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V112" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W112" t="n">
         <v>5.6</v>
@@ -21615,19 +21619,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H119" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I119" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J119" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K119" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L119" t="n">
         <v>5</v>
@@ -21639,10 +21643,10 @@
         <v>13</v>
       </c>
       <c r="O119" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P119" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q119" t="n">
         <v>1.7</v>
@@ -21666,13 +21670,13 @@
         <v>8</v>
       </c>
       <c r="X119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y119" t="n">
         <v>8.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA119" t="n">
         <v>13</v>
@@ -21681,22 +21685,22 @@
         <v>23</v>
       </c>
       <c r="AC119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE119" t="n">
         <v>13</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>15</v>
       </c>
       <c r="AF119" t="n">
         <v>41</v>
       </c>
       <c r="AG119" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI119" t="n">
         <v>29</v>
@@ -21717,13 +21721,13 @@
         <v>3.75</v>
       </c>
       <c r="AO119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP119" t="n">
         <v>17</v>
       </c>
       <c r="AQ119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR119" t="n">
         <v>41</v>
@@ -21747,10 +21751,10 @@
         <v>81</v>
       </c>
       <c r="AY119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA119" t="n">
         <v>29</v>
@@ -21797,13 +21801,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>3.5</v>
       </c>
       <c r="I120" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J120" t="n">
         <v>2.4</v>
@@ -21827,10 +21831,10 @@
         <v>3.5</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R120" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S120" t="n">
         <v>1.4</v>
@@ -21839,10 +21843,10 @@
         <v>2.75</v>
       </c>
       <c r="U120" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V120" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W120" t="n">
         <v>7</v>
@@ -21866,7 +21870,7 @@
         <v>10</v>
       </c>
       <c r="AD120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE120" t="n">
         <v>15</v>
@@ -21890,7 +21894,7 @@
         <v>51</v>
       </c>
       <c r="AL120" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM120" t="n">
         <v>41</v>
@@ -21905,7 +21909,7 @@
         <v>21</v>
       </c>
       <c r="AQ120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR120" t="n">
         <v>51</v>
@@ -21917,7 +21921,7 @@
         <v>2.75</v>
       </c>
       <c r="AU120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV120" t="n">
         <v>51</v>
@@ -21935,7 +21939,7 @@
         <v>23</v>
       </c>
       <c r="BA120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB120" t="n">
         <v>81</v>
@@ -21944,7 +21948,7 @@
         <v>101</v>
       </c>
       <c r="BD120" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121">
@@ -22356,7 +22360,7 @@
         <v>1.02</v>
       </c>
       <c r="N123" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="O123" t="n">
         <v>1.13</v>
@@ -22515,40 +22519,40 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="H124" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I124" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="J124" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="K124" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L124" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M124" t="n">
         <v>1.04</v>
       </c>
       <c r="N124" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O124" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P124" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R124" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S124" t="n">
         <v>1.31</v>
@@ -22560,82 +22564,82 @@
         <v>1.52</v>
       </c>
       <c r="V124" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W124" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X124" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z124" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA124" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AB124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC124" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD124" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE124" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG124" t="n">
         <v>250</v>
       </c>
       <c r="AH124" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI124" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ124" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AK124" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL124" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM124" t="n">
         <v>25</v>
       </c>
-      <c r="AM124" t="n">
-        <v>28</v>
-      </c>
       <c r="AN124" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="AO124" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ124" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AR124" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS124" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT124" t="n">
         <v>3.05</v>
       </c>
       <c r="AU124" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV124" t="n">
         <v>45</v>
@@ -22643,19 +22647,19 @@
       <c r="AW124" t="inlineStr"/>
       <c r="AX124" t="inlineStr"/>
       <c r="AY124" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="AZ124" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="BA124" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BB124" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BC124" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BD124" t="n">
         <v>200</v>
@@ -24299,10 +24303,10 @@
         <v>5</v>
       </c>
       <c r="M134" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="O134" t="n">
         <v>1.5</v>
@@ -24311,10 +24315,10 @@
         <v>2.25</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.65</v>
+        <v>2.51</v>
       </c>
       <c r="R134" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S134" t="n">
         <v>1.57</v>
@@ -24323,10 +24327,10 @@
         <v>2.02</v>
       </c>
       <c r="U134" t="n">
-        <v>2.36</v>
+        <v>2.27</v>
       </c>
       <c r="V134" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="W134" t="n">
         <v>4.3</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD135"/>
+  <dimension ref="A1:BD136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -771,22 +771,22 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.57</v>
@@ -795,13 +795,13 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
@@ -825,10 +825,10 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -864,10 +864,10 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
@@ -1848,13 +1848,13 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1875,10 +1875,10 @@
         <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.53</v>
@@ -1887,7 +1887,7 @@
         <v>2.38</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
@@ -1905,25 +1905,25 @@
         <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1932,7 +1932,7 @@
         <v>51</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>81</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
@@ -2024,88 +2024,88 @@
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>3.4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.2</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
@@ -2117,7 +2117,7 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>4.5</v>
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2135,19 +2135,19 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AX9" t="n">
         <v>150</v>
@@ -2165,7 +2165,7 @@
         <v>51</v>
       </c>
       <c r="BC9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2215,10 +2215,10 @@
         <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2233,10 +2233,10 @@
         <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.29</v>
@@ -2245,16 +2245,16 @@
         <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>9</v>
+      </c>
+      <c r="X10" t="n">
         <v>8</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2275,7 +2275,7 @@
         <v>9.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
@@ -2284,16 +2284,16 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2302,13 +2302,13 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>19</v>
@@ -2323,7 +2323,7 @@
         <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2335,7 +2335,7 @@
         <v>150</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ10" t="n">
         <v>34</v>
@@ -2344,10 +2344,10 @@
         <v>34</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD10" t="n">
         <v>201</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.73</v>
@@ -2400,25 +2400,25 @@
         <v>2.6</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S11" t="n">
         <v>1.3</v>
@@ -2427,22 +2427,22 @@
         <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2451,7 +2451,7 @@
         <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>11</v>
@@ -2463,34 +2463,34 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>23</v>
       </c>
-      <c r="AI11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
         <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
         <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ11" t="n">
         <v>15</v>
@@ -2505,13 +2505,13 @@
         <v>3.4</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX11" t="n">
         <v>151</v>
@@ -2526,13 +2526,13 @@
         <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2961,10 +2961,10 @@
         <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -3063,7 +3063,7 @@
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
@@ -3649,61 +3649,61 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="H18" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.25</v>
       </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
         <v>5.5</v>
@@ -3715,23 +3715,23 @@
         <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AF18" t="n">
         <v>251</v>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="n">
         <v>51</v>
@@ -3740,22 +3740,22 @@
         <v>351</v>
       </c>
       <c r="AL18" t="n">
+        <v>301</v>
+      </c>
+      <c r="AM18" t="n">
         <v>251</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>201</v>
       </c>
       <c r="AN18" t="n">
         <v>2.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3764,7 +3764,7 @@
         <v>351</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3775,7 +3775,7 @@
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
         <v>101</v>
@@ -4001,37 +4001,37 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.77</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.85</v>
-      </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L20" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R20" t="n">
         <v>1.47</v>
@@ -4040,7 +4040,7 @@
         <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
         <v>2.07</v>
@@ -4049,31 +4049,31 @@
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
         <v>120</v>
@@ -4082,49 +4082,49 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AK20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV20" t="n">
         <v>80</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>90</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
@@ -4133,22 +4133,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BC20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
@@ -4210,7 +4210,7 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q21" t="n">
         <v>1.55</v>
@@ -4370,13 +4370,13 @@
         <v>2.47</v>
       </c>
       <c r="J22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -4391,16 +4391,16 @@
         <v>3.08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T22" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
         <v>1.69</v>
@@ -4409,40 +4409,40 @@
         <v>2.11</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>5.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG22" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI22" t="n">
         <v>10.5</v>
@@ -4451,19 +4451,19 @@
         <v>8</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>16.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="n">
         <v>4.6</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
         <v>20</v>
@@ -4472,16 +4472,16 @@
         <v>60</v>
       </c>
       <c r="AR22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS22" t="n">
         <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV22" t="n">
         <v>55</v>
@@ -4489,22 +4489,22 @@
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BD22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -4539,46 +4539,46 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
         <v>4.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="U23" t="n">
         <v>1.7</v>
@@ -4587,49 +4587,49 @@
         <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X23" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y23" t="n">
         <v>8.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB23" t="n">
         <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG23" t="n">
         <v>400</v>
       </c>
       <c r="AH23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>12.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
@@ -4638,16 +4638,16 @@
         <v>35</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
         <v>60</v>
@@ -4656,10 +4656,10 @@
         <v>200</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV23" t="n">
         <v>60</v>
@@ -4671,7 +4671,7 @@
         <v>81</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AZ23" t="n">
         <v>20</v>
@@ -4680,13 +4680,13 @@
         <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD23" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -4724,19 +4724,19 @@
         <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I24" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J24" t="n">
         <v>1.8</v>
       </c>
       <c r="K24" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L24" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4754,13 +4754,13 @@
         <v>1.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="S24" t="n">
         <v>1.23</v>
       </c>
       <c r="T24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="U24" t="n">
         <v>1.57</v>
@@ -4769,13 +4769,13 @@
         <v>2.25</v>
       </c>
       <c r="W24" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="X24" t="n">
         <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z24" t="n">
         <v>10.5</v>
@@ -4787,13 +4787,13 @@
         <v>18.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD24" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>50</v>
@@ -4802,16 +4802,16 @@
         <v>250</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL24" t="n">
         <v>55</v>
@@ -4829,22 +4829,22 @@
         <v>12.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS24" t="n">
         <v>120</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV24" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW24" t="n">
         <v>81</v>
@@ -4859,7 +4859,7 @@
         <v>32</v>
       </c>
       <c r="BA24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
         <v>175</v>
@@ -4903,130 +4903,130 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.7</v>
       </c>
       <c r="K25" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R25" t="n">
         <v>2.52</v>
       </c>
-      <c r="L25" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N25" t="n">
-        <v>11</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="S25" t="n">
         <v>1.2</v>
       </c>
-      <c r="P25" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.29</v>
-      </c>
       <c r="T25" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.98</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X25" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
         <v>8.75</v>
       </c>
       <c r="Z25" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AU25" t="n">
         <v>7.7</v>
       </c>
-      <c r="AA25" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9</v>
-      </c>
       <c r="AV25" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AW25" t="n">
         <v>51</v>
@@ -5035,22 +5035,22 @@
         <v>51</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AZ25" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="BA25" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BB25" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BC25" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="BD25" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26">
@@ -5085,28 +5085,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="J26" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>12.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -5115,10 +5115,10 @@
         <v>3.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R26" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="S26" t="n">
         <v>1.19</v>
@@ -5127,10 +5127,10 @@
         <v>4.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>22</v>
@@ -5139,94 +5139,94 @@
         <v>35</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA26" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC26" t="n">
         <v>22</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AJ26" t="n">
         <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AR26" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS26" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AW26" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AX26" t="n">
         <v>51</v>
       </c>
       <c r="AY26" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="BC26" t="n">
         <v>32</v>
@@ -5649,10 +5649,10 @@
         <v>2.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -5995,54 +5995,54 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="P31" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R31" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T31" t="n">
-        <v>3.32</v>
+        <v>3.13</v>
       </c>
       <c r="U31" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="V31" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="W31" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -6051,70 +6051,70 @@
         <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC31" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG31" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AH31" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
         <v>80</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS31" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV31" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
@@ -6123,22 +6123,22 @@
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="BB31" t="n">
         <v>150</v>
       </c>
       <c r="BC31" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BD31" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -6197,10 +6197,10 @@
         <v>7.13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.97</v>
+        <v>2.94</v>
       </c>
       <c r="Q32" t="n">
         <v>1.98</v>
@@ -6374,7 +6374,7 @@
         <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="Q33" t="n">
         <v>1.72</v>
@@ -6883,28 +6883,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H36" t="n">
         <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K36" t="n">
         <v>2.25</v>
       </c>
       <c r="L36" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.22</v>
@@ -6955,7 +6955,7 @@
         <v>6.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -6964,7 +6964,7 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI36" t="n">
         <v>17</v>
@@ -7011,7 +7011,7 @@
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ36" t="n">
         <v>17</v>
@@ -7246,19 +7246,19 @@
         <v>2.42</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I38" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J38" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K38" t="n">
         <v>2.27</v>
       </c>
       <c r="L38" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
@@ -7291,19 +7291,19 @@
         <v>2.89</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X38" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y38" t="n">
         <v>8.25</v>
       </c>
       <c r="Z38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB38" t="n">
         <v>15.5</v>
@@ -7324,22 +7324,22 @@
         <v>110</v>
       </c>
       <c r="AH38" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI38" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.25</v>
       </c>
       <c r="AK38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL38" t="n">
         <v>14.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN38" t="n">
         <v>4.85</v>
@@ -7348,13 +7348,13 @@
         <v>12.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ38" t="n">
         <v>45</v>
       </c>
       <c r="AR38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS38" t="n">
         <v>150</v>
@@ -7379,7 +7379,7 @@
         <v>12.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BB38" t="n">
         <v>45</v>
@@ -7449,10 +7449,10 @@
         <v>12</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="R39" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="S39" t="n">
         <v>1.06</v>
@@ -7461,10 +7461,10 @@
         <v>7.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V39" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W39" t="n">
         <v>19</v>
@@ -7597,22 +7597,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
         <v>2.88</v>
       </c>
       <c r="I40" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
         <v>1.11</v>
@@ -7639,16 +7639,16 @@
         <v>2.25</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W40" t="n">
         <v>6.5</v>
       </c>
       <c r="X40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -7657,7 +7657,7 @@
         <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB40" t="n">
         <v>41</v>
@@ -7679,7 +7679,7 @@
         <v>8.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
         <v>13</v>
@@ -7694,10 +7694,10 @@
         <v>41</v>
       </c>
       <c r="AN40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP40" t="n">
         <v>29</v>
@@ -7959,22 +7959,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J42" t="n">
         <v>5.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="n">
         <v>1.02</v>
@@ -7983,16 +7983,16 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P42" t="n">
-        <v>3.54</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="n">
         <v>1.35</v>
@@ -8007,13 +8007,13 @@
         <v>1.84</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X42" t="n">
         <v>29</v>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z42" t="n">
         <v>90</v>
@@ -8025,13 +8025,13 @@
         <v>50</v>
       </c>
       <c r="AC42" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>65</v>
@@ -8046,16 +8046,16 @@
         <v>5.8</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK42" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AL42" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AM42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN42" t="n">
         <v>7.5</v>
@@ -8079,10 +8079,10 @@
         <v>2.87</v>
       </c>
       <c r="AU42" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
@@ -8090,7 +8090,7 @@
         <v>3.25</v>
       </c>
       <c r="AZ42" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="BA42" t="n">
         <v>16.5</v>
@@ -8102,7 +8102,7 @@
         <v>50</v>
       </c>
       <c r="BD42" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
@@ -8158,7 +8158,7 @@
         <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
         <v>1.36</v>
@@ -8167,10 +8167,10 @@
         <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S43" t="n">
         <v>1.44</v>
@@ -8527,10 +8527,10 @@
         <v>3.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S45" t="n">
         <v>1.44</v>
@@ -8697,13 +8697,13 @@
         <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -8879,13 +8879,13 @@
         <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
         <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
         <v>4.33</v>
@@ -9061,16 +9061,16 @@
         <v>3.2</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
         <v>7</v>
       </c>
       <c r="O48" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
         <v>2.38</v>
@@ -9243,16 +9243,16 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
         <v>8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P49" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q49" t="n">
         <v>2.3</v>
@@ -9407,22 +9407,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="H50" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I50" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J50" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="K50" t="n">
         <v>2.57</v>
       </c>
       <c r="L50" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="M50" t="n">
         <v>1.01</v>
@@ -9437,7 +9437,7 @@
         <v>5.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R50" t="n">
         <v>2.62</v>
@@ -9449,34 +9449,34 @@
         <v>4.1</v>
       </c>
       <c r="U50" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V50" t="n">
         <v>2.4</v>
       </c>
       <c r="W50" t="n">
+        <v>20</v>
+      </c>
+      <c r="X50" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC50" t="n">
         <v>21</v>
       </c>
-      <c r="X50" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>22</v>
-      </c>
       <c r="AD50" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE50" t="n">
         <v>13</v>
@@ -9491,28 +9491,28 @@
         <v>12</v>
       </c>
       <c r="AI50" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL50" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM50" t="n">
         <v>17</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ50" t="n">
         <v>90</v>
@@ -9524,32 +9524,32 @@
         <v>175</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU50" t="n">
         <v>6.6</v>
       </c>
       <c r="AV50" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW50" t="n">
         <v>450</v>
       </c>
       <c r="AX50" t="inlineStr"/>
       <c r="AY50" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AZ50" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BA50" t="n">
         <v>12.5</v>
       </c>
       <c r="BB50" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BC50" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BD50" t="n">
         <v>100</v>
@@ -9587,22 +9587,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="H51" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J51" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K51" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L51" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
@@ -9614,7 +9614,7 @@
         <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="Q51" t="n">
         <v>1.52</v>
@@ -9632,22 +9632,22 @@
         <v>1.47</v>
       </c>
       <c r="V51" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W51" t="n">
         <v>11</v>
       </c>
       <c r="X51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="n">
         <v>8.75</v>
       </c>
       <c r="Z51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB51" t="n">
         <v>19</v>
@@ -9656,10 +9656,10 @@
         <v>15.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF51" t="n">
         <v>37</v>
@@ -9668,10 +9668,10 @@
         <v>200</v>
       </c>
       <c r="AH51" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI51" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="n">
         <v>11</v>
@@ -9680,22 +9680,22 @@
         <v>40</v>
       </c>
       <c r="AL51" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM51" t="n">
         <v>25</v>
       </c>
       <c r="AN51" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR51" t="n">
         <v>50</v>
@@ -9704,10 +9704,10 @@
         <v>150</v>
       </c>
       <c r="AT51" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU51" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV51" t="n">
         <v>40</v>
@@ -9717,16 +9717,16 @@
       </c>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AZ51" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA51" t="n">
         <v>19</v>
       </c>
       <c r="BB51" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC51" t="n">
         <v>80</v>
@@ -9767,40 +9767,40 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I52" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="J52" t="n">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L52" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="n">
         <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>14.4</v>
+        <v>14.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P52" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S52" t="n">
         <v>1.25</v>
@@ -9809,37 +9809,37 @@
         <v>3.7</v>
       </c>
       <c r="U52" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V52" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="W52" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="X52" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y52" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE52" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>12</v>
       </c>
       <c r="AF52" t="n">
         <v>40</v>
@@ -9848,46 +9848,46 @@
         <v>250</v>
       </c>
       <c r="AH52" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI52" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AJ52" t="n">
         <v>8.25</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM52" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AN52" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO52" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AP52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ52" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR52" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS52" t="n">
         <v>200</v>
       </c>
       <c r="AT52" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU52" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV52" t="n">
         <v>45</v>
@@ -9897,19 +9897,19 @@
       </c>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AZ52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB52" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BC52" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BD52" t="n">
         <v>150</v>
@@ -9947,28 +9947,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="I53" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J53" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.55</v>
       </c>
       <c r="L53" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="M53" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="O53" t="n">
         <v>1.09</v>
@@ -9983,40 +9983,40 @@
         <v>2.67</v>
       </c>
       <c r="S53" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="T53" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="U53" t="n">
         <v>1.38</v>
       </c>
       <c r="V53" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X53" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y53" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z53" t="n">
         <v>45</v>
       </c>
       <c r="AA53" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD53" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
         <v>11.75</v>
@@ -10031,37 +10031,37 @@
         <v>13.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ53" t="n">
         <v>9</v>
       </c>
       <c r="AK53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL53" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM53" t="n">
         <v>16.5</v>
       </c>
       <c r="AN53" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AO53" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP53" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AR53" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS53" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT53" t="n">
         <v>4.05</v>
@@ -10077,16 +10077,16 @@
       </c>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AZ53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="BA53" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BB53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC53" t="n">
         <v>37</v>
@@ -10130,19 +10130,19 @@
         <v>1.65</v>
       </c>
       <c r="H54" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K54" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L54" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="M54" t="n">
         <v>1.01</v>
@@ -10154,13 +10154,13 @@
         <v>1.07</v>
       </c>
       <c r="P54" t="n">
-        <v>5.45</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="n">
         <v>1.4</v>
       </c>
       <c r="R54" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S54" t="n">
         <v>1.23</v>
@@ -10169,43 +10169,43 @@
         <v>3.9</v>
       </c>
       <c r="U54" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V54" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W54" t="n">
         <v>11.25</v>
       </c>
       <c r="X54" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB54" t="n">
         <v>17</v>
       </c>
       <c r="AC54" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD54" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG54" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH54" t="n">
         <v>19.5</v>
@@ -10214,28 +10214,28 @@
         <v>30</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK54" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL54" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AP54" t="n">
         <v>13</v>
       </c>
       <c r="AQ54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR54" t="n">
         <v>37</v>
@@ -10247,23 +10247,23 @@
         <v>3.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW54" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AZ54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB54" t="n">
         <v>90</v>
@@ -10490,55 +10490,55 @@
         <v>3.85</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J56" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="K56" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="L56" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="M56" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S56" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="T56" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="U56" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V56" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="W56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y56" t="n">
         <v>13</v>
@@ -10547,31 +10547,31 @@
         <v>55</v>
       </c>
       <c r="AA56" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB56" t="n">
         <v>35</v>
       </c>
-      <c r="AB56" t="n">
-        <v>40</v>
-      </c>
       <c r="AC56" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AE56" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG56" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH56" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AI56" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ56" t="n">
         <v>8.25</v>
@@ -10580,57 +10580,57 @@
         <v>14.5</v>
       </c>
       <c r="AL56" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP56" t="n">
         <v>25</v>
       </c>
-      <c r="AN56" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>27</v>
-      </c>
       <c r="AQ56" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR56" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS56" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AU56" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV56" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW56" t="inlineStr"/>
       <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AZ56" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="BA56" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BB56" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BC56" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BD56" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
@@ -10870,7 +10870,7 @@
         <v>1.1</v>
       </c>
       <c r="P58" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q58" t="n">
         <v>1.4</v>
@@ -11023,46 +11023,46 @@
         </is>
       </c>
       <c r="G59" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J59" t="n">
         <v>4.05</v>
       </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.1</v>
-      </c>
       <c r="K59" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="L59" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
       </c>
       <c r="N59" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="O59" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P59" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R59" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="S59" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T59" t="n">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="U59" t="n">
         <v>1.47</v>
@@ -11086,31 +11086,31 @@
         <v>32</v>
       </c>
       <c r="AB59" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC59" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE59" t="n">
         <v>12.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG59" t="n">
         <v>200</v>
       </c>
       <c r="AH59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI59" t="n">
         <v>10.5</v>
       </c>
-      <c r="AI59" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AJ59" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK59" t="n">
         <v>14.5</v>
@@ -11119,7 +11119,7 @@
         <v>11.75</v>
       </c>
       <c r="AM59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN59" t="n">
         <v>6.4</v>
@@ -11128,19 +11128,19 @@
         <v>20</v>
       </c>
       <c r="AP59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ59" t="n">
         <v>90</v>
       </c>
       <c r="AR59" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS59" t="n">
         <v>175</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AU59" t="n">
         <v>6.5</v>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AZ59" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="BA59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BB59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BD59" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
@@ -11203,28 +11203,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="H60" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="I60" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J60" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="K60" t="n">
         <v>2.75</v>
       </c>
       <c r="L60" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="M60" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>13.7</v>
+        <v>14.1</v>
       </c>
       <c r="O60" t="n">
         <v>1.19</v>
@@ -11233,31 +11233,31 @@
         <v>3.7</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R60" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S60" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T60" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W60" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X60" t="n">
         <v>4.85</v>
       </c>
       <c r="Y60" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z60" t="n">
         <v>5.1</v>
@@ -11266,29 +11266,29 @@
         <v>14</v>
       </c>
       <c r="AB60" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC60" t="n">
         <v>12.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE60" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF60" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AG60" t="inlineStr"/>
       <c r="AH60" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AI60" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AJ60" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AK60" t="inlineStr"/>
       <c r="AL60" t="n">
@@ -11298,19 +11298,19 @@
         <v>700</v>
       </c>
       <c r="AN60" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AO60" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AP60" t="n">
         <v>22</v>
       </c>
       <c r="AQ60" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AR60" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS60" t="n">
         <v>450</v>
@@ -11319,21 +11319,21 @@
         <v>3.2</v>
       </c>
       <c r="AU60" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AV60" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ60" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BA60" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB60" t="inlineStr"/>
       <c r="BC60" t="inlineStr"/>
@@ -11926,7 +11926,7 @@
         <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="O64" t="n">
         <v>1.21</v>
@@ -12264,19 +12264,19 @@
         <v>2.37</v>
       </c>
       <c r="H66" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I66" t="n">
         <v>2.65</v>
       </c>
       <c r="J66" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="K66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L66" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -12285,34 +12285,34 @@
         <v>12.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P66" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R66" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S66" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T66" t="n">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="U66" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V66" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="W66" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="X66" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y66" t="n">
         <v>9.25</v>
@@ -12321,19 +12321,19 @@
         <v>26</v>
       </c>
       <c r="AA66" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB66" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC66" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD66" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE66" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF66" t="n">
         <v>40</v>
@@ -12345,7 +12345,7 @@
         <v>11.25</v>
       </c>
       <c r="AI66" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ66" t="n">
         <v>9.75</v>
@@ -12360,28 +12360,28 @@
         <v>24</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO66" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AP66" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AQ66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR66" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS66" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV66" t="n">
         <v>45</v>
@@ -12389,7 +12389,7 @@
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AZ66" t="n">
         <v>13.5</v>
@@ -12401,7 +12401,7 @@
         <v>55</v>
       </c>
       <c r="BC66" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD66" t="n">
         <v>175</v>
@@ -12439,150 +12439,150 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="H67" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="I67" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="J67" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="K67" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L67" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="M67" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P67" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R67" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S67" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T67" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U67" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="V67" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="W67" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="X67" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z67" t="n">
-        <v>11.25</v>
+        <v>16</v>
       </c>
       <c r="AA67" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AB67" t="n">
         <v>22</v>
       </c>
       <c r="AC67" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AD67" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AE67" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH67" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI67" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AK67" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AL67" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AM67" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="AO67" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AR67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS67" t="n">
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU67" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV67" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AZ67" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA67" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="BB67" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC67" t="n">
         <v>120</v>
       </c>
-      <c r="BC67" t="n">
-        <v>175</v>
-      </c>
       <c r="BD67" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68">
@@ -12795,22 +12795,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="H69" t="n">
         <v>2.92</v>
       </c>
       <c r="I69" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J69" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L69" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M69" t="n">
         <v>1.04</v>
@@ -12837,22 +12837,22 @@
         <v>2.3</v>
       </c>
       <c r="U69" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V69" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W69" t="n">
         <v>7.4</v>
       </c>
       <c r="X69" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y69" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z69" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA69" t="n">
         <v>16.5</v>
@@ -12861,7 +12861,7 @@
         <v>21</v>
       </c>
       <c r="AC69" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD69" t="n">
         <v>5.1</v>
@@ -12885,19 +12885,19 @@
         <v>8.25</v>
       </c>
       <c r="AK69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL69" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="n">
         <v>24</v>
       </c>
       <c r="AN69" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AO69" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP69" t="n">
         <v>18</v>
@@ -12909,36 +12909,36 @@
         <v>75</v>
       </c>
       <c r="AS69" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU69" t="n">
         <v>6.3</v>
       </c>
       <c r="AV69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="inlineStr"/>
       <c r="AY69" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AZ69" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA69" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB69" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC69" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD69" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -13015,10 +13015,10 @@
         <v>3.6</v>
       </c>
       <c r="U70" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V70" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W70" t="n">
         <v>7.3</v>
@@ -13329,144 +13329,144 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="H72" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N72" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W72" t="n">
         <v>5.2</v>
       </c>
-      <c r="J72" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N72" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P72" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U72" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W72" t="n">
-        <v>6.1</v>
-      </c>
       <c r="X72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD72" t="n">
         <v>6.8</v>
       </c>
-      <c r="Y72" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE72" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF72" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AG72" t="n">
         <v>1000</v>
       </c>
       <c r="AH72" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI72" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ72" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK72" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL72" t="n">
         <v>60</v>
       </c>
       <c r="AM72" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO72" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AP72" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AQ72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR72" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AS72" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="AU72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV72" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AZ72" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA72" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BB72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BC72" t="n">
         <v>250</v>
@@ -13524,8 +13524,12 @@
       <c r="L73" t="n">
         <v>3.85</v>
       </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9</v>
+      </c>
       <c r="O73" t="n">
         <v>1.26</v>
       </c>
@@ -13539,10 +13543,10 @@
         <v>1.83</v>
       </c>
       <c r="S73" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T73" t="n">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="U73" t="n">
         <v>1.65</v>
@@ -13681,22 +13685,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H74" t="n">
         <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J74" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="L74" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M74" t="n">
         <v>1.01</v>
@@ -13708,13 +13712,13 @@
         <v>1.31</v>
       </c>
       <c r="P74" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R74" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S74" t="n">
         <v>1.42</v>
@@ -13723,28 +13727,28 @@
         <v>2.45</v>
       </c>
       <c r="U74" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V74" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W74" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="X74" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y74" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z74" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA74" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC74" t="n">
         <v>9</v>
@@ -13753,7 +13757,7 @@
         <v>6.1</v>
       </c>
       <c r="AE74" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF74" t="n">
         <v>65</v>
@@ -13762,16 +13766,16 @@
         <v>500</v>
       </c>
       <c r="AH74" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ74" t="n">
         <v>11.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL74" t="n">
         <v>30</v>
@@ -13783,48 +13787,48 @@
         <v>4</v>
       </c>
       <c r="AO74" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP74" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR74" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="AU74" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AV74" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AZ74" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA74" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BB74" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC74" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75">
@@ -13889,10 +13893,10 @@
         <v>3.5</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S75" t="n">
         <v>1.4</v>
@@ -14237,10 +14241,10 @@
         <v>6.4</v>
       </c>
       <c r="M77" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N77" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.37</v>
@@ -15813,28 +15817,28 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="H86" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>3.7</v>
+        <v>4.45</v>
       </c>
       <c r="J86" t="n">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="K86" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L86" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M86" t="n">
         <v>1.07</v>
       </c>
       <c r="N86" t="n">
-        <v>5.45</v>
+        <v>5.55</v>
       </c>
       <c r="O86" t="n">
         <v>1.47</v>
@@ -15843,117 +15847,117 @@
         <v>2.32</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="R86" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="S86" t="n">
         <v>1.5</v>
       </c>
       <c r="T86" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U86" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="V86" t="n">
         <v>1.69</v>
       </c>
       <c r="W86" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="X86" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y86" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Z86" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AA86" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB86" t="n">
         <v>32</v>
       </c>
       <c r="AC86" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD86" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE86" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG86" t="n">
         <v>101</v>
       </c>
       <c r="AH86" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI86" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AJ86" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AK86" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AL86" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN86" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="AO86" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AP86" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ86" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AR86" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS86" t="n">
         <v>450</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU86" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV86" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AZ86" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA86" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BB86" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC86" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD86" t="n">
         <v>500</v>
@@ -16169,25 +16173,25 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="H88" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J88" t="n">
         <v>2.75</v>
       </c>
-      <c r="I88" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.72</v>
-      </c>
       <c r="K88" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L88" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N88" t="n">
         <v>5.35</v>
@@ -16205,43 +16209,43 @@
         <v>1.28</v>
       </c>
       <c r="S88" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U88" t="n">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="V88" t="n">
         <v>1.5</v>
       </c>
       <c r="W88" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="X88" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y88" t="n">
         <v>8.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB88" t="n">
         <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AD88" t="n">
         <v>5.2</v>
       </c>
       <c r="AE88" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF88" t="n">
         <v>120</v>
@@ -16250,31 +16254,31 @@
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AI88" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL88" t="n">
         <v>45</v>
       </c>
       <c r="AM88" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN88" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO88" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ88" t="n">
         <v>50</v>
@@ -16284,7 +16288,7 @@
       </c>
       <c r="AS88" t="inlineStr"/>
       <c r="AT88" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AU88" t="n">
         <v>9</v>
@@ -16295,10 +16299,10 @@
       <c r="AW88" t="inlineStr"/>
       <c r="AX88" t="inlineStr"/>
       <c r="AY88" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AZ88" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA88" t="n">
         <v>45</v>
@@ -16343,79 +16347,79 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I89" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="K89" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="L89" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="M89" t="n">
         <v>1.05</v>
       </c>
       <c r="N89" t="n">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="O89" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P89" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="R89" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S89" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U89" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V89" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W89" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="X89" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y89" t="n">
         <v>7.7</v>
       </c>
       <c r="Z89" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AA89" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB89" t="n">
         <v>35</v>
       </c>
       <c r="AC89" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AD89" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AE89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF89" t="n">
         <v>100</v>
@@ -16424,34 +16428,34 @@
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI89" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL89" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM89" t="n">
         <v>55</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ89" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR89" t="n">
         <v>100</v>
@@ -16460,7 +16464,7 @@
         <v>450</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AU89" t="n">
         <v>8.5</v>
@@ -16471,7 +16475,7 @@
       <c r="AW89" t="inlineStr"/>
       <c r="AX89" t="inlineStr"/>
       <c r="AY89" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AZ89" t="n">
         <v>28</v>
@@ -16483,7 +16487,7 @@
         <v>200</v>
       </c>
       <c r="BC89" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD89" t="inlineStr"/>
     </row>
@@ -16519,40 +16523,40 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I90" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="J90" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="K90" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L90" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="M90" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N90" t="n">
-        <v>7.1</v>
+        <v>6.18</v>
       </c>
       <c r="O90" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P90" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="R90" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S90" t="n">
         <v>1.47</v>
@@ -16561,108 +16565,108 @@
         <v>2.22</v>
       </c>
       <c r="U90" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="V90" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W90" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="X90" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y90" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC90" t="n">
         <v>7.4</v>
       </c>
-      <c r="Z90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA90" t="n">
+      <c r="AD90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE90" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB90" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>15</v>
-      </c>
       <c r="AF90" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG90" t="n">
         <v>500</v>
       </c>
       <c r="AH90" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="AI90" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ90" t="n">
         <v>12</v>
       </c>
       <c r="AK90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM90" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO90" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AQ90" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AR90" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AS90" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="AU90" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AV90" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AW90" t="inlineStr"/>
       <c r="AX90" t="inlineStr"/>
       <c r="AY90" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AZ90" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA90" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="BB90" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="BC90" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="BD90" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91">
@@ -17054,7 +17058,7 @@
         <v>1.09</v>
       </c>
       <c r="N93" t="n">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="O93" t="n">
         <v>1.55</v>
@@ -17075,10 +17079,10 @@
         <v>2.02</v>
       </c>
       <c r="U93" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="V93" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W93" t="n">
         <v>5.5</v>
@@ -17247,10 +17251,10 @@
         <v>2.4</v>
       </c>
       <c r="U94" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="V94" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W94" t="n">
         <v>4.65</v>
@@ -18098,7 +18102,7 @@
         <v>1.53</v>
       </c>
       <c r="H99" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I99" t="n">
         <v>6.7</v>
@@ -18107,43 +18111,43 @@
         <v>2.12</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L99" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M99" t="n">
         <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>5.5</v>
+        <v>5.45</v>
       </c>
       <c r="O99" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P99" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R99" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S99" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T99" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="U99" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="V99" t="n">
         <v>1.42</v>
       </c>
       <c r="W99" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="X99" t="n">
         <v>5.6</v>
@@ -18155,19 +18159,19 @@
         <v>10</v>
       </c>
       <c r="AA99" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB99" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC99" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD99" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE99" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF99" t="n">
         <v>250</v>
@@ -18176,28 +18180,28 @@
         <v>101</v>
       </c>
       <c r="AH99" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AI99" t="n">
         <v>40</v>
       </c>
       <c r="AJ99" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK99" t="n">
         <v>175</v>
       </c>
       <c r="AL99" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM99" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN99" t="n">
         <v>3.05</v>
       </c>
       <c r="AO99" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP99" t="n">
         <v>24</v>
@@ -18206,16 +18210,16 @@
         <v>26</v>
       </c>
       <c r="AR99" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS99" t="n">
         <v>500</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AU99" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV99" t="n">
         <v>150</v>
@@ -18627,16 +18631,16 @@
         <v>3.55</v>
       </c>
       <c r="I102" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K102" t="n">
         <v>2.02</v>
       </c>
       <c r="L102" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M102" t="n">
         <v>1.04</v>
@@ -18648,7 +18652,7 @@
         <v>1.47</v>
       </c>
       <c r="P102" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q102" t="n">
         <v>2.35</v>
@@ -18663,10 +18667,10 @@
         <v>2.27</v>
       </c>
       <c r="U102" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="V102" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W102" t="n">
         <v>4.45</v>
@@ -18687,7 +18691,7 @@
         <v>55</v>
       </c>
       <c r="AC102" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD102" t="n">
         <v>7.7</v>
@@ -18702,13 +18706,13 @@
         <v>101</v>
       </c>
       <c r="AH102" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ102" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK102" t="n">
         <v>200</v>
@@ -18741,7 +18745,7 @@
         <v>2.22</v>
       </c>
       <c r="AU102" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AV102" t="n">
         <v>150</v>
@@ -18749,13 +18753,13 @@
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr"/>
       <c r="AY102" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AZ102" t="n">
         <v>50</v>
       </c>
       <c r="BA102" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB102" t="n">
         <v>450</v>
@@ -18797,64 +18801,64 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I103" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="K103" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L103" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="M103" t="n">
         <v>1.06</v>
       </c>
       <c r="N103" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O103" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P103" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R103" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S103" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T103" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="U103" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="V103" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W103" t="n">
         <v>4.6</v>
       </c>
       <c r="X103" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y103" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA103" t="n">
         <v>15</v>
@@ -18863,10 +18867,10 @@
         <v>55</v>
       </c>
       <c r="AC103" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD103" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE103" t="n">
         <v>35</v>
@@ -18878,46 +18882,46 @@
         <v>101</v>
       </c>
       <c r="AH103" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI103" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ103" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK103" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AL103" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM103" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AN103" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="AO103" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AP103" t="n">
         <v>22</v>
       </c>
       <c r="AQ103" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AR103" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS103" t="n">
         <v>450</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="AU103" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AV103" t="n">
         <v>150</v>
@@ -18925,13 +18929,13 @@
       <c r="AW103" t="inlineStr"/>
       <c r="AX103" t="inlineStr"/>
       <c r="AY103" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AZ103" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA103" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB103" t="n">
         <v>500</v>
@@ -19519,10 +19523,10 @@
         <v>10.5</v>
       </c>
       <c r="O107" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P107" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="Q107" t="n">
         <v>1.7</v>
@@ -19675,150 +19679,150 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I108" t="n">
         <v>3.7</v>
       </c>
-      <c r="I108" t="n">
-        <v>5.2</v>
-      </c>
       <c r="J108" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="K108" t="n">
         <v>2.18</v>
       </c>
       <c r="L108" t="n">
-        <v>5.4</v>
+        <v>4.05</v>
       </c>
       <c r="M108" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N108" t="n">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O108" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P108" t="n">
-        <v>3.78</v>
+        <v>3.44</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R108" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="S108" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="T108" t="n">
-        <v>3.15</v>
+        <v>2.99</v>
       </c>
       <c r="U108" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="V108" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="W108" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X108" t="n">
-        <v>6.7</v>
+        <v>7.7</v>
       </c>
       <c r="Y108" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Z108" t="n">
-        <v>9.75</v>
+        <v>12.5</v>
       </c>
       <c r="AA108" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC108" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG108" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH108" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI108" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AJ108" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AL108" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AM108" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AN108" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO108" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AP108" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AQ108" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AR108" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS108" t="n">
         <v>200</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="AU108" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW108" t="inlineStr"/>
       <c r="AX108" t="inlineStr"/>
       <c r="AY108" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AZ108" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BA108" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="BB108" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="BC108" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="BD108" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109">
@@ -19856,7 +19860,7 @@
         <v>1.33</v>
       </c>
       <c r="H109" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="I109" t="n">
         <v>8.25</v>
@@ -19868,25 +19872,25 @@
         <v>2.22</v>
       </c>
       <c r="L109" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M109" t="n">
         <v>1.02</v>
       </c>
       <c r="N109" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O109" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P109" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R109" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S109" t="n">
         <v>1.37</v>
@@ -19895,13 +19899,13 @@
         <v>2.5</v>
       </c>
       <c r="U109" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V109" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W109" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="X109" t="n">
         <v>4.8</v>
@@ -19919,7 +19923,7 @@
         <v>28</v>
       </c>
       <c r="AC109" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD109" t="n">
         <v>7.5</v>
@@ -19934,7 +19938,7 @@
         <v>101</v>
       </c>
       <c r="AH109" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI109" t="n">
         <v>45</v>
@@ -19949,7 +19953,7 @@
         <v>90</v>
       </c>
       <c r="AM109" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN109" t="n">
         <v>2.95</v>
@@ -19976,7 +19980,7 @@
         <v>9.5</v>
       </c>
       <c r="AV109" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW109" t="inlineStr"/>
       <c r="AX109" t="inlineStr"/>
@@ -20207,115 +20211,115 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L111" t="n">
         <v>2.7</v>
       </c>
-      <c r="I111" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L111" t="n">
-        <v>2.9</v>
-      </c>
       <c r="M111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N111" t="n">
-        <v>6.37</v>
+        <v>6.69</v>
       </c>
       <c r="O111" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P111" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R111" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S111" t="n">
         <v>1.45</v>
       </c>
       <c r="T111" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="U111" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V111" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W111" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="X111" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y111" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="Z111" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AA111" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AB111" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC111" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD111" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AE111" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF111" t="n">
         <v>60</v>
       </c>
       <c r="AG111" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH111" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AI111" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ111" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AK111" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL111" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN111" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO111" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AP111" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ111" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR111" t="n">
         <v>150</v>
@@ -20324,10 +20328,10 @@
         <v>350</v>
       </c>
       <c r="AT111" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU111" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV111" t="n">
         <v>65</v>
@@ -20335,19 +20339,19 @@
       <c r="AW111" t="inlineStr"/>
       <c r="AX111" t="inlineStr"/>
       <c r="AY111" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="AZ111" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="BA111" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB111" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BC111" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD111" t="n">
         <v>300</v>
@@ -20385,22 +20389,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H112" t="n">
         <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="J112" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
         <v>1.9</v>
       </c>
       <c r="L112" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M112" t="n">
         <v>1.02</v>
@@ -20427,31 +20431,31 @@
         <v>2.18</v>
       </c>
       <c r="U112" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="V112" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="W112" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="X112" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Y112" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z112" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA112" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB112" t="n">
         <v>29</v>
       </c>
       <c r="AC112" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD112" t="n">
         <v>5.2</v>
@@ -20466,31 +20470,31 @@
         <v>101</v>
       </c>
       <c r="AH112" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI112" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AJ112" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK112" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL112" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM112" t="n">
         <v>35</v>
       </c>
       <c r="AN112" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO112" t="n">
         <v>13</v>
       </c>
       <c r="AP112" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ112" t="n">
         <v>60</v>
@@ -20499,13 +20503,13 @@
         <v>120</v>
       </c>
       <c r="AS112" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT112" t="n">
         <v>2.18</v>
       </c>
       <c r="AU112" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV112" t="n">
         <v>90</v>
@@ -20513,16 +20517,16 @@
       <c r="AW112" t="inlineStr"/>
       <c r="AX112" t="inlineStr"/>
       <c r="AY112" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AZ112" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA112" t="n">
         <v>30</v>
       </c>
       <c r="BB112" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC112" t="n">
         <v>150</v>
@@ -20584,13 +20588,13 @@
         <v>1.02</v>
       </c>
       <c r="N113" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O113" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P113" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="Q113" t="n">
         <v>2.2</v>
@@ -20605,10 +20609,10 @@
         <v>2.22</v>
       </c>
       <c r="U113" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V113" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W113" t="n">
         <v>5.6</v>
@@ -21282,13 +21286,13 @@
         <v>2.18</v>
       </c>
       <c r="J117" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K117" t="n">
         <v>2.22</v>
       </c>
       <c r="L117" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="M117" t="n">
         <v>1.04</v>
@@ -21297,10 +21301,10 @@
         <v>9.949999999999999</v>
       </c>
       <c r="O117" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P117" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q117" t="n">
         <v>1.62</v>
@@ -21315,49 +21319,49 @@
         <v>3.22</v>
       </c>
       <c r="U117" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V117" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W117" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X117" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y117" t="n">
         <v>10.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA117" t="n">
         <v>23</v>
       </c>
       <c r="AB117" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC117" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD117" t="n">
         <v>7</v>
       </c>
       <c r="AE117" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF117" t="n">
         <v>45</v>
       </c>
       <c r="AG117" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH117" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI117" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ117" t="n">
         <v>8.75</v>
@@ -21396,15 +21400,15 @@
         <v>6.5</v>
       </c>
       <c r="AV117" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW117" t="inlineStr"/>
       <c r="AX117" t="inlineStr"/>
       <c r="AY117" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AZ117" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="BA117" t="n">
         <v>16.5</v>
@@ -21805,19 +21809,19 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H120" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J120" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K120" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L120" t="n">
         <v>5</v>
@@ -21862,7 +21866,7 @@
         <v>8.5</v>
       </c>
       <c r="Z120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA120" t="n">
         <v>13</v>
@@ -21871,22 +21875,22 @@
         <v>23</v>
       </c>
       <c r="AC120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE120" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF120" t="n">
         <v>41</v>
       </c>
       <c r="AG120" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI120" t="n">
         <v>29</v>
@@ -21907,7 +21911,7 @@
         <v>3.75</v>
       </c>
       <c r="AO120" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP120" t="n">
         <v>17</v>
@@ -21937,10 +21941,10 @@
         <v>81</v>
       </c>
       <c r="AY120" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA120" t="n">
         <v>29</v>
@@ -22017,10 +22021,10 @@
         <v>3.5</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R121" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S121" t="n">
         <v>1.4</v>
@@ -22169,13 +22173,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J122" t="n">
         <v>2.6</v>
@@ -22199,10 +22203,10 @@
         <v>2.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R122" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S122" t="n">
         <v>1.57</v>
@@ -22211,10 +22215,10 @@
         <v>2.25</v>
       </c>
       <c r="U122" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W122" t="n">
         <v>5.5</v>
@@ -22229,7 +22233,7 @@
         <v>15</v>
       </c>
       <c r="AA122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB122" t="n">
         <v>41</v>
@@ -22250,7 +22254,7 @@
         <v>900</v>
       </c>
       <c r="AH122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI122" t="n">
         <v>21</v>
@@ -22268,7 +22272,7 @@
         <v>51</v>
       </c>
       <c r="AN122" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO122" t="n">
         <v>11</v>
@@ -22283,7 +22287,7 @@
         <v>67</v>
       </c>
       <c r="AS122" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT122" t="n">
         <v>2.25</v>
@@ -22300,7 +22304,7 @@
         <v>6</v>
       </c>
       <c r="AZ122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA122" t="n">
         <v>41</v>
@@ -22365,10 +22369,10 @@
         <v>4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N123" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O123" t="n">
         <v>1.36</v>
@@ -22377,10 +22381,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R123" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="n">
         <v>1.5</v>
@@ -22531,34 +22535,34 @@
         <v>3.65</v>
       </c>
       <c r="I124" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J124" t="n">
         <v>2.52</v>
       </c>
       <c r="K124" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L124" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M124" t="n">
         <v>1.02</v>
       </c>
       <c r="N124" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="O124" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P124" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R124" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S124" t="n">
         <v>1.19</v>
@@ -22567,19 +22571,19 @@
         <v>4.2</v>
       </c>
       <c r="U124" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V124" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="W124" t="n">
         <v>14</v>
       </c>
       <c r="X124" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y124" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z124" t="n">
         <v>24</v>
@@ -22591,7 +22595,7 @@
         <v>16.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AD124" t="n">
         <v>8.25</v>
@@ -22600,13 +22604,13 @@
         <v>10.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG124" t="n">
         <v>120</v>
       </c>
       <c r="AH124" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI124" t="n">
         <v>21</v>
@@ -22621,7 +22625,7 @@
         <v>21</v>
       </c>
       <c r="AM124" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN124" t="n">
         <v>4.65</v>
@@ -22642,7 +22646,7 @@
         <v>100</v>
       </c>
       <c r="AT124" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU124" t="n">
         <v>5.9</v>
@@ -22658,16 +22662,16 @@
         <v>5.5</v>
       </c>
       <c r="AZ124" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA124" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BB124" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC124" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BD124" t="n">
         <v>120</v>
@@ -23591,16 +23595,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H130" t="n">
         <v>3.1</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J130" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K130" t="n">
         <v>1.95</v>
@@ -23609,10 +23613,10 @@
         <v>3.75</v>
       </c>
       <c r="M130" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N130" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O130" t="n">
         <v>1.44</v>
@@ -23642,7 +23646,7 @@
         <v>6.5</v>
       </c>
       <c r="X130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y130" t="n">
         <v>10</v>
@@ -23651,7 +23655,7 @@
         <v>23</v>
       </c>
       <c r="AA130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB130" t="n">
         <v>41</v>
@@ -23672,10 +23676,10 @@
         <v>1000</v>
       </c>
       <c r="AH130" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ130" t="n">
         <v>12</v>
@@ -23719,13 +23723,13 @@
       <c r="AW130" t="inlineStr"/>
       <c r="AX130" t="inlineStr"/>
       <c r="AY130" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AZ130" t="n">
         <v>19</v>
       </c>
       <c r="BA130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB130" t="n">
         <v>67</v>
@@ -23769,13 +23773,13 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H131" t="n">
         <v>3</v>
       </c>
       <c r="I131" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J131" t="n">
         <v>3.75</v>
@@ -23868,19 +23872,19 @@
         <v>34</v>
       </c>
       <c r="AN131" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP131" t="n">
         <v>29</v>
       </c>
       <c r="AQ131" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR131" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS131" t="n">
         <v>251</v>
@@ -24276,7 +24280,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>6FShSzNh</t>
+          <t>l4TiyW5N</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -24296,163 +24300,165 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Kabwe</t>
+          <t>Green Buffaloes</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mutondo Stars</t>
+          <t>Nkwazi</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.85</v>
+        <v>2.57</v>
       </c>
       <c r="H134" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I134" t="n">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="J134" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="K134" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L134" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M134" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>6.05</v>
+        <v>5.7</v>
       </c>
       <c r="O134" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P134" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.51</v>
+        <v>2.65</v>
       </c>
       <c r="R134" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S134" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T134" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="U134" t="n">
-        <v>2.27</v>
+        <v>2.21</v>
       </c>
       <c r="V134" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W134" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="X134" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="Y134" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z134" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AA134" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AB134" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC134" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AD134" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AE134" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF134" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG134" t="n">
         <v>101</v>
       </c>
       <c r="AH134" t="n">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="AI134" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AJ134" t="n">
-        <v>12.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK134" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AL134" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM134" t="n">
         <v>40</v>
       </c>
-      <c r="AM134" t="n">
-        <v>50</v>
-      </c>
       <c r="AN134" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="AO134" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AP134" t="n">
         <v>26</v>
       </c>
       <c r="AQ134" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AR134" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS134" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="AU134" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV134" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW134" t="inlineStr"/>
       <c r="AX134" t="inlineStr"/>
       <c r="AY134" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="AZ134" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BA134" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BB134" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="BC134" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD134" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>EoF9OhMH</t>
+          <t>6FShSzNh</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -24472,88 +24478,88 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MUZA</t>
+          <t>Kabwe</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ZESCO</t>
+          <t>Mutondo Stars</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.85</v>
+        <v>1.85</v>
       </c>
       <c r="H135" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="I135" t="n">
-        <v>2.65</v>
+        <v>4.45</v>
       </c>
       <c r="J135" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="K135" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="L135" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M135" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N135" t="n">
-        <v>4.9</v>
+        <v>6.05</v>
       </c>
       <c r="O135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S135" t="n">
         <v>1.57</v>
       </c>
-      <c r="P135" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="R135" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S135" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T135" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U135" t="n">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="V135" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W135" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="X135" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y135" t="n">
-        <v>9.25</v>
+        <v>7.6</v>
       </c>
       <c r="Z135" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AB135" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AC135" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AD135" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="AE135" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF135" t="n">
         <v>90</v>
@@ -24562,46 +24568,46 @@
         <v>101</v>
       </c>
       <c r="AH135" t="n">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="AI135" t="n">
-        <v>9.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ135" t="n">
-        <v>8.75</v>
+        <v>12.5</v>
       </c>
       <c r="AK135" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL135" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AM135" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AN135" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO135" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AP135" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AQ135" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AR135" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AS135" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AU135" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV135" t="n">
         <v>110</v>
@@ -24609,21 +24615,197 @@
       <c r="AW135" t="inlineStr"/>
       <c r="AX135" t="inlineStr"/>
       <c r="AY135" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>EoF9OhMH</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>ZAMBIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>MUZA</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ZESCO</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P136" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W136" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X136" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>600</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW136" t="inlineStr"/>
+      <c r="AX136" t="inlineStr"/>
+      <c r="AY136" t="n">
         <v>4.3</v>
       </c>
-      <c r="AZ135" t="n">
+      <c r="AZ136" t="n">
         <v>16.5</v>
       </c>
-      <c r="BA135" t="n">
+      <c r="BA136" t="n">
         <v>32</v>
       </c>
-      <c r="BB135" t="n">
+      <c r="BB136" t="n">
         <v>90</v>
       </c>
-      <c r="BC135" t="n">
+      <c r="BC136" t="n">
         <v>175</v>
       </c>
-      <c r="BD135" t="inlineStr"/>
+      <c r="BD136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -771,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -938,7 +938,7 @@
         <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB3" t="n">
         <v>29</v>
@@ -1034,13 +1034,13 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1070,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1311,16 +1311,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q5" t="n">
         <v>2.2</v>
@@ -1660,7 +1660,7 @@
         <v>4.75</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1.67</v>
@@ -1669,7 +1669,7 @@
         <v>4.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>2.2</v>
@@ -1681,10 +1681,10 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.62</v>
@@ -1693,10 +1693,10 @@
         <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -2511,10 +2511,10 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2567,55 +2567,55 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.5</v>
@@ -2627,22 +2627,22 @@
         <v>7.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
         <v>351</v>
@@ -2660,37 +2660,37 @@
         <v>151</v>
       </c>
       <c r="AL12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
         <v>51</v>
@@ -2708,7 +2708,7 @@
         <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
         <v>301</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.13</v>
@@ -3153,16 +3153,16 @@
         <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>21</v>
@@ -3174,7 +3174,7 @@
         <v>6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3186,16 +3186,16 @@
         <v>500</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
@@ -3204,10 +3204,10 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3219,7 +3219,7 @@
         <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
         <v>2.25</v>
@@ -3237,19 +3237,19 @@
         <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>41</v>
       </c>
       <c r="BB15" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="n">
         <v>351</v>
@@ -3649,19 +3649,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L18" t="n">
         <v>21</v>
@@ -3673,16 +3673,16 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3706,10 +3706,10 @@
         <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3718,32 +3718,32 @@
         <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>51</v>
       </c>
       <c r="AF18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK18" t="n">
         <v>351</v>
       </c>
       <c r="AL18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AM18" t="n">
         <v>301</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>251</v>
       </c>
       <c r="AN18" t="n">
         <v>2.75</v>
@@ -3752,10 +3752,10 @@
         <v>4.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3767,7 +3767,7 @@
         <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>151</v>
@@ -3779,10 +3779,10 @@
         <v>51</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA18" t="n">
         <v>101</v>
@@ -3832,125 +3832,125 @@
         <v>1.13</v>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L19" t="n">
+        <v>17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1.57</v>
       </c>
-      <c r="K19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>21</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S19" t="n">
         <v>1.29</v>
       </c>
-      <c r="P19" t="n">
+      <c r="T19" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X19" t="n">
         <v>5</v>
       </c>
-      <c r="X19" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB19" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="n">
         <v>351</v>
       </c>
       <c r="AL19" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AM19" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="AO19" t="n">
         <v>4.75</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
@@ -3959,13 +3959,13 @@
         <v>51</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
         <v>351</v>
@@ -4191,22 +4191,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J21" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="K21" t="n">
         <v>2.45</v>
       </c>
       <c r="L21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
@@ -4215,22 +4215,22 @@
         <v>11.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>3.98</v>
+        <v>4.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T21" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
         <v>1.95</v>
@@ -4239,31 +4239,31 @@
         <v>1.81</v>
       </c>
       <c r="W21" t="n">
+        <v>22</v>
+      </c>
+      <c r="X21" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE21" t="n">
         <v>18</v>
-      </c>
-      <c r="X21" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
         <v>75</v>
@@ -4272,16 +4272,16 @@
         <v>500</v>
       </c>
       <c r="AH21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK21" t="n">
         <v>6.4</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>6.8</v>
       </c>
       <c r="AL21" t="n">
         <v>9</v>
@@ -4290,25 +4290,25 @@
         <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AO21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP21" t="n">
         <v>50</v>
       </c>
-      <c r="AP21" t="n">
-        <v>45</v>
-      </c>
       <c r="AQ21" t="n">
+        <v>450</v>
+      </c>
+      <c r="AR21" t="n">
         <v>400</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>350</v>
       </c>
       <c r="AS21" t="n">
         <v>500</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU21" t="n">
         <v>8.75</v>
@@ -4319,16 +4319,16 @@
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
       <c r="AY21" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AZ21" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="BA21" t="n">
         <v>15.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BC21" t="n">
         <v>40</v>
@@ -4369,40 +4369,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.37</v>
@@ -4411,108 +4411,108 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="V22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="X22" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z22" t="n">
         <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK22" t="n">
         <v>21</v>
       </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>22</v>
-      </c>
       <c r="AL22" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BC22" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BD22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -4547,130 +4547,130 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
         <v>2.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="S23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="U23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG23" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AH23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>11.75</v>
       </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
       <c r="AK23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AO23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AQ23" t="n">
         <v>40</v>
       </c>
       <c r="AR23" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS23" t="n">
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW23" t="n">
         <v>81</v>
@@ -4679,19 +4679,19 @@
         <v>81</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC23" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD23" t="n">
         <v>350</v>
@@ -4732,19 +4732,19 @@
         <v>1.26</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I24" t="n">
         <v>8.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4753,40 +4753,40 @@
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P24" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="S24" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T24" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V24" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W24" t="n">
         <v>12.5</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y24" t="n">
         <v>9.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA24" t="n">
         <v>9.75</v>
@@ -4795,37 +4795,37 @@
         <v>19.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="n">
         <v>300</v>
       </c>
       <c r="AH24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI24" t="n">
         <v>75</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK24" t="n">
         <v>250</v>
       </c>
       <c r="AL24" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
         <v>3.6</v>
@@ -4846,7 +4846,7 @@
         <v>110</v>
       </c>
       <c r="AT24" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AU24" t="n">
         <v>7.9</v>
@@ -4867,16 +4867,16 @@
         <v>45</v>
       </c>
       <c r="BA24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC24" t="n">
         <v>200</v>
       </c>
       <c r="BD24" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -4911,28 +4911,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>11.9</v>
+        <v>12.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4941,10 +4941,10 @@
         <v>3.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R25" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="S25" t="n">
         <v>1.2</v>
@@ -4962,13 +4962,13 @@
         <v>10.5</v>
       </c>
       <c r="X25" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>10</v>
@@ -4977,34 +4977,34 @@
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
         <v>60</v>
       </c>
-      <c r="AG25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
         <v>55</v>
@@ -5013,25 +5013,25 @@
         <v>3.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP25" t="n">
         <v>12.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS25" t="n">
         <v>120</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV25" t="n">
         <v>50</v>
@@ -5043,19 +5043,19 @@
         <v>51</v>
       </c>
       <c r="AY25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AZ25" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB25" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC25" t="n">
         <v>200</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>175</v>
       </c>
       <c r="BD25" t="n">
         <v>300</v>
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I26" t="n">
         <v>1.72</v>
@@ -5141,10 +5141,10 @@
         <v>2.67</v>
       </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
         <v>13.5</v>
@@ -5162,13 +5162,13 @@
         <v>24</v>
       </c>
       <c r="AD26" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG26" t="n">
         <v>120</v>
@@ -5180,7 +5180,7 @@
         <v>13</v>
       </c>
       <c r="AJ26" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5192,7 +5192,7 @@
         <v>15.5</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
@@ -5207,10 +5207,10 @@
         <v>70</v>
       </c>
       <c r="AS26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AU26" t="n">
         <v>6.2</v>
@@ -5225,7 +5225,7 @@
         <v>51</v>
       </c>
       <c r="AY26" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AZ26" t="n">
         <v>8.25</v>
@@ -5278,10 +5278,10 @@
         <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J27" t="n">
         <v>5.1</v>
@@ -5290,94 +5290,94 @@
         <v>2.15</v>
       </c>
       <c r="L27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>7.8</v>
+        <v>7.11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
         <v>1.39</v>
       </c>
       <c r="T27" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
         <v>90</v>
       </c>
       <c r="AA27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="n">
         <v>55</v>
       </c>
-      <c r="AB27" t="n">
-        <v>60</v>
-      </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AI27" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AL27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN27" t="n">
         <v>6.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="n">
         <v>35</v>
@@ -5386,7 +5386,7 @@
         <v>175</v>
       </c>
       <c r="AR27" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS27" t="n">
         <v>500</v>
@@ -5460,19 +5460,19 @@
         <v>1.85</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
         <v>4.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -5484,7 +5484,7 @@
         <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="Q28" t="n">
         <v>2.07</v>
@@ -5499,76 +5499,76 @@
         <v>2.47</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V28" t="n">
         <v>1.72</v>
       </c>
       <c r="W28" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X28" t="n">
         <v>8</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
         <v>15.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB28" t="n">
         <v>32</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF28" t="n">
         <v>90</v>
       </c>
       <c r="AG28" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>75</v>
       </c>
       <c r="AL28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM28" t="n">
         <v>50</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>60</v>
       </c>
       <c r="AN28" t="n">
         <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS28" t="n">
         <v>250</v>
@@ -5577,7 +5577,7 @@
         <v>2.45</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV28" t="n">
         <v>70</v>
@@ -5589,22 +5589,22 @@
         <v>51</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>150</v>
       </c>
       <c r="BC28" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD28" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
@@ -5821,28 +5821,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>6.15</v>
+        <v>6.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -5851,16 +5851,16 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>1.39</v>
       </c>
       <c r="T30" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U30" t="n">
         <v>1.72</v>
@@ -5869,76 +5869,76 @@
         <v>1.88</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>15</v>
       </c>
-      <c r="AA30" t="n">
-        <v>14</v>
-      </c>
       <c r="AB30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
         <v>14.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="n">
         <v>500</v>
       </c>
       <c r="AH30" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL30" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
         <v>7.1</v>
@@ -5953,22 +5953,22 @@
         <v>51</v>
       </c>
       <c r="AY30" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA30" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB30" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC30" t="n">
         <v>150</v>
       </c>
-      <c r="BC30" t="n">
-        <v>175</v>
-      </c>
       <c r="BD30" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
@@ -6369,10 +6369,10 @@
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.15</v>
@@ -6399,22 +6399,22 @@
         <v>1.82</v>
       </c>
       <c r="S33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T33" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W33" t="n">
         <v>6.1</v>
       </c>
       <c r="X33" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
         <v>6.9</v>
@@ -6423,7 +6423,7 @@
         <v>11.25</v>
       </c>
       <c r="AA33" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB33" t="n">
         <v>20</v>
@@ -6432,7 +6432,7 @@
         <v>10.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE33" t="n">
         <v>12.5</v>
@@ -6444,10 +6444,10 @@
         <v>350</v>
       </c>
       <c r="AH33" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>11.5</v>
@@ -6465,7 +6465,7 @@
         <v>3.55</v>
       </c>
       <c r="AO33" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP33" t="n">
         <v>17</v>
@@ -6483,7 +6483,7 @@
         <v>2.77</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV33" t="n">
         <v>65</v>
@@ -6491,7 +6491,7 @@
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AZ33" t="n">
         <v>24</v>
@@ -6503,10 +6503,10 @@
         <v>150</v>
       </c>
       <c r="BC33" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD33" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34">
@@ -6541,19 +6541,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>3.55</v>
       </c>
       <c r="I34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J34" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="K34" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L34" t="n">
         <v>2.32</v>
@@ -6585,25 +6585,25 @@
         <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X34" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z34" t="n">
         <v>45</v>
       </c>
       <c r="AA34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD34" t="n">
         <v>6.2</v>
@@ -6621,13 +6621,13 @@
         <v>6.6</v>
       </c>
       <c r="AI34" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>7</v>
       </c>
       <c r="AK34" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="n">
         <v>11.25</v>
@@ -6636,28 +6636,28 @@
         <v>19</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR34" t="n">
         <v>150</v>
       </c>
       <c r="AS34" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV34" t="n">
         <v>60</v>
@@ -6665,7 +6665,7 @@
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AZ34" t="n">
         <v>8.75</v>
@@ -6674,7 +6674,7 @@
         <v>17</v>
       </c>
       <c r="BB34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC34" t="n">
         <v>60</v>
@@ -7076,55 +7076,55 @@
         <v>2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
         <v>2.63</v>
       </c>
       <c r="K37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -7133,16 +7133,16 @@
         <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -7151,22 +7151,22 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI37" t="n">
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK37" t="n">
         <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -7178,22 +7178,22 @@
         <v>11</v>
       </c>
       <c r="AP37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7204,19 +7204,19 @@
         <v>5.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
@@ -7269,22 +7269,22 @@
         <v>4.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P38" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7314,10 +7314,10 @@
         <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7329,7 +7329,7 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH38" t="n">
         <v>10</v>
@@ -7463,10 +7463,10 @@
         <v>5.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R39" t="n">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="S39" t="n">
         <v>1.22</v>
@@ -7475,10 +7475,10 @@
         <v>3.8</v>
       </c>
       <c r="U39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V39" t="n">
-        <v>2.89</v>
+        <v>2.85</v>
       </c>
       <c r="W39" t="n">
         <v>11.25</v>
@@ -8185,16 +8185,16 @@
         <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T43" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="U43" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V43" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W43" t="n">
         <v>12.5</v>
@@ -8327,61 +8327,61 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J44" t="n">
         <v>3.2</v>
       </c>
-      <c r="I44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K44" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S44" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T44" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U44" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W44" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z44" t="n">
         <v>23</v>
@@ -8393,64 +8393,64 @@
         <v>34</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI44" t="n">
         <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
         <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="n">
         <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP44" t="n">
         <v>26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU44" t="n">
         <v>8.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW44" t="n">
         <v>81</v>
@@ -8462,19 +8462,19 @@
         <v>5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA44" t="n">
         <v>29</v>
       </c>
       <c r="BB44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
@@ -9233,10 +9233,10 @@
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>3.2</v>
       </c>
       <c r="I49" t="n">
         <v>2.35</v>
@@ -9269,19 +9269,19 @@
         <v>1.53</v>
       </c>
       <c r="S49" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T49" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X49" t="n">
         <v>15</v>
@@ -9299,19 +9299,19 @@
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
         <v>67</v>
       </c>
       <c r="AG49" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH49" t="n">
         <v>6.5</v>
@@ -9326,10 +9326,10 @@
         <v>23</v>
       </c>
       <c r="AL49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN49" t="n">
         <v>5</v>
@@ -9338,7 +9338,7 @@
         <v>19</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ49" t="n">
         <v>67</v>
@@ -9347,13 +9347,13 @@
         <v>101</v>
       </c>
       <c r="AS49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV49" t="n">
         <v>67</v>
@@ -9362,7 +9362,7 @@
         <v>126</v>
       </c>
       <c r="AX49" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY49" t="n">
         <v>4.33</v>
@@ -9371,7 +9371,7 @@
         <v>15</v>
       </c>
       <c r="BA49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB49" t="n">
         <v>51</v>
@@ -10140,7 +10140,7 @@
         <v>3.3</v>
       </c>
       <c r="H54" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
         <v>1.85</v>
@@ -10149,10 +10149,10 @@
         <v>3.55</v>
       </c>
       <c r="K54" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L54" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10164,13 +10164,13 @@
         <v>1.09</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R54" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S54" t="n">
         <v>1.19</v>
@@ -10179,16 +10179,16 @@
         <v>4.4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V54" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="W54" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y54" t="n">
         <v>12</v>
@@ -10203,22 +10203,22 @@
         <v>24</v>
       </c>
       <c r="AC54" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD54" t="n">
         <v>9</v>
       </c>
       <c r="AE54" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG54" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH54" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI54" t="n">
         <v>12.5</v>
@@ -10227,62 +10227,62 @@
         <v>8.75</v>
       </c>
       <c r="AK54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL54" t="n">
         <v>12.5</v>
       </c>
       <c r="AM54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN54" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO54" t="n">
         <v>16</v>
       </c>
       <c r="AP54" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ54" t="n">
         <v>65</v>
       </c>
       <c r="AR54" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS54" t="n">
         <v>150</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AU54" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV54" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AW54" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AZ54" t="n">
         <v>8.75</v>
       </c>
       <c r="BA54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC54" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BD54" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55">
@@ -10317,22 +10317,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="K55" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L55" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M55" t="n">
         <v>1.01</v>
@@ -10344,13 +10344,13 @@
         <v>1.08</v>
       </c>
       <c r="P55" t="n">
-        <v>5.25</v>
+        <v>5.15</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R55" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S55" t="n">
         <v>1.22</v>
@@ -10359,13 +10359,13 @@
         <v>4</v>
       </c>
       <c r="U55" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V55" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="W55" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X55" t="n">
         <v>11.5</v>
@@ -10374,19 +10374,19 @@
         <v>8.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC55" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
@@ -10395,49 +10395,49 @@
         <v>37</v>
       </c>
       <c r="AG55" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH55" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM55" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN55" t="n">
         <v>4.1</v>
       </c>
       <c r="AO55" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR55" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS55" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AU55" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV55" t="n">
         <v>40</v>
@@ -10447,19 +10447,19 @@
       </c>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AZ55" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA55" t="n">
         <v>19.5</v>
       </c>
       <c r="BB55" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC55" t="n">
         <v>80</v>
-      </c>
-      <c r="BC55" t="n">
-        <v>90</v>
       </c>
       <c r="BD55" t="n">
         <v>175</v>
@@ -10677,40 +10677,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="H57" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I57" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="J57" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L57" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>14.2</v>
       </c>
       <c r="O57" t="n">
         <v>1.19</v>
       </c>
       <c r="P57" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q57" t="n">
         <v>1.57</v>
       </c>
       <c r="R57" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S57" t="n">
         <v>1.29</v>
@@ -10719,37 +10719,37 @@
         <v>3.42</v>
       </c>
       <c r="U57" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V57" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="W57" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X57" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y57" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z57" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AA57" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB57" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC57" t="n">
         <v>14.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE57" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
         <v>50</v>
@@ -10758,46 +10758,46 @@
         <v>300</v>
       </c>
       <c r="AH57" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ57" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AL57" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM57" t="n">
         <v>21</v>
       </c>
       <c r="AN57" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ57" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR57" t="n">
         <v>100</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>120</v>
       </c>
       <c r="AS57" t="n">
         <v>250</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU57" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV57" t="n">
         <v>50</v>
@@ -10805,22 +10805,22 @@
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AZ57" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="BA57" t="n">
         <v>15.5</v>
       </c>
       <c r="BB57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BC57" t="n">
         <v>50</v>
       </c>
       <c r="BD57" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
@@ -10855,28 +10855,28 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H58" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I58" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="J58" t="n">
         <v>4.45</v>
       </c>
       <c r="K58" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M58" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="O58" t="n">
         <v>1.22</v>
@@ -10885,82 +10885,82 @@
         <v>3.45</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R58" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="S58" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T58" t="n">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="U58" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V58" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="W58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X58" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y58" t="n">
         <v>14</v>
       </c>
       <c r="Z58" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA58" t="n">
         <v>37</v>
       </c>
       <c r="AB58" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD58" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AE58" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG58" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH58" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AI58" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ58" t="n">
         <v>8</v>
       </c>
       <c r="AK58" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL58" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM58" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AN58" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO58" t="n">
         <v>23</v>
       </c>
       <c r="AP58" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ58" t="n">
         <v>120</v>
@@ -10969,16 +10969,16 @@
         <v>150</v>
       </c>
       <c r="AS58" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU58" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV58" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
@@ -10986,19 +10986,19 @@
         <v>3.65</v>
       </c>
       <c r="AZ58" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="BA58" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BB58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BC58" t="n">
         <v>50</v>
       </c>
       <c r="BD58" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59">
@@ -11033,22 +11033,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H59" t="n">
         <v>3.95</v>
       </c>
       <c r="I59" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K59" t="n">
         <v>2.5</v>
       </c>
       <c r="L59" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
@@ -11075,28 +11075,28 @@
         <v>3.9</v>
       </c>
       <c r="U59" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V59" t="n">
         <v>2.55</v>
       </c>
       <c r="W59" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X59" t="n">
         <v>22</v>
       </c>
       <c r="Y59" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z59" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC59" t="n">
         <v>20</v>
@@ -11117,16 +11117,16 @@
         <v>13</v>
       </c>
       <c r="AI59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ59" t="n">
         <v>9</v>
       </c>
       <c r="AK59" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM59" t="n">
         <v>17</v>
@@ -11135,19 +11135,19 @@
         <v>5.7</v>
       </c>
       <c r="AO59" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR59" t="n">
         <v>65</v>
       </c>
       <c r="AS59" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT59" t="n">
         <v>3.95</v>
@@ -11163,19 +11163,19 @@
       </c>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AZ59" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="BA59" t="n">
         <v>13</v>
       </c>
       <c r="BB59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BD59" t="n">
         <v>100</v>
@@ -11213,16 +11213,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="H60" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I60" t="n">
         <v>1.65</v>
       </c>
       <c r="J60" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K60" t="n">
         <v>2.47</v>
@@ -11231,91 +11231,91 @@
         <v>2.12</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="O60" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P60" t="n">
-        <v>4.65</v>
+        <v>5.05</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R60" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="S60" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="T60" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="U60" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V60" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="W60" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="X60" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y60" t="n">
         <v>14</v>
       </c>
       <c r="Z60" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA60" t="n">
         <v>32</v>
       </c>
       <c r="AB60" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC60" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG60" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI60" t="n">
         <v>11</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>10.5</v>
       </c>
       <c r="AJ60" t="n">
         <v>8.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL60" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AN60" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP60" t="n">
         <v>20</v>
@@ -11330,32 +11330,32 @@
         <v>175</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AU60" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV60" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW60" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AX60" t="inlineStr"/>
       <c r="AY60" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AZ60" t="n">
         <v>7.8</v>
       </c>
       <c r="BA60" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BB60" t="n">
         <v>22</v>
       </c>
       <c r="BC60" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BD60" t="n">
         <v>110</v>
@@ -11399,7 +11399,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J61" t="n">
         <v>1.42</v>
@@ -11408,7 +11408,7 @@
         <v>2.77</v>
       </c>
       <c r="L61" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="M61" t="n">
         <v>1.01</v>
@@ -11423,10 +11423,10 @@
         <v>3.7</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R61" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S61" t="n">
         <v>1.3</v>
@@ -11435,16 +11435,16 @@
         <v>3.32</v>
       </c>
       <c r="U61" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="V61" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W61" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="X61" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y61" t="n">
         <v>13</v>
@@ -11459,7 +11459,7 @@
         <v>65</v>
       </c>
       <c r="AC61" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD61" t="n">
         <v>18.5</v>
@@ -11468,17 +11468,17 @@
         <v>65</v>
       </c>
       <c r="AF61" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AG61" t="inlineStr"/>
       <c r="AH61" t="n">
         <v>65</v>
       </c>
       <c r="AI61" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ61" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK61" t="inlineStr"/>
       <c r="AL61" t="n">
@@ -11503,7 +11503,7 @@
         <v>45</v>
       </c>
       <c r="AS61" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT61" t="n">
         <v>3.25</v>
@@ -11517,10 +11517,10 @@
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ61" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA61" t="n">
         <v>150</v>
@@ -11564,33 +11564,37 @@
         <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J62" t="n">
         <v>3.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L62" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.1</v>
+      </c>
       <c r="O62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P62" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R62" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S62" t="n">
         <v>1.38</v>
@@ -11599,13 +11603,13 @@
         <v>2.57</v>
       </c>
       <c r="U62" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V62" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W62" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -11617,16 +11621,16 @@
         <v>37</v>
       </c>
       <c r="AA62" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB62" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD62" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE62" t="n">
         <v>14.5</v>
@@ -11638,7 +11642,7 @@
         <v>600</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI62" t="n">
         <v>10.75</v>
@@ -11650,10 +11654,10 @@
         <v>22</v>
       </c>
       <c r="AL62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN62" t="n">
         <v>4.9</v>
@@ -11674,10 +11678,10 @@
         <v>300</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU62" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV62" t="n">
         <v>60</v>
@@ -11688,7 +11692,7 @@
         <v>4.1</v>
       </c>
       <c r="AZ62" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="BA62" t="n">
         <v>19</v>
@@ -11735,40 +11739,40 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J63" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K63" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="L63" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M63" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N63" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="O63" t="n">
         <v>1.12</v>
       </c>
       <c r="P63" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q63" t="n">
         <v>1.42</v>
       </c>
       <c r="R63" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="S63" t="n">
         <v>1.22</v>
@@ -11777,37 +11781,37 @@
         <v>3.8</v>
       </c>
       <c r="U63" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V63" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="W63" t="n">
         <v>16</v>
       </c>
       <c r="X63" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB63" t="n">
         <v>22</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AC63" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE63" t="n">
         <v>11.75</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>12</v>
       </c>
       <c r="AF63" t="n">
         <v>35</v>
@@ -11816,37 +11820,37 @@
         <v>175</v>
       </c>
       <c r="AH63" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK63" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM63" t="n">
         <v>18</v>
       </c>
       <c r="AN63" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO63" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP63" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ63" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR63" t="n">
         <v>65</v>
-      </c>
-      <c r="AR63" t="n">
-        <v>75</v>
       </c>
       <c r="AS63" t="n">
         <v>150</v>
@@ -11861,23 +11865,23 @@
         <v>37</v>
       </c>
       <c r="AW63" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AX63" t="inlineStr"/>
       <c r="AY63" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AZ63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BB63" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BC63" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BD63" t="n">
         <v>120</v>
@@ -11915,19 +11919,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H64" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
         <v>2.82</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K64" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L64" t="n">
         <v>3.2</v>
@@ -11939,10 +11943,10 @@
         <v>13.3</v>
       </c>
       <c r="O64" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P64" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="Q64" t="n">
         <v>1.55</v>
@@ -11951,16 +11955,16 @@
         <v>2.15</v>
       </c>
       <c r="S64" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T64" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U64" t="n">
         <v>1.47</v>
       </c>
       <c r="V64" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="W64" t="n">
         <v>10.5</v>
@@ -11984,46 +11988,46 @@
         <v>14</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE64" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF64" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG64" t="n">
         <v>200</v>
       </c>
       <c r="AH64" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI64" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>10.25</v>
       </c>
       <c r="AK64" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL64" t="n">
         <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR64" t="n">
         <v>60</v>
@@ -12035,7 +12039,7 @@
         <v>3.2</v>
       </c>
       <c r="AU64" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AV64" t="n">
         <v>40</v>
@@ -12045,13 +12049,13 @@
       </c>
       <c r="AX64" t="inlineStr"/>
       <c r="AY64" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AZ64" t="n">
         <v>14</v>
       </c>
       <c r="BA64" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB64" t="n">
         <v>55</v>
@@ -12060,7 +12064,7 @@
         <v>70</v>
       </c>
       <c r="BD64" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65">
@@ -12309,10 +12313,10 @@
         <v>2.32</v>
       </c>
       <c r="S66" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T66" t="n">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="U66" t="n">
         <v>1.52</v>
@@ -12451,40 +12455,40 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I67" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="K67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="M67" t="n">
         <v>1.01</v>
       </c>
       <c r="N67" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O67" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R67" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S67" t="n">
         <v>1.33</v>
@@ -12493,85 +12497,85 @@
         <v>3.14</v>
       </c>
       <c r="U67" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V67" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W67" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="X67" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC67" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y67" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>11</v>
-      </c>
       <c r="AD67" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE67" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG67" t="n">
         <v>350</v>
       </c>
       <c r="AH67" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI67" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AJ67" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AK67" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="AL67" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AM67" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AO67" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AQ67" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR67" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS67" t="n">
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AV67" t="n">
         <v>55</v>
@@ -12579,22 +12583,22 @@
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="AZ67" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="BA67" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB67" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="BC67" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BD67" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -12629,40 +12633,40 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="H68" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I68" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J68" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K68" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L68" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="M68" t="n">
         <v>1.03</v>
       </c>
       <c r="N68" t="n">
-        <v>8.800000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="O68" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P68" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="R68" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S68" t="n">
         <v>1.37</v>
@@ -12671,34 +12675,34 @@
         <v>2.5</v>
       </c>
       <c r="U68" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="V68" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W68" t="n">
         <v>6.2</v>
       </c>
       <c r="X68" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Y68" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z68" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC68" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="AD68" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE68" t="n">
         <v>11.75</v>
@@ -12710,69 +12714,69 @@
         <v>350</v>
       </c>
       <c r="AH68" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AI68" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ68" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM68" t="n">
         <v>30</v>
       </c>
       <c r="AN68" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AO68" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AP68" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ68" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR68" t="n">
         <v>65</v>
       </c>
       <c r="AS68" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT68" t="n">
         <v>2.52</v>
       </c>
       <c r="AU68" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AV68" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW68" t="inlineStr"/>
       <c r="AX68" t="inlineStr"/>
       <c r="AY68" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AZ68" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BA68" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB68" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC68" t="n">
         <v>150</v>
       </c>
       <c r="BD68" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69">
@@ -12807,40 +12811,40 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="H69" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I69" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J69" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K69" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L69" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>10.4</v>
+        <v>12.8</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R69" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S69" t="n">
         <v>1.36</v>
@@ -12849,16 +12853,16 @@
         <v>2.52</v>
       </c>
       <c r="U69" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V69" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W69" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X69" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y69" t="n">
         <v>11.75</v>
@@ -12867,13 +12871,13 @@
         <v>50</v>
       </c>
       <c r="AA69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB69" t="n">
         <v>35</v>
       </c>
       <c r="AC69" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD69" t="n">
         <v>6.3</v>
@@ -12885,13 +12889,13 @@
         <v>55</v>
       </c>
       <c r="AG69" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH69" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI69" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AJ69" t="n">
         <v>7</v>
@@ -12900,19 +12904,19 @@
         <v>10.5</v>
       </c>
       <c r="AL69" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AM69" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN69" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO69" t="n">
         <v>24</v>
       </c>
       <c r="AP69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ69" t="n">
         <v>150</v>
@@ -12921,16 +12925,16 @@
         <v>175</v>
       </c>
       <c r="AS69" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU69" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV69" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="inlineStr"/>
@@ -12941,10 +12945,10 @@
         <v>8.25</v>
       </c>
       <c r="BA69" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BB69" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC69" t="n">
         <v>60</v>
@@ -13205,10 +13209,10 @@
         <v>3.6</v>
       </c>
       <c r="U71" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V71" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
         <v>7.3</v>
@@ -13703,13 +13707,13 @@
         <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J74" t="n">
         <v>2.25</v>
       </c>
       <c r="K74" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L74" t="n">
         <v>5.1</v>
@@ -13733,10 +13737,10 @@
         <v>1.65</v>
       </c>
       <c r="S74" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T74" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U74" t="n">
         <v>1.91</v>
@@ -13745,10 +13749,10 @@
         <v>1.7</v>
       </c>
       <c r="W74" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X74" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
@@ -13760,16 +13764,16 @@
         <v>14.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD74" t="n">
         <v>6.7</v>
       </c>
       <c r="AE74" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF74" t="n">
         <v>100</v>
@@ -13778,10 +13782,10 @@
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI74" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ74" t="n">
         <v>16</v>
@@ -13793,7 +13797,7 @@
         <v>55</v>
       </c>
       <c r="AM74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN74" t="n">
         <v>3.4</v>
@@ -13814,13 +13818,13 @@
         <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
@@ -13828,19 +13832,19 @@
         <v>6.4</v>
       </c>
       <c r="AZ74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB74" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC74" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD74" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75">
@@ -13875,22 +13879,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H75" t="n">
         <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="J75" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -13905,10 +13909,10 @@
         <v>2.9</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S75" t="n">
         <v>1.42</v>
@@ -13917,34 +13921,34 @@
         <v>2.45</v>
       </c>
       <c r="U75" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V75" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W75" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X75" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB75" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC75" t="n">
         <v>8.75</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE75" t="n">
         <v>14</v>
@@ -13956,46 +13960,46 @@
         <v>500</v>
       </c>
       <c r="AH75" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK75" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR75" t="n">
         <v>55</v>
       </c>
-      <c r="AL75" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>65</v>
-      </c>
       <c r="AS75" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV75" t="n">
         <v>55</v>
@@ -14003,22 +14007,22 @@
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AZ75" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="BA75" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BB75" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC75" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD75" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
@@ -14053,28 +14057,28 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K76" t="n">
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O76" t="n">
         <v>1.29</v>
@@ -14083,10 +14087,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="n">
         <v>1.4</v>
@@ -14095,10 +14099,10 @@
         <v>2.75</v>
       </c>
       <c r="U76" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V76" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W76" t="n">
         <v>11</v>
@@ -14119,7 +14123,7 @@
         <v>34</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14146,7 +14150,7 @@
         <v>17</v>
       </c>
       <c r="AL76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM76" t="n">
         <v>26</v>
@@ -14190,7 +14194,7 @@
         <v>21</v>
       </c>
       <c r="BB76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC76" t="n">
         <v>51</v>
@@ -15119,22 +15123,22 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="H82" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I82" t="n">
-        <v>4.75</v>
+        <v>5.7</v>
       </c>
       <c r="J82" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="M82" t="n">
         <v>1.04</v>
@@ -15143,13 +15147,13 @@
         <v>8.4</v>
       </c>
       <c r="O82" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R82" t="n">
         <v>1.65</v>
@@ -15161,105 +15165,105 @@
         <v>2.52</v>
       </c>
       <c r="U82" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V82" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W82" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X82" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y82" t="n">
         <v>8.25</v>
       </c>
       <c r="Z82" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA82" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA82" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AB82" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC82" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AE82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF82" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG82" t="n">
         <v>900</v>
       </c>
       <c r="AH82" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AI82" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ82" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL82" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AM82" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN82" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AO82" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AP82" t="n">
         <v>18</v>
       </c>
       <c r="AQ82" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AR82" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS82" t="n">
         <v>250</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV82" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
       <c r="AY82" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AZ82" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="BA82" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BB82" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC82" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BD82" t="n">
         <v>450</v>
@@ -15653,64 +15657,64 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="n">
         <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M85" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N85" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W85" t="n">
         <v>7</v>
       </c>
-      <c r="O85" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P85" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S85" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T85" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U85" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V85" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W85" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
         <v>10</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA85" t="n">
         <v>17</v>
@@ -15719,7 +15723,7 @@
         <v>29</v>
       </c>
       <c r="AC85" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD85" t="n">
         <v>7</v>
@@ -15731,37 +15735,37 @@
         <v>51</v>
       </c>
       <c r="AG85" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH85" t="n">
         <v>12</v>
       </c>
       <c r="AI85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK85" t="n">
         <v>41</v>
       </c>
       <c r="AL85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM85" t="n">
         <v>41</v>
       </c>
       <c r="AN85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP85" t="n">
         <v>21</v>
       </c>
       <c r="AQ85" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR85" t="n">
         <v>51</v>
@@ -15773,7 +15777,7 @@
         <v>2.75</v>
       </c>
       <c r="AU85" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV85" t="n">
         <v>51</v>
@@ -15781,22 +15785,22 @@
       <c r="AW85" t="inlineStr"/>
       <c r="AX85" t="inlineStr"/>
       <c r="AY85" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ85" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB85" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC85" t="n">
         <v>81</v>
       </c>
       <c r="BD85" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86">
@@ -15849,10 +15853,10 @@
         <v>4.3</v>
       </c>
       <c r="M86" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N86" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="O86" t="n">
         <v>1.57</v>
@@ -15861,10 +15865,10 @@
         <v>2.12</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.73</v>
+        <v>2.82</v>
       </c>
       <c r="R86" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S86" t="n">
         <v>1.55</v>
@@ -15873,10 +15877,10 @@
         <v>2.05</v>
       </c>
       <c r="U86" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="V86" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W86" t="n">
         <v>4.65</v>
@@ -16007,28 +16011,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H87" t="n">
         <v>3.2</v>
       </c>
       <c r="I87" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="J87" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="K87" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L87" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N87" t="n">
-        <v>5.65</v>
+        <v>6.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.47</v>
@@ -16043,31 +16047,31 @@
         <v>1.47</v>
       </c>
       <c r="S87" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T87" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U87" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="V87" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="W87" t="n">
         <v>4.55</v>
       </c>
       <c r="X87" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z87" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA87" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB87" t="n">
         <v>32</v>
@@ -16076,7 +16080,7 @@
         <v>6.8</v>
       </c>
       <c r="AD87" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE87" t="n">
         <v>16.5</v>
@@ -16088,43 +16092,43 @@
         <v>101</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AI87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ87" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK87" t="n">
         <v>50</v>
       </c>
       <c r="AL87" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM87" t="n">
         <v>50</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP87" t="n">
         <v>24</v>
       </c>
       <c r="AQ87" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR87" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS87" t="n">
         <v>450</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU87" t="n">
         <v>8.75</v>
@@ -16135,10 +16139,10 @@
       <c r="AW87" t="inlineStr"/>
       <c r="AX87" t="inlineStr"/>
       <c r="AY87" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AZ87" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA87" t="n">
         <v>40</v>
@@ -16185,115 +16189,115 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="J88" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K88" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="L88" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N88" t="n">
-        <v>5.95</v>
+        <v>5.75</v>
       </c>
       <c r="O88" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P88" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="R88" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S88" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="U88" t="n">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="V88" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W88" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X88" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Y88" t="n">
         <v>9.5</v>
       </c>
       <c r="Z88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AA88" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB88" t="n">
         <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="AD88" t="n">
-        <v>4.75</v>
+        <v>4.3</v>
       </c>
       <c r="AE88" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG88" t="n">
         <v>101</v>
       </c>
       <c r="AH88" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AI88" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AJ88" t="n">
         <v>8.75</v>
       </c>
       <c r="AK88" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL88" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM88" t="n">
         <v>37</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AO88" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AP88" t="n">
         <v>30</v>
       </c>
       <c r="AQ88" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR88" t="n">
         <v>175</v>
@@ -16302,33 +16306,33 @@
         <v>500</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AV88" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW88" t="inlineStr"/>
       <c r="AX88" t="inlineStr"/>
       <c r="AY88" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AZ88" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BA88" t="n">
         <v>28</v>
       </c>
       <c r="BB88" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BC88" t="n">
         <v>150</v>
       </c>
       <c r="BD88" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89">
@@ -16363,145 +16367,145 @@
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T89" t="n">
         <v>2.02</v>
       </c>
-      <c r="H89" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="M89" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S89" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T89" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U89" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="V89" t="n">
         <v>1.5</v>
       </c>
       <c r="W89" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="X89" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y89" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z89" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AA89" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AB89" t="n">
         <v>40</v>
       </c>
       <c r="AC89" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AD89" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="AE89" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF89" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG89" t="n">
         <v>101</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AI89" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ89" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AK89" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AL89" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AM89" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="AO89" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="AP89" t="n">
         <v>28</v>
       </c>
       <c r="AQ89" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AR89" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AU89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV89" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AW89" t="inlineStr"/>
       <c r="AX89" t="inlineStr"/>
       <c r="AY89" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AZ89" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="BA89" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="BB89" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BC89" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BD89" t="inlineStr"/>
     </row>
@@ -16537,76 +16541,76 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="H90" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I90" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J90" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K90" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L90" t="n">
-        <v>4.85</v>
+        <v>4.35</v>
       </c>
       <c r="M90" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="O90" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P90" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="R90" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="S90" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T90" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U90" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="V90" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="W90" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="X90" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="Y90" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Z90" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA90" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC90" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD90" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE90" t="n">
         <v>16.5</v>
@@ -16618,43 +16622,43 @@
         <v>101</v>
       </c>
       <c r="AH90" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AI90" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ90" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK90" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL90" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AO90" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ90" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR90" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS90" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU90" t="n">
         <v>8.5</v>
@@ -16665,19 +16669,19 @@
       <c r="AW90" t="inlineStr"/>
       <c r="AX90" t="inlineStr"/>
       <c r="AY90" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AZ90" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="BA90" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB90" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC90" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD90" t="inlineStr"/>
     </row>
@@ -16713,40 +16717,40 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H91" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I91" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="K91" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L91" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
       </c>
       <c r="N91" t="n">
-        <v>6.21</v>
+        <v>6.18</v>
       </c>
       <c r="O91" t="n">
         <v>1.36</v>
       </c>
       <c r="P91" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R91" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S91" t="n">
         <v>1.47</v>
@@ -16755,37 +16759,37 @@
         <v>2.22</v>
       </c>
       <c r="U91" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V91" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W91" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="X91" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Y91" t="n">
         <v>7.2</v>
       </c>
       <c r="Z91" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA91" t="n">
         <v>13</v>
       </c>
       <c r="AB91" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AD91" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE91" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF91" t="n">
         <v>80</v>
@@ -16794,57 +16798,57 @@
         <v>500</v>
       </c>
       <c r="AH91" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI91" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AJ91" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK91" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL91" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM91" t="n">
         <v>45</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO91" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP91" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR91" t="n">
         <v>60</v>
       </c>
       <c r="AS91" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT91" t="n">
         <v>2.55</v>
       </c>
       <c r="AU91" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV91" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW91" t="inlineStr"/>
       <c r="AX91" t="inlineStr"/>
       <c r="AY91" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AZ91" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA91" t="n">
         <v>30</v>
@@ -16912,7 +16916,7 @@
         <v>1.04</v>
       </c>
       <c r="N92" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="O92" t="n">
         <v>1.43</v>
@@ -17441,10 +17445,10 @@
         <v>2.4</v>
       </c>
       <c r="U95" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="V95" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W95" t="n">
         <v>4.65</v>
@@ -17603,10 +17607,10 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R96" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
         <v>1.36</v>
@@ -18991,40 +18995,40 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="H104" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="I104" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="J104" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="K104" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="L104" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N104" t="n">
-        <v>7.38</v>
+        <v>7.55</v>
       </c>
       <c r="O104" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P104" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="R104" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S104" t="n">
         <v>1.39</v>
@@ -19033,22 +19037,22 @@
         <v>2.57</v>
       </c>
       <c r="U104" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="V104" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W104" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="X104" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="Y104" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AA104" t="n">
         <v>14.5</v>
@@ -19057,49 +19061,49 @@
         <v>60</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD104" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AE104" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF104" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AG104" t="n">
         <v>101</v>
       </c>
       <c r="AH104" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI104" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ104" t="n">
         <v>45</v>
       </c>
       <c r="AK104" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AM104" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AN104" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AO104" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AP104" t="n">
         <v>22</v>
       </c>
       <c r="AQ104" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR104" t="n">
         <v>60</v>
@@ -19108,10 +19112,10 @@
         <v>450</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU104" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AV104" t="n">
         <v>175</v>
@@ -19119,13 +19123,13 @@
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="inlineStr"/>
       <c r="AY104" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AZ104" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA104" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB104" t="n">
         <v>500</v>
@@ -19337,22 +19341,22 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H106" t="n">
         <v>2.82</v>
       </c>
       <c r="I106" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J106" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="K106" t="n">
         <v>1.78</v>
       </c>
       <c r="L106" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M106" t="n">
         <v>1.16</v>
@@ -19364,52 +19368,52 @@
         <v>1.7</v>
       </c>
       <c r="P106" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q106" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R106" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S106" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T106" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U106" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="V106" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W106" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="X106" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y106" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z106" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA106" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB106" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC106" t="n">
         <v>4.3</v>
       </c>
       <c r="AD106" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE106" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF106" t="n">
         <v>250</v>
@@ -19421,41 +19425,41 @@
         <v>8</v>
       </c>
       <c r="AI106" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ106" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK106" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL106" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM106" t="n">
         <v>120</v>
       </c>
       <c r="AN106" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO106" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP106" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ106" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR106" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS106" t="inlineStr"/>
       <c r="AT106" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AU106" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV106" t="n">
         <v>150</v>
@@ -19463,19 +19467,19 @@
       <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="inlineStr"/>
       <c r="AY106" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AZ106" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA106" t="n">
         <v>55</v>
       </c>
       <c r="BB106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC106" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD106" t="inlineStr"/>
     </row>
@@ -20775,10 +20779,10 @@
         <v>3.65</v>
       </c>
       <c r="M114" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N114" t="n">
-        <v>6.65</v>
+        <v>6.55</v>
       </c>
       <c r="O114" t="n">
         <v>1.5</v>
@@ -20799,10 +20803,10 @@
         <v>2.15</v>
       </c>
       <c r="U114" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="V114" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W114" t="n">
         <v>5.2</v>
@@ -20935,46 +20939,46 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I115" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="J115" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K115" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L115" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M115" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N115" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P115" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="Q115" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="R115" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S115" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T115" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U115" t="n">
         <v>2.6</v>
@@ -20986,13 +20990,13 @@
         <v>3.95</v>
       </c>
       <c r="X115" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Y115" t="n">
         <v>7.8</v>
       </c>
       <c r="Z115" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AA115" t="n">
         <v>12.5</v>
@@ -21001,10 +21005,10 @@
         <v>37</v>
       </c>
       <c r="AC115" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD115" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE115" t="n">
         <v>24</v>
@@ -21016,43 +21020,43 @@
         <v>101</v>
       </c>
       <c r="AH115" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI115" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ115" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK115" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL115" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM115" t="n">
         <v>100</v>
       </c>
-      <c r="AM115" t="n">
-        <v>110</v>
-      </c>
       <c r="AN115" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AO115" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AP115" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ115" t="n">
         <v>23</v>
       </c>
-      <c r="AQ115" t="n">
-        <v>21</v>
-      </c>
       <c r="AR115" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS115" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="AU115" t="n">
         <v>10.25</v>
@@ -21063,16 +21067,16 @@
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="inlineStr"/>
       <c r="AY115" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ115" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA115" t="n">
         <v>65</v>
       </c>
       <c r="BB115" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC115" t="n">
         <v>400</v>
@@ -21310,7 +21314,7 @@
         <v>1.03</v>
       </c>
       <c r="N117" t="n">
-        <v>10.9</v>
+        <v>9.85</v>
       </c>
       <c r="O117" t="n">
         <v>1.14</v>
@@ -21331,10 +21335,10 @@
         <v>3.32</v>
       </c>
       <c r="U117" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="V117" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="W117" t="n">
         <v>8.75</v>
@@ -21467,13 +21471,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H118" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I118" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="J118" t="n">
         <v>3.55</v>
@@ -21485,10 +21489,10 @@
         <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N118" t="n">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
       <c r="O118" t="n">
         <v>1.42</v>
@@ -21497,16 +21501,16 @@
         <v>2.47</v>
       </c>
       <c r="Q118" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R118" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S118" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T118" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U118" t="n">
         <v>1.91</v>
@@ -21515,82 +21519,82 @@
         <v>1.7</v>
       </c>
       <c r="W118" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X118" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y118" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA118" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB118" t="n">
         <v>45</v>
       </c>
       <c r="AC118" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD118" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AE118" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF118" t="n">
         <v>100</v>
       </c>
       <c r="AG118" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH118" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI118" t="n">
         <v>10.5</v>
       </c>
       <c r="AJ118" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK118" t="n">
         <v>24</v>
       </c>
       <c r="AL118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM118" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN118" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AO118" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP118" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ118" t="n">
         <v>80</v>
       </c>
       <c r="AR118" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS118" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU118" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV118" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW118" t="inlineStr"/>
       <c r="AX118" t="inlineStr"/>
@@ -21598,7 +21602,7 @@
         <v>4.1</v>
       </c>
       <c r="AZ118" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA118" t="n">
         <v>23</v>
@@ -22355,16 +22359,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H123" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I123" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K123" t="n">
         <v>2.38</v>
@@ -22373,10 +22377,10 @@
         <v>5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O123" t="n">
         <v>1.2</v>
@@ -22397,13 +22401,13 @@
         <v>3.25</v>
       </c>
       <c r="U123" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V123" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X123" t="n">
         <v>8.5</v>
@@ -22412,7 +22416,7 @@
         <v>8.5</v>
       </c>
       <c r="Z123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
         <v>13</v>
@@ -22433,16 +22437,16 @@
         <v>41</v>
       </c>
       <c r="AG123" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH123" t="n">
         <v>15</v>
       </c>
       <c r="AI123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK123" t="n">
         <v>51</v>
@@ -22457,7 +22461,7 @@
         <v>3.75</v>
       </c>
       <c r="AO123" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP123" t="n">
         <v>17</v>
@@ -22469,7 +22473,7 @@
         <v>41</v>
       </c>
       <c r="AS123" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT123" t="n">
         <v>3.25</v>
@@ -22487,10 +22491,10 @@
         <v>81</v>
       </c>
       <c r="AY123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ123" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA123" t="n">
         <v>29</v>
@@ -22537,13 +22541,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>3.5</v>
       </c>
       <c r="I124" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J124" t="n">
         <v>2.4</v>
@@ -22606,7 +22610,7 @@
         <v>10</v>
       </c>
       <c r="AD124" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE124" t="n">
         <v>15</v>
@@ -22618,7 +22622,7 @@
         <v>251</v>
       </c>
       <c r="AH124" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI124" t="n">
         <v>23</v>
@@ -22630,7 +22634,7 @@
         <v>51</v>
       </c>
       <c r="AL124" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM124" t="n">
         <v>41</v>
@@ -22645,7 +22649,7 @@
         <v>21</v>
       </c>
       <c r="AQ124" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR124" t="n">
         <v>51</v>
@@ -22975,7 +22979,7 @@
         <v>51</v>
       </c>
       <c r="AG126" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH126" t="n">
         <v>11</v>
@@ -23040,7 +23044,7 @@
         <v>81</v>
       </c>
       <c r="BD126" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127">
@@ -23075,22 +23079,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H127" t="n">
         <v>3.85</v>
       </c>
       <c r="I127" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J127" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="K127" t="n">
         <v>2.45</v>
       </c>
       <c r="L127" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M127" t="n">
         <v>1.02</v>
@@ -23099,16 +23103,16 @@
         <v>13</v>
       </c>
       <c r="O127" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P127" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q127" t="n">
         <v>1.39</v>
       </c>
       <c r="R127" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S127" t="n">
         <v>1.19</v>
@@ -23117,31 +23121,31 @@
         <v>4.2</v>
       </c>
       <c r="U127" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V127" t="n">
         <v>2.57</v>
       </c>
       <c r="W127" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X127" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z127" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA127" t="n">
         <v>12.5</v>
       </c>
       <c r="AB127" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC127" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD127" t="n">
         <v>8.5</v>
@@ -23150,37 +23154,37 @@
         <v>11.25</v>
       </c>
       <c r="AF127" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG127" t="n">
         <v>150</v>
       </c>
       <c r="AH127" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI127" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AJ127" t="n">
         <v>12.5</v>
       </c>
       <c r="AK127" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL127" t="n">
         <v>26</v>
       </c>
       <c r="AM127" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN127" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO127" t="n">
         <v>8.75</v>
       </c>
       <c r="AP127" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ127" t="n">
         <v>26</v>
@@ -23198,29 +23202,29 @@
         <v>6.1</v>
       </c>
       <c r="AV127" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW127" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AX127" t="inlineStr"/>
       <c r="AY127" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AZ127" t="n">
         <v>17.5</v>
       </c>
       <c r="BA127" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB127" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC127" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD127" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128">
@@ -23996,7 +24000,7 @@
         <v>2.2</v>
       </c>
       <c r="R132" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S132" t="n">
         <v>1.5</v>
@@ -24174,7 +24178,7 @@
         <v>2.35</v>
       </c>
       <c r="R133" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S133" t="n">
         <v>1.53</v>
@@ -24340,7 +24344,7 @@
         <v>1.08</v>
       </c>
       <c r="N134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O134" t="n">
         <v>1.4</v>
@@ -24352,7 +24356,7 @@
         <v>2.3</v>
       </c>
       <c r="R134" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S134" t="n">
         <v>1.5</v>
@@ -24531,10 +24535,10 @@
         <v>3</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R135" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S135" t="n">
         <v>1.44</v>
@@ -24677,150 +24681,150 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="H136" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I136" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J136" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="K136" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="L136" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="M136" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N136" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O136" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P136" t="n">
-        <v>3.68</v>
+        <v>4.33</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R136" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S136" t="n">
         <v>1.32</v>
       </c>
       <c r="T136" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U136" t="n">
         <v>1.59</v>
       </c>
       <c r="V136" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="W136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X136" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO136" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y136" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z136" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA136" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF136" t="n">
+      <c r="AP136" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ136" t="n">
         <v>40</v>
       </c>
-      <c r="AG136" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM136" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO136" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP136" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ136" t="n">
-        <v>55</v>
-      </c>
       <c r="AR136" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AS136" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AT136" t="n">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="AU136" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV136" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AW136" t="inlineStr"/>
       <c r="AX136" t="inlineStr"/>
       <c r="AY136" t="n">
-        <v>4.4</v>
+        <v>4.75</v>
       </c>
       <c r="AZ136" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA136" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB136" t="n">
         <v>45</v>
       </c>
       <c r="BC136" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD136" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137">
@@ -25075,10 +25079,10 @@
         <v>2.02</v>
       </c>
       <c r="U138" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V138" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W138" t="n">
         <v>4.3</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -771,16 +771,16 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -944,7 +944,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,28 +959,28 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -995,13 +995,13 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
@@ -1016,16 +1016,16 @@
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL3" t="n">
         <v>17</v>
       </c>
-      <c r="AL3" t="n">
-        <v>15</v>
-      </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>5.5</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1070,13 +1070,13 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1335,16 +1335,16 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1374,7 +1374,7 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1434,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.7</v>
       </c>
       <c r="J6" t="n">
         <v>2.63</v>
@@ -1517,16 +1517,16 @@
         <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
         <v>10</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>34</v>
@@ -1556,7 +1556,7 @@
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1568,7 +1568,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1595,7 +1595,7 @@
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
         <v>41</v>
@@ -1687,10 +1687,10 @@
         <v>4.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -2272,7 +2272,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2385,58 +2385,58 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I11" t="n">
         <v>9.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
         <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.62</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2445,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>29</v>
@@ -2460,10 +2460,10 @@
         <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2481,7 +2481,7 @@
         <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>3.2</v>
@@ -2490,19 +2490,19 @@
         <v>6</v>
       </c>
       <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>15</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2511,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX11" t="n">
         <v>151</v>
@@ -2532,7 +2532,7 @@
         <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -2591,16 +2591,16 @@
         <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S12" t="n">
         <v>1.33</v>
@@ -2609,22 +2609,22 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
         <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
         <v>12</v>
@@ -2633,10 +2633,10 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
         <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>26</v>
@@ -2648,7 +2648,7 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>51</v>
@@ -2669,7 +2669,7 @@
         <v>3.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -3341,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -3368,7 +3368,7 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3377,10 +3377,10 @@
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H20" t="n">
         <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>3.55</v>
@@ -4024,13 +4024,13 @@
         <v>1.87</v>
       </c>
       <c r="L20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.57</v>
@@ -4039,7 +4039,7 @@
         <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.47</v>
@@ -4057,10 +4057,10 @@
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>11.5</v>
@@ -4072,10 +4072,10 @@
         <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD20" t="n">
         <v>5.8</v>
@@ -4090,13 +4090,13 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
         <v>40</v>
@@ -4114,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>80</v>
@@ -4141,13 +4141,13 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AZ20" t="n">
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
         <v>90</v>
@@ -4156,7 +4156,7 @@
         <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -4381,18 +4381,22 @@
         <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L22" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>2.52</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
       <c r="O22" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>3.58</v>
+        <v>3.44</v>
       </c>
       <c r="Q22" t="n">
         <v>1.62</v>
@@ -4407,13 +4411,13 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V22" t="n">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="W22" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>14.5</v>
@@ -4428,16 +4432,16 @@
         <v>19.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF22" t="n">
         <v>37</v>
@@ -4446,7 +4450,7 @@
         <v>200</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
@@ -4461,45 +4465,45 @@
         <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS22" t="n">
         <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU22" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="BA22" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BB22" t="n">
         <v>35</v>
@@ -4508,7 +4512,7 @@
         <v>60</v>
       </c>
       <c r="BD22" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -5271,22 +5275,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="n">
         <v>5.1</v>
       </c>
       <c r="K27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L27" t="n">
         <v>2.15</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.18</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -5295,16 +5299,16 @@
         <v>7.65</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R27" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S27" t="n">
         <v>1.39</v>
@@ -5313,13 +5317,13 @@
         <v>2.55</v>
       </c>
       <c r="U27" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="W27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X27" t="n">
         <v>29</v>
@@ -5334,28 +5338,28 @@
         <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG27" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AJ27" t="n">
         <v>8</v>
@@ -5364,10 +5368,10 @@
         <v>11.75</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
         <v>6.5</v>
@@ -5382,19 +5386,19 @@
         <v>175</v>
       </c>
       <c r="AR27" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS27" t="n">
         <v>500</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW27" t="n">
         <v>51</v>
@@ -5406,16 +5410,16 @@
         <v>3.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="BA27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BD27" t="n">
         <v>250</v>
@@ -5453,22 +5457,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
@@ -5477,7 +5481,7 @@
         <v>7.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
         <v>2.65</v>
@@ -5495,13 +5499,13 @@
         <v>2.47</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V28" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X28" t="n">
         <v>7.4</v>
@@ -5513,7 +5517,7 @@
         <v>13.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="n">
         <v>32</v>
@@ -5522,22 +5526,22 @@
         <v>7.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF28" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -5549,19 +5553,19 @@
         <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN28" t="n">
         <v>3.45</v>
       </c>
       <c r="AO28" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP28" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR28" t="n">
         <v>65</v>
@@ -5573,10 +5577,10 @@
         <v>2.42</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW28" t="n">
         <v>51</v>
@@ -5588,19 +5592,19 @@
         <v>6.3</v>
       </c>
       <c r="AZ28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB28" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC28" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD28" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29">
@@ -5635,28 +5639,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>8.9</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
@@ -5668,7 +5672,7 @@
         <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>1.39</v>
@@ -5680,13 +5684,13 @@
         <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W29" t="n">
         <v>11.5</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -5725,10 +5729,10 @@
         <v>8.75</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
         <v>22</v>
@@ -5740,7 +5744,7 @@
         <v>15.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ29" t="n">
         <v>70</v>
@@ -5767,7 +5771,7 @@
         <v>51</v>
       </c>
       <c r="AY29" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AZ29" t="n">
         <v>11.25</v>
@@ -5776,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="BB29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC29" t="n">
         <v>65</v>
@@ -5817,10 +5821,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
         <v>3.75</v>
@@ -5829,16 +5833,16 @@
         <v>2.52</v>
       </c>
       <c r="K30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L30" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>6.1</v>
+        <v>6.05</v>
       </c>
       <c r="O30" t="n">
         <v>1.29</v>
@@ -5853,10 +5857,10 @@
         <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T30" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U30" t="n">
         <v>1.72</v>
@@ -5865,25 +5869,25 @@
         <v>1.88</v>
       </c>
       <c r="W30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5898,10 +5902,10 @@
         <v>500</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
         <v>12.5</v>
@@ -5922,7 +5926,7 @@
         <v>9.75</v>
       </c>
       <c r="AP30" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ30" t="n">
         <v>37</v>
@@ -5934,10 +5938,10 @@
         <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV30" t="n">
         <v>65</v>
@@ -5955,16 +5959,16 @@
         <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC30" t="n">
         <v>150</v>
       </c>
       <c r="BD30" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31">
@@ -5999,130 +6003,130 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K31" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R31" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T31" t="n">
-        <v>3.04</v>
+        <v>2.97</v>
       </c>
       <c r="U31" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="V31" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="X31" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH31" t="n">
         <v>14</v>
       </c>
       <c r="AI31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS31" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
@@ -6131,22 +6135,22 @@
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BB31" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD31" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -6380,7 +6384,7 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>7.85</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
@@ -6987,7 +6991,7 @@
         <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
         <v>3.75</v>
@@ -7011,7 +7015,7 @@
         <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
         <v>51</v>
@@ -7429,16 +7433,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J39" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K39" t="n">
         <v>2.27</v>
@@ -7459,10 +7463,10 @@
         <v>5.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R39" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="S39" t="n">
         <v>1.22</v>
@@ -7492,10 +7496,10 @@
         <v>14.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD39" t="n">
         <v>6.6</v>
@@ -7504,31 +7508,31 @@
         <v>9</v>
       </c>
       <c r="AF39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
         <v>110</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO39" t="n">
         <v>12.5</v>
@@ -7546,32 +7550,32 @@
         <v>150</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU39" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV39" t="n">
         <v>37</v>
       </c>
       <c r="AW39" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AZ39" t="n">
         <v>12.5</v>
       </c>
       <c r="BA39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BB39" t="n">
         <v>45</v>
       </c>
       <c r="BC39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD39" t="n">
         <v>150</v>
@@ -7807,16 +7811,16 @@
         <v>6.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
         <v>1.57</v>
@@ -7963,13 +7967,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
         <v>2.75</v>
@@ -8011,7 +8015,7 @@
         <v>1.73</v>
       </c>
       <c r="W42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X42" t="n">
         <v>8.5</v>
@@ -8029,7 +8033,7 @@
         <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
@@ -8038,7 +8042,7 @@
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG42" t="n">
         <v>1000</v>
@@ -8056,16 +8060,16 @@
         <v>41</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
@@ -8107,7 +8111,7 @@
         <v>81</v>
       </c>
       <c r="BC42" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
         <v>301</v>
@@ -8630,8 +8634,12 @@
       <c r="AV45" t="n">
         <v>110</v>
       </c>
-      <c r="AW45" t="inlineStr"/>
-      <c r="AX45" t="inlineStr"/>
+      <c r="AW45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>51</v>
+      </c>
       <c r="AY45" t="n">
         <v>7.4</v>
       </c>
@@ -8895,10 +8903,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -9047,13 +9055,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J48" t="n">
         <v>2.2</v>
@@ -9095,10 +9103,10 @@
         <v>2.1</v>
       </c>
       <c r="W48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
@@ -9140,7 +9148,7 @@
         <v>51</v>
       </c>
       <c r="AL48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9411,7 +9419,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
@@ -9420,13 +9428,13 @@
         <v>2.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -9447,10 +9455,10 @@
         <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -9471,7 +9479,7 @@
         <v>23</v>
       </c>
       <c r="AA50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB50" t="n">
         <v>34</v>
@@ -9483,7 +9491,7 @@
         <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
         <v>67</v>
@@ -9510,7 +9518,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO50" t="n">
         <v>15</v>
@@ -9528,7 +9536,7 @@
         <v>251</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU50" t="n">
         <v>8.5</v>
@@ -9773,22 +9781,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="H52" t="n">
         <v>3.6</v>
       </c>
       <c r="I52" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="J52" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
@@ -9797,34 +9805,34 @@
         <v>15.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q52" t="n">
         <v>1.52</v>
       </c>
       <c r="R52" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="T52" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="U52" t="n">
         <v>1.47</v>
       </c>
       <c r="V52" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="W52" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
         <v>8.75</v>
@@ -9833,10 +9841,10 @@
         <v>21</v>
       </c>
       <c r="AA52" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB52" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="n">
         <v>15.5</v>
@@ -9854,43 +9862,43 @@
         <v>200</v>
       </c>
       <c r="AH52" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI52" t="n">
         <v>19</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM52" t="n">
         <v>23</v>
       </c>
-      <c r="AM52" t="n">
-        <v>25</v>
-      </c>
       <c r="AN52" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ52" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR52" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS52" t="n">
         <v>150</v>
       </c>
       <c r="AT52" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU52" t="n">
         <v>6.3</v>
@@ -9903,22 +9911,22 @@
       </c>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AZ52" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA52" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="BB52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BC52" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BD52" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -9953,79 +9961,79 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.25</v>
+        <v>4.55</v>
       </c>
       <c r="H53" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="I53" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J53" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="K53" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L53" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="M53" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>14.9</v>
+        <v>16.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="P53" t="n">
-        <v>4.9</v>
+        <v>5.52</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R53" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S53" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T53" t="n">
-        <v>3.7</v>
+        <v>4.01</v>
       </c>
       <c r="U53" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V53" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W53" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="X53" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Y53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z53" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB53" t="n">
         <v>32</v>
       </c>
       <c r="AC53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF53" t="n">
         <v>40</v>
@@ -10034,31 +10042,31 @@
         <v>200</v>
       </c>
       <c r="AH53" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ53" t="n">
         <v>8.25</v>
       </c>
       <c r="AK53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL53" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM53" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN53" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP53" t="n">
         <v>22</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>23</v>
       </c>
       <c r="AQ53" t="n">
         <v>110</v>
@@ -10070,29 +10078,29 @@
         <v>200</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU53" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV53" t="n">
         <v>40</v>
       </c>
       <c r="AW53" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AZ53" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="BA53" t="n">
         <v>13</v>
       </c>
       <c r="BB53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC53" t="n">
         <v>37</v>
@@ -10133,22 +10141,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H54" t="n">
         <v>4.3</v>
       </c>
       <c r="I54" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K54" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="L54" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10157,55 +10165,55 @@
         <v>20</v>
       </c>
       <c r="O54" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="P54" t="n">
-        <v>5.35</v>
+        <v>6.5</v>
       </c>
       <c r="Q54" t="n">
         <v>1.34</v>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S54" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="T54" t="n">
-        <v>4.5</v>
+        <v>4.17</v>
       </c>
       <c r="U54" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V54" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y54" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z54" t="n">
         <v>55</v>
       </c>
       <c r="AA54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB54" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC54" t="n">
         <v>24</v>
       </c>
       <c r="AD54" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE54" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
         <v>32</v>
@@ -10214,7 +10222,7 @@
         <v>150</v>
       </c>
       <c r="AH54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI54" t="n">
         <v>12.5</v>
@@ -10223,22 +10231,22 @@
         <v>9</v>
       </c>
       <c r="AK54" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL54" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM54" t="n">
         <v>16</v>
       </c>
       <c r="AN54" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO54" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP54" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ54" t="n">
         <v>70</v>
@@ -10250,7 +10258,7 @@
         <v>150</v>
       </c>
       <c r="AT54" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AU54" t="n">
         <v>6.4</v>
@@ -10259,23 +10267,23 @@
         <v>35</v>
       </c>
       <c r="AW54" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AX54" t="inlineStr"/>
       <c r="AY54" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AZ54" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="BA54" t="n">
         <v>12</v>
       </c>
       <c r="BB54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC54" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BD54" t="n">
         <v>90</v>
@@ -10313,22 +10321,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="K55" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L55" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -10337,31 +10345,31 @@
         <v>14.9</v>
       </c>
       <c r="O55" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P55" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="Q55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U55" t="n">
         <v>1.55</v>
       </c>
-      <c r="R55" t="n">
+      <c r="V55" t="n">
         <v>2.15</v>
       </c>
-      <c r="S55" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T55" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V55" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X55" t="n">
         <v>9.5</v>
@@ -10373,16 +10381,16 @@
         <v>14</v>
       </c>
       <c r="AA55" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD55" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE55" t="n">
         <v>13.5</v>
@@ -10394,7 +10402,7 @@
         <v>300</v>
       </c>
       <c r="AH55" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI55" t="n">
         <v>25</v>
@@ -10415,13 +10423,13 @@
         <v>3.8</v>
       </c>
       <c r="AO55" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP55" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR55" t="n">
         <v>45</v>
@@ -10430,7 +10438,7 @@
         <v>150</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU55" t="n">
         <v>6.9</v>
@@ -10493,22 +10501,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H56" t="n">
         <v>3.45</v>
       </c>
       <c r="I56" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J56" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K56" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="M56" t="n">
         <v>1.03</v>
@@ -10517,22 +10525,22 @@
         <v>13.9</v>
       </c>
       <c r="O56" t="n">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="P56" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R56" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S56" t="n">
         <v>1.3</v>
       </c>
       <c r="T56" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="U56" t="n">
         <v>1.47</v>
@@ -10541,7 +10549,7 @@
         <v>2.32</v>
       </c>
       <c r="W56" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X56" t="n">
         <v>13</v>
@@ -10550,16 +10558,16 @@
         <v>8.75</v>
       </c>
       <c r="Z56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA56" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC56" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD56" t="n">
         <v>7.1</v>
@@ -10580,25 +10588,25 @@
         <v>18.5</v>
       </c>
       <c r="AJ56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO56" t="n">
         <v>10.75</v>
       </c>
-      <c r="AK56" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AP56" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ56" t="n">
         <v>37</v>
@@ -10610,10 +10618,10 @@
         <v>150</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU56" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV56" t="n">
         <v>40</v>
@@ -10626,19 +10634,19 @@
         <v>5.2</v>
       </c>
       <c r="AZ56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA56" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BB56" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC56" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BD56" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
@@ -10673,28 +10681,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="H57" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="I57" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="J57" t="n">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="K57" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L57" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="M57" t="n">
         <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
         <v>1.19</v>
@@ -10703,10 +10711,10 @@
         <v>3.75</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R57" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S57" t="n">
         <v>1.28</v>
@@ -10721,31 +10729,31 @@
         <v>2.12</v>
       </c>
       <c r="W57" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y57" t="n">
         <v>14</v>
       </c>
-      <c r="X57" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z57" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA57" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB57" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE57" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF57" t="n">
         <v>50</v>
@@ -10757,40 +10765,40 @@
         <v>9.25</v>
       </c>
       <c r="AI57" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ57" t="n">
         <v>8.25</v>
       </c>
       <c r="AK57" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM57" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO57" t="n">
         <v>21</v>
       </c>
-      <c r="AN57" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>19</v>
-      </c>
       <c r="AP57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ57" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR57" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS57" t="n">
         <v>250</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU57" t="n">
         <v>6.9</v>
@@ -10801,19 +10809,19 @@
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="inlineStr"/>
       <c r="AY57" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AZ57" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="BA57" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BB57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC57" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BD57" t="n">
         <v>150</v>
@@ -10851,55 +10859,55 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="H58" t="n">
         <v>3.9</v>
       </c>
       <c r="I58" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="J58" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="K58" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L58" t="n">
         <v>2.2</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P58" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="R58" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T58" t="n">
-        <v>3.42</v>
+        <v>3.7</v>
       </c>
       <c r="U58" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V58" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="W58" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X58" t="n">
         <v>27</v>
@@ -10908,93 +10916,93 @@
         <v>14</v>
       </c>
       <c r="Z58" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA58" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB58" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK58" t="n">
         <v>14</v>
       </c>
-      <c r="AD58" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF58" t="n">
+      <c r="AL58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV58" t="n">
         <v>50</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>55</v>
       </c>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AZ58" t="n">
         <v>8</v>
       </c>
       <c r="BA58" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BB58" t="n">
         <v>25</v>
       </c>
       <c r="BC58" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BD58" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
@@ -11029,22 +11037,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H59" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I59" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="J59" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L59" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="M59" t="n">
         <v>1.01</v>
@@ -11062,7 +11070,7 @@
         <v>1.39</v>
       </c>
       <c r="R59" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="S59" t="n">
         <v>1.21</v>
@@ -11071,79 +11079,79 @@
         <v>4.1</v>
       </c>
       <c r="U59" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V59" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="W59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA59" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC59" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD59" t="n">
         <v>9</v>
       </c>
       <c r="AE59" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG59" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH59" t="n">
         <v>12.5</v>
       </c>
       <c r="AI59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ59" t="n">
         <v>8.75</v>
       </c>
       <c r="AK59" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM59" t="n">
         <v>17</v>
       </c>
       <c r="AN59" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AO59" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ59" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR59" t="n">
         <v>70</v>
       </c>
-      <c r="AR59" t="n">
-        <v>75</v>
-      </c>
       <c r="AS59" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT59" t="n">
         <v>4.05</v>
@@ -11159,19 +11167,19 @@
       </c>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AZ59" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="BA59" t="n">
         <v>12.5</v>
       </c>
       <c r="BB59" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD59" t="n">
         <v>100</v>
@@ -11954,7 +11962,7 @@
         <v>1.29</v>
       </c>
       <c r="T64" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U64" t="n">
         <v>1.5</v>
@@ -12131,10 +12139,10 @@
         <v>2.05</v>
       </c>
       <c r="S65" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T65" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U65" t="n">
         <v>1.6</v>
@@ -12273,16 +12281,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H66" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I66" t="n">
         <v>1.65</v>
       </c>
       <c r="J66" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="K66" t="n">
         <v>2.42</v>
@@ -12306,7 +12314,7 @@
         <v>1.5</v>
       </c>
       <c r="R66" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
         <v>1.28</v>
@@ -12321,7 +12329,7 @@
         <v>2.15</v>
       </c>
       <c r="W66" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X66" t="n">
         <v>27</v>
@@ -12333,7 +12341,7 @@
         <v>65</v>
       </c>
       <c r="AA66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB66" t="n">
         <v>32</v>
@@ -12372,7 +12380,7 @@
         <v>19.5</v>
       </c>
       <c r="AN66" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AO66" t="n">
         <v>21</v>
@@ -12401,7 +12409,7 @@
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AZ66" t="n">
         <v>7.7</v>
@@ -12410,7 +12418,7 @@
         <v>14</v>
       </c>
       <c r="BB66" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC66" t="n">
         <v>40</v>
@@ -12451,22 +12459,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="J67" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K67" t="n">
         <v>2.22</v>
       </c>
       <c r="L67" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -12475,7 +12483,7 @@
         <v>11.4</v>
       </c>
       <c r="O67" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P67" t="n">
         <v>3.4</v>
@@ -12496,73 +12504,73 @@
         <v>1.6</v>
       </c>
       <c r="V67" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W67" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X67" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y67" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB67" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC67" t="n">
         <v>12.5</v>
       </c>
       <c r="AD67" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE67" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="n">
         <v>350</v>
       </c>
       <c r="AH67" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>9</v>
       </c>
-      <c r="AI67" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AK67" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AL67" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM67" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AP67" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR67" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS67" t="n">
         <v>250</v>
@@ -12571,7 +12579,7 @@
         <v>2.95</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV67" t="n">
         <v>55</v>
@@ -12579,19 +12587,19 @@
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AZ67" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BA67" t="n">
         <v>18</v>
       </c>
       <c r="BB67" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BC67" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BD67" t="n">
         <v>200</v>
@@ -12985,73 +12993,73 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H70" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I70" t="n">
         <v>2.7</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K70" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="L70" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M70" t="n">
         <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>6.45</v>
+        <v>6.5</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
       </c>
       <c r="P70" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R70" t="n">
         <v>1.72</v>
       </c>
       <c r="S70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T70" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="U70" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V70" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W70" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="X70" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z70" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB70" t="n">
         <v>23</v>
       </c>
-      <c r="AA70" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>21</v>
-      </c>
       <c r="AC70" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD70" t="n">
         <v>5.1</v>
@@ -13066,10 +13074,10 @@
         <v>250</v>
       </c>
       <c r="AH70" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AI70" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ70" t="n">
         <v>8.25</v>
@@ -13078,57 +13086,57 @@
         <v>26</v>
       </c>
       <c r="AL70" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AM70" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN70" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AO70" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AQ70" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV70" t="n">
         <v>55</v>
-      </c>
-      <c r="AR70" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS70" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>50</v>
       </c>
       <c r="AW70" t="inlineStr"/>
       <c r="AX70" t="inlineStr"/>
       <c r="AY70" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AZ70" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB70" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC70" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD70" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
@@ -13184,7 +13192,7 @@
         <v>1.02</v>
       </c>
       <c r="N71" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="O71" t="n">
         <v>1.1</v>
@@ -13205,10 +13213,10 @@
         <v>4</v>
       </c>
       <c r="U71" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V71" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
         <v>8.25</v>
@@ -13519,64 +13527,64 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H73" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I73" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="K73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L73" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M73" t="n">
         <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P73" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R73" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S73" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T73" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="U73" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="V73" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W73" t="n">
         <v>4.4</v>
       </c>
       <c r="X73" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="Y73" t="n">
         <v>10</v>
       </c>
       <c r="Z73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA73" t="n">
         <v>21</v>
@@ -13585,13 +13593,13 @@
         <v>60</v>
       </c>
       <c r="AC73" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AD73" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE73" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF73" t="n">
         <v>250</v>
@@ -13600,16 +13608,16 @@
         <v>1000</v>
       </c>
       <c r="AH73" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI73" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK73" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL73" t="n">
         <v>80</v>
@@ -13618,25 +13626,25 @@
         <v>120</v>
       </c>
       <c r="AN73" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO73" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AP73" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR73" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS73" t="n">
         <v>500</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AU73" t="n">
         <v>9.5</v>
@@ -13647,10 +13655,10 @@
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
       <c r="AY73" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AZ73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA73" t="n">
         <v>50</v>
@@ -13659,7 +13667,7 @@
         <v>250</v>
       </c>
       <c r="BC73" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD73" t="n">
         <v>500</v>
@@ -13700,7 +13708,7 @@
         <v>1.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
         <v>5</v>
@@ -13709,7 +13717,7 @@
         <v>2.25</v>
       </c>
       <c r="K74" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L74" t="n">
         <v>5.3</v>
@@ -13721,16 +13729,16 @@
         <v>7.75</v>
       </c>
       <c r="O74" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R74" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S74" t="n">
         <v>1.42</v>
@@ -13745,16 +13753,16 @@
         <v>1.65</v>
       </c>
       <c r="W74" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X74" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA74" t="n">
         <v>15</v>
@@ -13763,7 +13771,7 @@
         <v>32</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
         <v>6.6</v>
@@ -13772,16 +13780,16 @@
         <v>18.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG74" t="n">
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ74" t="n">
         <v>17</v>
@@ -13793,7 +13801,7 @@
         <v>60</v>
       </c>
       <c r="AM74" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN74" t="n">
         <v>3.4</v>
@@ -13802,22 +13810,22 @@
         <v>8.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ74" t="n">
         <v>28</v>
       </c>
       <c r="AR74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT74" t="n">
         <v>2.42</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV74" t="n">
         <v>80</v>
@@ -13825,7 +13833,7 @@
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AZ74" t="n">
         <v>30</v>
@@ -13875,40 +13883,40 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I75" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="K75" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>8.699999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="O75" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P75" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S75" t="n">
         <v>1.42</v>
@@ -13917,85 +13925,85 @@
         <v>2.45</v>
       </c>
       <c r="U75" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V75" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W75" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="X75" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Y75" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AB75" t="n">
         <v>27</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE75" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF75" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK75" t="n">
         <v>65</v>
       </c>
-      <c r="AG75" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK75" t="n">
+      <c r="AL75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR75" t="n">
         <v>55</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM75" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR75" t="n">
-        <v>60</v>
       </c>
       <c r="AS75" t="n">
         <v>200</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV75" t="n">
         <v>55</v>
@@ -14003,19 +14011,19 @@
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AZ75" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB75" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC75" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD75" t="n">
         <v>300</v>
@@ -14053,7 +14061,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
@@ -14068,7 +14076,7 @@
         <v>2.1</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -14083,10 +14091,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="n">
         <v>1.4</v>
@@ -14125,7 +14133,7 @@
         <v>6.5</v>
       </c>
       <c r="AE76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF76" t="n">
         <v>41</v>
@@ -14149,7 +14157,7 @@
         <v>19</v>
       </c>
       <c r="AM76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN76" t="n">
         <v>5</v>
@@ -14184,10 +14192,10 @@
         <v>4.33</v>
       </c>
       <c r="AZ76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA76" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB76" t="n">
         <v>41</v>
@@ -15653,16 +15661,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I85" t="n">
         <v>3.3</v>
       </c>
-      <c r="I85" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K85" t="n">
         <v>2.1</v>
@@ -15671,22 +15679,22 @@
         <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>7.65</v>
+        <v>8.5</v>
       </c>
       <c r="O85" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S85" t="n">
         <v>1.36</v>
@@ -15695,37 +15703,37 @@
         <v>2.52</v>
       </c>
       <c r="U85" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="V85" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W85" t="n">
         <v>7.5</v>
       </c>
       <c r="X85" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y85" t="n">
         <v>10</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB85" t="n">
         <v>29</v>
       </c>
       <c r="AC85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF85" t="n">
         <v>51</v>
@@ -15734,16 +15742,16 @@
         <v>350</v>
       </c>
       <c r="AH85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ85" t="n">
         <v>15</v>
       </c>
       <c r="AK85" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL85" t="n">
         <v>29</v>
@@ -15755,13 +15763,13 @@
         <v>4</v>
       </c>
       <c r="AO85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP85" t="n">
         <v>23</v>
       </c>
       <c r="AQ85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR85" t="n">
         <v>51</v>
@@ -15770,10 +15778,10 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV85" t="n">
         <v>51</v>
@@ -15784,7 +15792,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA85" t="n">
         <v>29</v>
@@ -15796,7 +15804,7 @@
         <v>81</v>
       </c>
       <c r="BD85" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
@@ -16717,147 +16725,147 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H91" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I91" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="K91" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L91" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N91" t="n">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="O91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S91" t="n">
         <v>1.42</v>
       </c>
-      <c r="P91" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="R91" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1.37</v>
-      </c>
       <c r="T91" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="U91" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="V91" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="W91" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="X91" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y91" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Z91" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AA91" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC91" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AD91" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AE91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF91" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG91" t="n">
         <v>500</v>
       </c>
       <c r="AH91" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AI91" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ91" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK91" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL91" t="n">
         <v>45</v>
       </c>
       <c r="AM91" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN91" t="n">
         <v>3.4</v>
       </c>
       <c r="AO91" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AP91" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AU91" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV91" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AW91" t="inlineStr"/>
       <c r="AX91" t="inlineStr"/>
       <c r="AY91" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AZ91" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA91" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB91" t="n">
         <v>175</v>
       </c>
       <c r="BC91" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD91" t="n">
         <v>500</v>
@@ -16913,16 +16921,16 @@
         <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N92" t="n">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="O92" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="P92" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="Q92" t="n">
         <v>2.32</v>
@@ -16937,10 +16945,10 @@
         <v>2.18</v>
       </c>
       <c r="U92" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="V92" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="W92" t="n">
         <v>5.3</v>
@@ -17607,10 +17615,10 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S96" t="n">
         <v>1.36</v>
@@ -18997,22 +19005,22 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="H104" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="I104" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="K104" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L104" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="M104" t="n">
         <v>1.07</v>
@@ -19039,73 +19047,73 @@
         <v>2.32</v>
       </c>
       <c r="U104" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="V104" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="W104" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X104" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="Y104" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z104" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA104" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB104" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AC104" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD104" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AF104" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AG104" t="n">
         <v>101</v>
       </c>
       <c r="AH104" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI104" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AJ104" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AK104" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AL104" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AM104" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AN104" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AO104" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ104" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AR104" t="n">
         <v>90</v>
@@ -19117,21 +19125,21 @@
         <v>2.27</v>
       </c>
       <c r="AU104" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AV104" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="inlineStr"/>
       <c r="AY104" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ104" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="BA104" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BB104" t="n">
         <v>500</v>
@@ -19194,7 +19202,7 @@
         <v>1.14</v>
       </c>
       <c r="N105" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="O105" t="n">
         <v>1.65</v>
@@ -19203,7 +19211,7 @@
         <v>1.98</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R105" t="n">
         <v>1.32</v>
@@ -19221,10 +19229,10 @@
         <v>1.21</v>
       </c>
       <c r="W105" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X105" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="Y105" t="n">
         <v>12.5</v>
@@ -19236,7 +19244,7 @@
         <v>22</v>
       </c>
       <c r="AB105" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AC105" t="n">
         <v>4.55</v>
@@ -19266,16 +19274,16 @@
         <v>600</v>
       </c>
       <c r="AL105" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AM105" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN105" t="n">
         <v>2.72</v>
       </c>
       <c r="AO105" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AP105" t="n">
         <v>35</v>
@@ -19517,22 +19525,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H107" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I107" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J107" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K107" t="n">
         <v>2.12</v>
       </c>
       <c r="L107" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M107" t="n">
         <v>1.01</v>
@@ -19544,7 +19552,7 @@
         <v>1.22</v>
       </c>
       <c r="P107" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="Q107" t="n">
         <v>1.78</v>
@@ -19559,28 +19567,28 @@
         <v>2.9</v>
       </c>
       <c r="U107" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V107" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="W107" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X107" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z107" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA107" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC107" t="n">
         <v>10.75</v>
@@ -19598,34 +19606,34 @@
         <v>250</v>
       </c>
       <c r="AH107" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI107" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK107" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL107" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO107" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP107" t="n">
         <v>23</v>
       </c>
       <c r="AQ107" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR107" t="n">
         <v>110</v>
@@ -19634,7 +19642,7 @@
         <v>300</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU107" t="n">
         <v>7</v>
@@ -19645,10 +19653,10 @@
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AZ107" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="BA107" t="n">
         <v>19</v>
@@ -19657,7 +19665,7 @@
         <v>40</v>
       </c>
       <c r="BC107" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD107" t="n">
         <v>250</v>
@@ -22361,46 +22369,46 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H123" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J123" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K123" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L123" t="n">
         <v>5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O123" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P123" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R123" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S123" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T123" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U123" t="n">
         <v>1.67</v>
@@ -22421,13 +22429,13 @@
         <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB123" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD123" t="n">
         <v>7.5</v>
@@ -22442,13 +22450,13 @@
         <v>151</v>
       </c>
       <c r="AH123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK123" t="n">
         <v>51</v>
@@ -22463,13 +22471,13 @@
         <v>3.75</v>
       </c>
       <c r="AO123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP123" t="n">
         <v>17</v>
       </c>
       <c r="AQ123" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR123" t="n">
         <v>41</v>
@@ -22478,7 +22486,7 @@
         <v>101</v>
       </c>
       <c r="AT123" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU123" t="n">
         <v>8</v>
@@ -22493,10 +22501,10 @@
         <v>81</v>
       </c>
       <c r="AY123" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ123" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA123" t="n">
         <v>29</v>
@@ -22508,7 +22516,7 @@
         <v>101</v>
       </c>
       <c r="BD123" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
@@ -22546,7 +22554,7 @@
         <v>1.75</v>
       </c>
       <c r="H124" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="n">
         <v>4.75</v>
@@ -22585,10 +22593,10 @@
         <v>2.75</v>
       </c>
       <c r="U124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V124" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W124" t="n">
         <v>7</v>
@@ -22663,7 +22671,7 @@
         <v>2.75</v>
       </c>
       <c r="AU124" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV124" t="n">
         <v>51</v>
@@ -22690,7 +22698,7 @@
         <v>101</v>
       </c>
       <c r="BD124" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125">
@@ -22728,49 +22736,49 @@
         <v>1.8</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I125" t="n">
         <v>4.33</v>
       </c>
       <c r="J125" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K125" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L125" t="n">
         <v>5</v>
       </c>
       <c r="M125" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P125" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R125" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V125" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T125" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U125" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V125" t="n">
-        <v>1.53</v>
       </c>
       <c r="W125" t="n">
         <v>5.5</v>
@@ -22779,7 +22787,7 @@
         <v>7.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z125" t="n">
         <v>15</v>
@@ -22791,7 +22799,7 @@
         <v>41</v>
       </c>
       <c r="AC125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD125" t="n">
         <v>6.5</v>
@@ -22806,7 +22814,7 @@
         <v>900</v>
       </c>
       <c r="AH125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI125" t="n">
         <v>21</v>
@@ -22827,25 +22835,25 @@
         <v>3.6</v>
       </c>
       <c r="AO125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP125" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ125" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR125" t="n">
         <v>67</v>
       </c>
       <c r="AS125" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV125" t="n">
         <v>81</v>
@@ -22927,16 +22935,16 @@
         <v>8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P126" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R126" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S126" t="n">
         <v>1.44</v>
@@ -23261,22 +23269,22 @@
         </is>
       </c>
       <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K128" t="n">
         <v>2.27</v>
       </c>
-      <c r="H128" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.18</v>
-      </c>
       <c r="L128" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M128" t="n">
         <v>1.04</v>
@@ -23285,16 +23293,16 @@
         <v>9.949999999999999</v>
       </c>
       <c r="O128" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P128" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R128" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S128" t="n">
         <v>1.31</v>
@@ -23303,105 +23311,105 @@
         <v>3.15</v>
       </c>
       <c r="U128" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="V128" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="W128" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X128" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC128" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y128" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z128" t="n">
+      <c r="AD128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL128" t="n">
         <v>25</v>
       </c>
-      <c r="AA128" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>22</v>
-      </c>
       <c r="AM128" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN128" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO128" t="n">
-        <v>11.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP128" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ128" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AR128" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS128" t="n">
         <v>175</v>
       </c>
       <c r="AT128" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU128" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AV128" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW128" t="inlineStr"/>
       <c r="AX128" t="inlineStr"/>
       <c r="AY128" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AZ128" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BA128" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB128" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BC128" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BD128" t="n">
         <v>200</v>
@@ -24325,13 +24333,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>3</v>
       </c>
       <c r="I134" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J134" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -789,7 +789,7 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V2" t="n">
         <v>2.25</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,7 +971,7 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -2039,10 +2039,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.22</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
         <v>5.5</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1.73</v>
@@ -2400,13 +2400,13 @@
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2427,19 +2427,19 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>7.5</v>
@@ -2454,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>26</v>
@@ -2466,34 +2466,34 @@
         <v>501</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="n">
         <v>3.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2505,10 +2505,10 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
         <v>126</v>
@@ -2517,22 +2517,22 @@
         <v>151</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12">
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
@@ -2761,16 +2761,16 @@
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2812,13 +2812,13 @@
         <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2830,10 +2830,10 @@
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>29</v>
@@ -3129,10 +3129,10 @@
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
         <v>2.7</v>
@@ -3865,10 +3865,10 @@
         <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U19" t="n">
         <v>2.5</v>
@@ -3886,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA19" t="n">
         <v>12</v>
@@ -3917,7 +3917,7 @@
         <v>41</v>
       </c>
       <c r="AK19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL19" t="n">
         <v>126</v>
@@ -3932,7 +3932,7 @@
         <v>4.75</v>
       </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ19" t="n">
         <v>11</v>
@@ -3944,10 +3944,10 @@
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV19" t="n">
         <v>81</v>
@@ -4009,22 +4009,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="n">
         <v>2.85</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L20" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
@@ -4036,19 +4036,19 @@
         <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="U20" t="n">
         <v>2.15</v>
@@ -4057,16 +4057,16 @@
         <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="n">
         <v>37</v>
@@ -4090,16 +4090,16 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -4108,28 +4108,28 @@
         <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS20" t="n">
         <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
@@ -4141,22 +4141,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AZ20" t="n">
         <v>15.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -5639,19 +5639,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>2.18</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L29" t="n">
         <v>2.72</v>
@@ -5660,19 +5660,19 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>8.949999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O29" t="n">
         <v>1.21</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S29" t="n">
         <v>1.39</v>
@@ -5681,13 +5681,13 @@
         <v>2.57</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V29" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W29" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X29" t="n">
         <v>17.5</v>
@@ -5696,7 +5696,7 @@
         <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="n">
         <v>23</v>
@@ -5705,31 +5705,31 @@
         <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE29" t="n">
         <v>11.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="n">
         <v>250</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ29" t="n">
         <v>8.75</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5744,19 +5744,19 @@
         <v>15.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS29" t="n">
         <v>200</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU29" t="n">
         <v>6.4</v>
@@ -5771,19 +5771,19 @@
         <v>51</v>
       </c>
       <c r="AY29" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AZ29" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="BA29" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB29" t="n">
         <v>40</v>
       </c>
       <c r="BC29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BD29" t="n">
         <v>175</v>
@@ -5821,22 +5821,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="K30" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -5845,55 +5845,55 @@
         <v>6.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.75</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Y30" t="n">
         <v>8.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
         <v>27</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE30" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF30" t="n">
         <v>65</v>
@@ -5908,7 +5908,7 @@
         <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>60</v>
@@ -5917,19 +5917,19 @@
         <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP30" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR30" t="n">
         <v>70</v>
@@ -5938,10 +5938,10 @@
         <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV30" t="n">
         <v>65</v>
@@ -5953,13 +5953,13 @@
         <v>51</v>
       </c>
       <c r="AY30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AZ30" t="n">
         <v>21</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB30" t="n">
         <v>110</v>
@@ -6003,130 +6003,130 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.75</v>
       </c>
-      <c r="R31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.82</v>
-      </c>
       <c r="W31" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X31" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
         <v>12.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AG31" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH31" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI31" t="n">
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS31" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
@@ -6135,28 +6135,28 @@
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB31" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC31" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD31" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OWr1yHcJ</t>
+          <t>fiipuabf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6176,165 +6176,165 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Al Riffa</t>
+          <t>Dhofar</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Ahli Sana’a</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>4.55</v>
       </c>
       <c r="J32" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>7.13</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.97</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="T32" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="U32" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="V32" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="W32" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Z32" t="n">
-        <v>14</v>
+        <v>10.25</v>
       </c>
       <c r="AA32" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO32" t="n">
         <v>8</v>
       </c>
-      <c r="AI32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL32" t="n">
+      <c r="AP32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>27</v>
       </c>
-      <c r="AM32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>37</v>
-      </c>
       <c r="AR32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="AU32" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW32" t="inlineStr"/>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="AZ32" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BA32" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BB32" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BC32" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD32" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>fiipuabf</t>
+          <t>OWr1yHcJ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6354,159 +6354,159 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dhofar</t>
+          <t>Al Riffa</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Al Ahli Sana’a</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.55</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="K33" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="T33" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="U33" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="W33" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X33" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="Z33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>10.25</v>
       </c>
-      <c r="AA33" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AK33" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AL33" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AM33" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AO33" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AP33" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AR33" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS33" t="n">
         <v>250</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="AU33" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
       <c r="AY33" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA33" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BB33" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC33" t="n">
         <v>150</v>
       </c>
-      <c r="BC33" t="n">
-        <v>175</v>
-      </c>
       <c r="BD33" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34">
@@ -6715,16 +6715,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
@@ -6733,10 +6733,10 @@
         <v>2.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O35" t="n">
         <v>1.14</v>
@@ -6763,7 +6763,7 @@
         <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X35" t="n">
         <v>21</v>
@@ -6799,7 +6799,7 @@
         <v>11</v>
       </c>
       <c r="AI35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ35" t="n">
         <v>9</v>
@@ -6826,10 +6826,10 @@
         <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT35" t="n">
         <v>3.5</v>
@@ -6848,7 +6848,7 @@
         <v>4.33</v>
       </c>
       <c r="AZ35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BA35" t="n">
         <v>17</v>
@@ -6895,16 +6895,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K36" t="n">
         <v>2.38</v>
@@ -6979,16 +6979,16 @@
         <v>17</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK36" t="n">
         <v>51</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="n">
         <v>41</v>
@@ -7103,10 +7103,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7269,10 +7269,10 @@
         <v>4.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -7281,10 +7281,10 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7436,19 +7436,19 @@
         <v>2.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="J39" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L39" t="n">
         <v>2.95</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.9</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -7481,73 +7481,73 @@
         <v>2.85</v>
       </c>
       <c r="W39" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="X39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y39" t="n">
         <v>8.25</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC39" t="n">
         <v>15.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN39" t="n">
         <v>4.9</v>
       </c>
       <c r="AO39" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS39" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT39" t="n">
         <v>3.4</v>
@@ -7563,22 +7563,22 @@
       </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AZ39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BD39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40">
@@ -7787,22 +7787,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
         <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.11</v>
@@ -7811,10 +7811,10 @@
         <v>6.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
         <v>2.7</v>
@@ -7823,65 +7823,65 @@
         <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
       </c>
       <c r="Z41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA41" t="n">
         <v>21</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>23</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD41" t="n">
         <v>5.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
         <v>8.5</v>
       </c>
       <c r="AI41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>13</v>
       </c>
       <c r="AK41" t="n">
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
         <v>4</v>
@@ -7893,22 +7893,22 @@
         <v>29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>81</v>
       </c>
       <c r="AS41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW41" t="n">
         <v>126</v>
@@ -7917,19 +7917,19 @@
         <v>126</v>
       </c>
       <c r="AY41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD41" t="n">
         <v>351</v>
@@ -8873,22 +8873,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8921,7 +8921,7 @@
         <v>1.73</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
         <v>6.5</v>
@@ -8930,7 +8930,7 @@
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>12</v>
@@ -8942,16 +8942,16 @@
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
         <v>67</v>
       </c>
       <c r="AG47" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH47" t="n">
         <v>19</v>
@@ -8963,7 +8963,7 @@
         <v>23</v>
       </c>
       <c r="AK47" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL47" t="n">
         <v>51</v>
@@ -8975,13 +8975,13 @@
         <v>3.25</v>
       </c>
       <c r="AO47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP47" t="n">
         <v>19</v>
       </c>
       <c r="AQ47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR47" t="n">
         <v>41</v>
@@ -9476,7 +9476,7 @@
         <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA50" t="n">
         <v>23</v>
@@ -9500,7 +9500,7 @@
         <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI50" t="n">
         <v>13</v>
@@ -11046,10 +11046,10 @@
         <v>1.8</v>
       </c>
       <c r="J59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K59" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="L59" t="n">
         <v>2.22</v>
@@ -11067,10 +11067,10 @@
         <v>5.15</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R59" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="S59" t="n">
         <v>1.21</v>
@@ -11082,16 +11082,16 @@
         <v>1.37</v>
       </c>
       <c r="V59" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="W59" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y59" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z59" t="n">
         <v>50</v>
@@ -11100,13 +11100,13 @@
         <v>25</v>
       </c>
       <c r="AB59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC59" t="n">
         <v>23</v>
       </c>
       <c r="AD59" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE59" t="n">
         <v>11.5</v>
@@ -11115,7 +11115,7 @@
         <v>30</v>
       </c>
       <c r="AG59" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AH59" t="n">
         <v>14</v>
@@ -11136,50 +11136,50 @@
         <v>16</v>
       </c>
       <c r="AN59" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AO59" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>65</v>
       </c>
       <c r="AR59" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS59" t="n">
         <v>120</v>
       </c>
       <c r="AT59" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="AU59" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AV59" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AW59" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AX59" t="inlineStr"/>
       <c r="AY59" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AZ59" t="n">
         <v>8.5</v>
       </c>
       <c r="BA59" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="BB59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC59" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BD59" t="n">
         <v>90</v>
@@ -11929,22 +11929,22 @@
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="n">
         <v>2.27</v>
       </c>
       <c r="L64" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M64" t="n">
         <v>1.02</v>
       </c>
       <c r="N64" t="n">
-        <v>13.4</v>
+        <v>15</v>
       </c>
       <c r="O64" t="n">
         <v>1.19</v>
@@ -11959,7 +11959,7 @@
         <v>2.22</v>
       </c>
       <c r="S64" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="T64" t="n">
         <v>3.54</v>
@@ -11968,28 +11968,28 @@
         <v>1.45</v>
       </c>
       <c r="V64" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="W64" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X64" t="n">
         <v>13.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
         <v>23</v>
       </c>
       <c r="AA64" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC64" t="n">
         <v>15</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>14.5</v>
       </c>
       <c r="AD64" t="n">
         <v>7.3</v>
@@ -12004,10 +12004,10 @@
         <v>200</v>
       </c>
       <c r="AH64" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ64" t="n">
         <v>10.5</v>
@@ -12016,10 +12016,10 @@
         <v>37</v>
       </c>
       <c r="AL64" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM64" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN64" t="n">
         <v>4.45</v>
@@ -12034,13 +12034,13 @@
         <v>37</v>
       </c>
       <c r="AR64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS64" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT64" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU64" t="n">
         <v>6.2</v>
@@ -12056,19 +12056,19 @@
         <v>5.2</v>
       </c>
       <c r="AZ64" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB64" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BC64" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BD64" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65">
@@ -12103,115 +12103,115 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H65" t="n">
         <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="J65" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K65" t="n">
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P65" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="T65" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U65" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V65" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="W65" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z65" t="n">
         <v>45</v>
       </c>
       <c r="AA65" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC65" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE65" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF65" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG65" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ65" t="n">
         <v>8.5</v>
       </c>
       <c r="AK65" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL65" t="n">
         <v>14</v>
       </c>
       <c r="AM65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN65" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO65" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ65" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR65" t="n">
         <v>100</v>
@@ -12220,27 +12220,27 @@
         <v>250</v>
       </c>
       <c r="AT65" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="inlineStr"/>
       <c r="AY65" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AZ65" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="BA65" t="n">
         <v>16</v>
       </c>
       <c r="BB65" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BC65" t="n">
         <v>55</v>
@@ -12281,22 +12281,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="I66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J66" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="K66" t="n">
         <v>2.47</v>
       </c>
       <c r="L66" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -12311,10 +12311,10 @@
         <v>3.65</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R66" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="S66" t="n">
         <v>1.27</v>
@@ -12326,34 +12326,34 @@
         <v>1.57</v>
       </c>
       <c r="V66" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W66" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="X66" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y66" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z66" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="n">
         <v>37</v>
       </c>
-      <c r="AB66" t="n">
-        <v>35</v>
-      </c>
       <c r="AC66" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD66" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE66" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF66" t="n">
         <v>50</v>
@@ -12365,31 +12365,31 @@
         <v>9.75</v>
       </c>
       <c r="AI66" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AJ66" t="n">
         <v>8.25</v>
       </c>
       <c r="AK66" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL66" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AM66" t="n">
         <v>19.5</v>
       </c>
       <c r="AN66" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR66" t="n">
         <v>120</v>
@@ -12398,27 +12398,27 @@
         <v>250</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU66" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV66" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="AZ66" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="BA66" t="n">
         <v>13.5</v>
       </c>
       <c r="BB66" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BC66" t="n">
         <v>37</v>
@@ -12495,10 +12495,10 @@
         <v>1.93</v>
       </c>
       <c r="S67" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T67" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="U67" t="n">
         <v>1.6</v>
@@ -13171,10 +13171,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H71" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I71" t="n">
         <v>9.25</v>
@@ -13183,22 +13183,22 @@
         <v>1.6</v>
       </c>
       <c r="K71" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L71" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M71" t="n">
         <v>1.01</v>
       </c>
       <c r="N71" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P71" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q71" t="n">
         <v>1.6</v>
@@ -13207,55 +13207,55 @@
         <v>2.07</v>
       </c>
       <c r="S71" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T71" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="U71" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="V71" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="W71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X71" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y71" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB71" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC71" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AD71" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH71" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI71" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="n">
         <v>24</v>
@@ -13267,34 +13267,34 @@
         <v>80</v>
       </c>
       <c r="AM71" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN71" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO71" t="n">
         <v>5.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ71" t="n">
         <v>11.75</v>
       </c>
       <c r="AR71" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS71" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="AU71" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV71" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW71" t="inlineStr"/>
       <c r="AX71" t="inlineStr"/>
@@ -13302,19 +13302,19 @@
         <v>10.5</v>
       </c>
       <c r="AZ71" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA71" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB71" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC71" t="n">
         <v>300</v>
       </c>
       <c r="BD71" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72">
@@ -13349,22 +13349,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H72" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="K72" t="n">
         <v>2.27</v>
       </c>
       <c r="L72" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="M72" t="n">
         <v>1.03</v>
@@ -13376,13 +13376,13 @@
         <v>1.14</v>
       </c>
       <c r="P72" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q72" t="n">
         <v>1.62</v>
       </c>
       <c r="R72" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S72" t="n">
         <v>1.37</v>
@@ -13391,19 +13391,19 @@
         <v>2.5</v>
       </c>
       <c r="U72" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V72" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W72" t="n">
         <v>6.2</v>
       </c>
       <c r="X72" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y72" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z72" t="n">
         <v>8</v>
@@ -13412,7 +13412,7 @@
         <v>9.25</v>
       </c>
       <c r="AB72" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC72" t="n">
         <v>12</v>
@@ -13421,28 +13421,28 @@
         <v>7.1</v>
       </c>
       <c r="AE72" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG72" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH72" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ72" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK72" t="n">
         <v>120</v>
       </c>
       <c r="AL72" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM72" t="n">
         <v>45</v>
@@ -13451,25 +13451,25 @@
         <v>3.25</v>
       </c>
       <c r="AO72" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ72" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AR72" t="n">
         <v>45</v>
       </c>
       <c r="AS72" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT72" t="n">
         <v>2.75</v>
       </c>
       <c r="AU72" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV72" t="n">
         <v>65</v>
@@ -13477,16 +13477,16 @@
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ72" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA72" t="n">
         <v>37</v>
       </c>
-      <c r="BA72" t="n">
-        <v>35</v>
-      </c>
       <c r="BB72" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC72" t="n">
         <v>250</v>
@@ -13705,22 +13705,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H74" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K74" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
@@ -13729,22 +13729,22 @@
         <v>7.75</v>
       </c>
       <c r="O74" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P74" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="U74" t="n">
         <v>1.98</v>
@@ -13753,7 +13753,7 @@
         <v>1.65</v>
       </c>
       <c r="W74" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X74" t="n">
         <v>7.1</v>
@@ -13765,22 +13765,22 @@
         <v>12.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB74" t="n">
         <v>32</v>
       </c>
       <c r="AC74" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE74" t="n">
         <v>18.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG74" t="n">
         <v>900</v>
@@ -13792,37 +13792,37 @@
         <v>29</v>
       </c>
       <c r="AJ74" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK74" t="n">
         <v>100</v>
       </c>
       <c r="AL74" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR74" t="n">
         <v>60</v>
       </c>
-      <c r="AM74" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO74" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP74" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>28</v>
-      </c>
-      <c r="AR74" t="n">
-        <v>65</v>
-      </c>
       <c r="AS74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU74" t="n">
         <v>7.8</v>
@@ -13833,10 +13833,10 @@
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AZ74" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA74" t="n">
         <v>37</v>
@@ -13883,40 +13883,40 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H75" t="n">
         <v>3.15</v>
       </c>
       <c r="I75" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="n">
         <v>2.47</v>
       </c>
       <c r="K75" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L75" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
       </c>
       <c r="N75" t="n">
-        <v>8.4</v>
+        <v>8.25</v>
       </c>
       <c r="O75" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="n">
         <v>1.42</v>
@@ -13925,43 +13925,43 @@
         <v>2.45</v>
       </c>
       <c r="U75" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="V75" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="W75" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X75" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y75" t="n">
         <v>8.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA75" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB75" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC75" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE75" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AG75" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH75" t="n">
         <v>10.5</v>
@@ -13976,34 +13976,34 @@
         <v>65</v>
       </c>
       <c r="AL75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM75" t="n">
         <v>45</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AO75" t="n">
         <v>9.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ75" t="n">
         <v>35</v>
       </c>
       <c r="AR75" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS75" t="n">
         <v>200</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV75" t="n">
         <v>55</v>
@@ -14017,7 +14017,7 @@
         <v>22</v>
       </c>
       <c r="BA75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB75" t="n">
         <v>120</v>
@@ -15130,19 +15130,19 @@
         <v>1.7</v>
       </c>
       <c r="H82" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I82" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="J82" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K82" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L82" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M82" t="n">
         <v>1.04</v>
@@ -15151,16 +15151,16 @@
         <v>8.300000000000001</v>
       </c>
       <c r="O82" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P82" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R82" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15169,49 +15169,49 @@
         <v>2.52</v>
       </c>
       <c r="U82" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V82" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W82" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X82" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z82" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA82" t="n">
         <v>14</v>
       </c>
       <c r="AB82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF82" t="n">
         <v>90</v>
       </c>
       <c r="AG82" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH82" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AI82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ82" t="n">
         <v>16</v>
@@ -15223,19 +15223,19 @@
         <v>55</v>
       </c>
       <c r="AM82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN82" t="n">
         <v>3.45</v>
       </c>
       <c r="AO82" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP82" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR82" t="n">
         <v>60</v>
@@ -15244,33 +15244,33 @@
         <v>250</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV82" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
       <c r="AY82" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA82" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB82" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC82" t="n">
         <v>200</v>
       </c>
-      <c r="BC82" t="n">
-        <v>250</v>
-      </c>
       <c r="BD82" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83">
@@ -17585,13 +17585,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J96" t="n">
         <v>2.88</v>
@@ -17600,7 +17600,7 @@
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -17615,10 +17615,10 @@
         <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R96" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
         <v>1.36</v>
@@ -17633,13 +17633,13 @@
         <v>2.2</v>
       </c>
       <c r="W96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X96" t="n">
         <v>12</v>
       </c>
       <c r="Y96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z96" t="n">
         <v>21</v>
@@ -17654,7 +17654,7 @@
         <v>11</v>
       </c>
       <c r="AD96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE96" t="n">
         <v>12</v>
@@ -17785,10 +17785,10 @@
         <v>3</v>
       </c>
       <c r="M97" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="O97" t="n">
         <v>1.37</v>
@@ -18319,10 +18319,10 @@
         <v>6.8</v>
       </c>
       <c r="M100" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N100" t="n">
-        <v>5.45</v>
+        <v>6</v>
       </c>
       <c r="O100" t="n">
         <v>1.5</v>
@@ -18495,10 +18495,10 @@
         <v>7.4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>6.85</v>
+        <v>6</v>
       </c>
       <c r="O101" t="n">
         <v>1.39</v>
@@ -18653,147 +18653,147 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H102" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="I102" t="n">
-        <v>4.8</v>
+        <v>5.9</v>
       </c>
       <c r="J102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L102" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q102" t="n">
         <v>2.62</v>
       </c>
-      <c r="K102" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N102" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P102" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>2.72</v>
-      </c>
       <c r="R102" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="S102" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="T102" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="U102" t="n">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="V102" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W102" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X102" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="Y102" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z102" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA102" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AB102" t="n">
         <v>55</v>
       </c>
       <c r="AC102" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AD102" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AE102" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF102" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AG102" t="n">
         <v>101</v>
       </c>
       <c r="AH102" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU102" t="n">
         <v>9</v>
       </c>
-      <c r="AI102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO102" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP102" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ102" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR102" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS102" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT102" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU102" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV102" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AW102" t="inlineStr"/>
       <c r="AX102" t="inlineStr"/>
       <c r="AY102" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="AZ102" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="BA102" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB102" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="BC102" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BD102" t="inlineStr"/>
     </row>
@@ -18847,10 +18847,10 @@
         <v>7.2</v>
       </c>
       <c r="M103" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N103" t="n">
-        <v>6.35</v>
+        <v>6</v>
       </c>
       <c r="O103" t="n">
         <v>1.47</v>
@@ -19023,10 +19023,10 @@
         <v>12</v>
       </c>
       <c r="M104" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N104" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="O104" t="n">
         <v>1.45</v>
@@ -19525,22 +19525,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
         <v>2.65</v>
       </c>
       <c r="I107" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J107" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K107" t="n">
         <v>1.95</v>
       </c>
       <c r="L107" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M107" t="n">
         <v>1.03</v>
@@ -19576,19 +19576,19 @@
         <v>8.25</v>
       </c>
       <c r="X107" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y107" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z107" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA107" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB107" t="n">
         <v>24</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>25</v>
       </c>
       <c r="AC107" t="n">
         <v>7.7</v>
@@ -19597,7 +19597,7 @@
         <v>4.65</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF107" t="n">
         <v>37</v>
@@ -19606,28 +19606,28 @@
         <v>250</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI107" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AK107" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL107" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AM107" t="n">
         <v>20</v>
       </c>
       <c r="AN107" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO107" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP107" t="n">
         <v>21</v>
@@ -19642,7 +19642,7 @@
         <v>200</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AU107" t="n">
         <v>5.8</v>
@@ -19653,19 +19653,19 @@
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AZ107" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BB107" t="n">
         <v>50</v>
       </c>
       <c r="BC107" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BD107" t="n">
         <v>175</v>
@@ -20789,10 +20789,10 @@
         <v>3.65</v>
       </c>
       <c r="M114" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N114" t="n">
-        <v>6.55</v>
+        <v>6</v>
       </c>
       <c r="O114" t="n">
         <v>1.5</v>
@@ -20813,10 +20813,10 @@
         <v>2.12</v>
       </c>
       <c r="U114" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="V114" t="n">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="W114" t="n">
         <v>5.4</v>
@@ -22194,61 +22194,61 @@
         <v>2.02</v>
       </c>
       <c r="H122" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I122" t="n">
         <v>3.85</v>
       </c>
       <c r="J122" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="K122" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L122" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M122" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N122" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O122" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P122" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R122" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S122" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T122" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="U122" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V122" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W122" t="n">
         <v>5.4</v>
       </c>
       <c r="X122" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y122" t="n">
         <v>9.25</v>
       </c>
       <c r="Z122" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA122" t="n">
         <v>20</v>
@@ -22257,10 +22257,10 @@
         <v>45</v>
       </c>
       <c r="AC122" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD122" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE122" t="n">
         <v>20</v>
@@ -22272,7 +22272,7 @@
         <v>101</v>
       </c>
       <c r="AH122" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI122" t="n">
         <v>18</v>
@@ -22284,37 +22284,37 @@
         <v>60</v>
       </c>
       <c r="AL122" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM122" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN122" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO122" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP122" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ122" t="n">
         <v>45</v>
       </c>
       <c r="AR122" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS122" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="AU122" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV122" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW122" t="inlineStr"/>
       <c r="AX122" t="inlineStr"/>
@@ -22575,10 +22575,10 @@
         <v>4</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R124" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S124" t="n">
         <v>1.33</v>
@@ -22757,10 +22757,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R125" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S125" t="n">
         <v>1.4</v>
@@ -24367,10 +24367,10 @@
         <v>1.57</v>
       </c>
       <c r="S134" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T134" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U134" t="n">
         <v>2</v>
@@ -24509,13 +24509,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J135" t="n">
         <v>3.75</v>
@@ -24545,7 +24545,7 @@
         <v>1.6</v>
       </c>
       <c r="S135" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T135" t="n">
         <v>2.5</v>
@@ -24608,19 +24608,19 @@
         <v>34</v>
       </c>
       <c r="AN135" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP135" t="n">
         <v>29</v>
       </c>
       <c r="AQ135" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR135" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS135" t="n">
         <v>251</v>
@@ -24727,10 +24727,10 @@
         <v>1.7</v>
       </c>
       <c r="S136" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T136" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U136" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,7 +789,7 @@
         <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
         <v>2.25</v>
@@ -798,7 +798,7 @@
         <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>13</v>
@@ -849,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,7 +971,7 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1252,7 +1252,7 @@
         <v>29</v>
       </c>
       <c r="BB4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>2.2</v>
@@ -1699,19 +1699,19 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
@@ -1732,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,22 +1741,22 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1792,7 +1792,7 @@
         <v>3.75</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
@@ -1804,7 +1804,7 @@
         <v>41</v>
       </c>
       <c r="BD7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -2030,13 +2030,13 @@
         <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,10 +2063,10 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2221,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K11" t="n">
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
@@ -2436,7 +2436,7 @@
         <v>6.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2454,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>26</v>
@@ -2466,34 +2466,34 @@
         <v>501</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>3.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2505,10 +2505,10 @@
         <v>3.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
         <v>126</v>
@@ -2517,22 +2517,22 @@
         <v>151</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12">
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.3</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.83</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N13" t="n">
-        <v>9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2815,13 +2815,13 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
@@ -2881,10 +2881,10 @@
         <v>51</v>
       </c>
       <c r="AY13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2931,125 +2931,125 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.57</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.53</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.5</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
       </c>
       <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL14" t="n">
         <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>67</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
         <v>81</v>
@@ -3057,19 +3057,19 @@
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -3105,46 +3105,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -3156,22 +3156,22 @@
         <v>6</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD15" t="n">
         <v>5.5</v>
@@ -3180,16 +3180,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>500</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>15</v>
@@ -3207,22 +3207,22 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
         <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3237,10 +3237,10 @@
         <v>51</v>
       </c>
       <c r="AY15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>41</v>
@@ -3287,28 +3287,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3335,22 +3335,22 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
         <v>11</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
         <v>23</v>
       </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
@@ -3359,7 +3359,7 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
@@ -3368,40 +3368,40 @@
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
@@ -3419,10 +3419,10 @@
         <v>51</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3431,7 +3431,7 @@
         <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD16" t="n">
         <v>201</v>
@@ -3505,22 +3505,22 @@
         <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3535,7 +3535,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
@@ -3544,7 +3544,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
@@ -3569,10 +3569,10 @@
         <v>2.88</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
@@ -3581,13 +3581,13 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>101</v>
@@ -3667,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.18</v>
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H20" t="n">
         <v>2.85</v>
       </c>
       <c r="I20" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>1.87</v>
@@ -4036,19 +4036,19 @@
         <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
         <v>2.15</v>
@@ -4057,10 +4057,10 @@
         <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
         <v>12.5</v>
@@ -4069,10 +4069,10 @@
         <v>45</v>
       </c>
       <c r="AA20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC20" t="n">
         <v>5.7</v>
@@ -4090,43 +4090,43 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>11.25</v>
       </c>
       <c r="AK20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AP20" t="n">
         <v>32</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>30</v>
       </c>
       <c r="AQ20" t="n">
         <v>100</v>
       </c>
       <c r="AR20" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS20" t="n">
         <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU20" t="n">
         <v>7.8</v>
@@ -4141,22 +4141,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21">
@@ -5639,40 +5639,40 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L29" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>9.949999999999999</v>
+        <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S29" t="n">
         <v>1.39</v>
@@ -5681,37 +5681,37 @@
         <v>2.57</v>
       </c>
       <c r="U29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V29" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="W29" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="X29" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC29" t="n">
         <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF29" t="n">
         <v>40</v>
@@ -5723,46 +5723,46 @@
         <v>9.75</v>
       </c>
       <c r="AI29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP29" t="n">
         <v>23</v>
       </c>
-      <c r="AL29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AR29" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AS29" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT29" t="n">
         <v>2.8</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AV29" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW29" t="n">
         <v>51</v>
@@ -5771,22 +5771,22 @@
         <v>51</v>
       </c>
       <c r="AY29" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="AZ29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="BA29" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="BB29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BC29" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BD29" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30">
@@ -5821,28 +5821,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="J30" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -5851,25 +5851,25 @@
         <v>3.05</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R30" t="n">
         <v>1.78</v>
       </c>
       <c r="S30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T30" t="n">
         <v>2.57</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X30" t="n">
         <v>8.75</v>
@@ -5881,10 +5881,10 @@
         <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AC30" t="n">
         <v>10</v>
@@ -5896,49 +5896,49 @@
         <v>14.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG30" t="n">
         <v>500</v>
       </c>
       <c r="AH30" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK30" t="n">
         <v>60</v>
       </c>
       <c r="AL30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AO30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR30" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS30" t="n">
         <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU30" t="n">
         <v>7.2</v>
@@ -5953,22 +5953,22 @@
         <v>51</v>
       </c>
       <c r="AY30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AZ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC30" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BD30" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31">
@@ -6003,55 +6003,55 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>5.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
         <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P31" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.78</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.82</v>
       </c>
       <c r="S31" t="n">
         <v>1.38</v>
       </c>
       <c r="T31" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="U31" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V31" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W31" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X31" t="n">
         <v>7</v>
@@ -6063,16 +6063,16 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
         <v>18</v>
@@ -6105,7 +6105,7 @@
         <v>3.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP31" t="n">
         <v>18</v>
@@ -6120,7 +6120,7 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6895,22 +6895,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>1.04</v>
@@ -6919,22 +6919,22 @@
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
@@ -6946,16 +6946,16 @@
         <v>8.5</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB36" t="n">
         <v>21</v>
@@ -6976,7 +6976,7 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
         <v>29</v>
@@ -6997,13 +6997,13 @@
         <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP36" t="n">
         <v>17</v>
       </c>
       <c r="AQ36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR36" t="n">
         <v>41</v>
@@ -7012,7 +7012,7 @@
         <v>101</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
         <v>8</v>
@@ -7023,10 +7023,10 @@
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
         <v>29</v>
@@ -7035,7 +7035,7 @@
         <v>81</v>
       </c>
       <c r="BC36" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7073,16 +7073,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7103,10 +7103,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7124,19 +7124,19 @@
         <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
       </c>
       <c r="Z37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" t="n">
         <v>17</v>
       </c>
-      <c r="AA37" t="n">
-        <v>15</v>
-      </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -7154,25 +7154,25 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI37" t="n">
         <v>19</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO37" t="n">
         <v>11</v>
@@ -7181,13 +7181,13 @@
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
         <v>3</v>
@@ -7210,7 +7210,7 @@
         <v>26</v>
       </c>
       <c r="BB37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
@@ -7433,40 +7433,40 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.47</v>
+        <v>2.82</v>
       </c>
       <c r="J39" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R39" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="S39" t="n">
         <v>1.22</v>
@@ -7475,76 +7475,76 @@
         <v>3.8</v>
       </c>
       <c r="U39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V39" t="n">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="W39" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
         <v>6.4</v>
       </c>
       <c r="AE39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
         <v>110</v>
       </c>
       <c r="AH39" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM39" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="AO39" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AP39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS39" t="n">
         <v>120</v>
@@ -7553,29 +7553,29 @@
         <v>3.4</v>
       </c>
       <c r="AU39" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AV39" t="n">
         <v>35</v>
       </c>
       <c r="AW39" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AZ39" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BA39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BC39" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BD39" t="n">
         <v>150</v>
@@ -8327,28 +8327,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
         <v>1.95</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
         <v>1.44</v>
@@ -8369,22 +8369,22 @@
         <v>2.38</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8402,40 +8402,40 @@
         <v>17</v>
       </c>
       <c r="AF44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG44" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="n">
         <v>34</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>29</v>
       </c>
       <c r="AM44" t="n">
         <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
         <v>26</v>
       </c>
       <c r="AQ44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
         <v>81</v>
@@ -8447,7 +8447,7 @@
         <v>2.38</v>
       </c>
       <c r="AU44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV44" t="n">
         <v>67</v>
@@ -8459,22 +8459,22 @@
         <v>81</v>
       </c>
       <c r="AY44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB44" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD44" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45">
@@ -8873,22 +8873,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I47" t="n">
         <v>8.5</v>
       </c>
       <c r="J47" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
       </c>
       <c r="L47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
@@ -8903,10 +8903,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -8921,7 +8921,7 @@
         <v>1.73</v>
       </c>
       <c r="W47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X47" t="n">
         <v>6.5</v>
@@ -8975,13 +8975,13 @@
         <v>3.25</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP47" t="n">
         <v>19</v>
       </c>
       <c r="AQ47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR47" t="n">
         <v>41</v>
@@ -9482,7 +9482,7 @@
         <v>23</v>
       </c>
       <c r="AB50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
@@ -9491,7 +9491,7 @@
         <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
         <v>67</v>
@@ -9500,7 +9500,7 @@
         <v>451</v>
       </c>
       <c r="AH50" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI50" t="n">
         <v>13</v>
@@ -12281,19 +12281,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="H66" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I66" t="n">
         <v>1.53</v>
       </c>
       <c r="J66" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K66" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="L66" t="n">
         <v>1.98</v>
@@ -12311,25 +12311,25 @@
         <v>3.65</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R66" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="S66" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T66" t="n">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="U66" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V66" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W66" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="X66" t="n">
         <v>32</v>
@@ -12344,40 +12344,40 @@
         <v>40</v>
       </c>
       <c r="AB66" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC66" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD66" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE66" t="n">
         <v>14.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG66" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH66" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI66" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ66" t="n">
         <v>8.25</v>
       </c>
       <c r="AK66" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AL66" t="n">
         <v>11</v>
       </c>
       <c r="AM66" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN66" t="n">
         <v>6.8</v>
@@ -12386,7 +12386,7 @@
         <v>24</v>
       </c>
       <c r="AP66" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ66" t="n">
         <v>120</v>
@@ -12398,33 +12398,33 @@
         <v>250</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV66" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AZ66" t="n">
         <v>7</v>
       </c>
       <c r="BA66" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BB66" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BC66" t="n">
         <v>37</v>
       </c>
       <c r="BD66" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
@@ -12459,22 +12459,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.72</v>
+        <v>2.95</v>
       </c>
       <c r="H67" t="n">
         <v>3.55</v>
       </c>
       <c r="I67" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L67" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -12483,7 +12483,7 @@
         <v>11.4</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P67" t="n">
         <v>3.4</v>
@@ -12507,22 +12507,22 @@
         <v>2.07</v>
       </c>
       <c r="W67" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X67" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y67" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB67" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC67" t="n">
         <v>12.5</v>
@@ -12540,34 +12540,34 @@
         <v>350</v>
       </c>
       <c r="AH67" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI67" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ67" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK67" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL67" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM67" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AO67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ67" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR67" t="n">
         <v>90</v>
@@ -12587,19 +12587,19 @@
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="AZ67" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="BA67" t="n">
         <v>18</v>
       </c>
       <c r="BB67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC67" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD67" t="n">
         <v>200</v>
@@ -13177,16 +13177,16 @@
         <v>5.4</v>
       </c>
       <c r="I71" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J71" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K71" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L71" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.01</v>
@@ -13198,7 +13198,7 @@
         <v>1.08</v>
       </c>
       <c r="P71" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="Q71" t="n">
         <v>1.6</v>
@@ -13207,34 +13207,34 @@
         <v>2.07</v>
       </c>
       <c r="S71" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="T71" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="U71" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="V71" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="W71" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X71" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y71" t="n">
         <v>7.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC71" t="n">
         <v>20</v>
@@ -13246,7 +13246,7 @@
         <v>16.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG71" t="n">
         <v>250</v>
@@ -13255,10 +13255,10 @@
         <v>29</v>
       </c>
       <c r="AI71" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ71" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK71" t="n">
         <v>200</v>
@@ -13279,16 +13279,16 @@
         <v>12.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS71" t="n">
         <v>120</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU71" t="n">
         <v>8</v>
@@ -13299,7 +13299,7 @@
       <c r="AW71" t="inlineStr"/>
       <c r="AX71" t="inlineStr"/>
       <c r="AY71" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AZ71" t="n">
         <v>50</v>
@@ -13311,7 +13311,7 @@
         <v>350</v>
       </c>
       <c r="BC71" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD71" t="n">
         <v>400</v>
@@ -13349,40 +13349,40 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="H72" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="J72" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="K72" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="M72" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P72" t="n">
-        <v>4.2</v>
+        <v>4.29</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R72" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>1.37</v>
@@ -13391,73 +13391,73 @@
         <v>2.5</v>
       </c>
       <c r="U72" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="V72" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="W72" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X72" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="Y72" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z72" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AA72" t="n">
         <v>9.25</v>
       </c>
       <c r="AB72" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG72" t="n">
         <v>300</v>
       </c>
       <c r="AH72" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ72" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL72" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM72" t="n">
         <v>45</v>
       </c>
       <c r="AN72" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO72" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AP72" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR72" t="n">
         <v>45</v>
@@ -13466,27 +13466,27 @@
         <v>175</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU72" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV72" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AZ72" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA72" t="n">
         <v>37</v>
       </c>
       <c r="BB72" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC72" t="n">
         <v>250</v>
@@ -13705,28 +13705,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L74" t="n">
         <v>5.2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5.4</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.35</v>
@@ -13735,37 +13735,37 @@
         <v>2.72</v>
       </c>
       <c r="Q74" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R74" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S74" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T74" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U74" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V74" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W74" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X74" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA74" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB74" t="n">
         <v>32</v>
@@ -13774,13 +13774,13 @@
         <v>8.25</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE74" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF74" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG74" t="n">
         <v>900</v>
@@ -13789,57 +13789,57 @@
         <v>11.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ74" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK74" t="n">
         <v>100</v>
       </c>
       <c r="AL74" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM74" t="n">
         <v>65</v>
       </c>
-      <c r="AM74" t="n">
-        <v>70</v>
-      </c>
       <c r="AN74" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO74" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV74" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA74" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB74" t="n">
         <v>200</v>
@@ -14421,34 +14421,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="H78" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I78" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="K78" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="L78" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>6.95</v>
+        <v>6.5</v>
       </c>
       <c r="O78" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="P78" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="Q78" t="n">
         <v>2.27</v>
@@ -14457,109 +14457,109 @@
         <v>1.5</v>
       </c>
       <c r="S78" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="T78" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U78" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="V78" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W78" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X78" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z78" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AA78" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AB78" t="n">
         <v>35</v>
       </c>
       <c r="AC78" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AD78" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AE78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG78" t="inlineStr"/>
       <c r="AH78" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AI78" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP78" t="n">
         <v>24</v>
       </c>
-      <c r="AJ78" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ78" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AR78" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS78" t="n">
         <v>450</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AU78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV78" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
       <c r="AY78" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AZ78" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="BA78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB78" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC78" t="n">
         <v>300</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>400</v>
       </c>
       <c r="BD78" t="inlineStr"/>
     </row>
@@ -14794,7 +14794,7 @@
         <v>1.07</v>
       </c>
       <c r="N80" t="n">
-        <v>6.77</v>
+        <v>6.78</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -15127,40 +15127,40 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="K82" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M82" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="O82" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P82" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R82" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15169,16 +15169,16 @@
         <v>2.52</v>
       </c>
       <c r="U82" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V82" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W82" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X82" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y82" t="n">
         <v>8</v>
@@ -15187,22 +15187,22 @@
         <v>13</v>
       </c>
       <c r="AA82" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC82" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE82" t="n">
         <v>16.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG82" t="n">
         <v>700</v>
@@ -15223,28 +15223,28 @@
         <v>55</v>
       </c>
       <c r="AM82" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN82" t="n">
         <v>3.45</v>
       </c>
       <c r="AO82" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP82" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR82" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU82" t="n">
         <v>7.4</v>
@@ -15258,10 +15258,10 @@
         <v>6.5</v>
       </c>
       <c r="AZ82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA82" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB82" t="n">
         <v>175</v>
@@ -15305,22 +15305,22 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="H83" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="K83" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L83" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
@@ -15329,123 +15329,123 @@
         <v>6.8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P83" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Q83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T83" t="n">
         <v>2.27</v>
       </c>
-      <c r="R83" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T83" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U83" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="V83" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W83" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="X83" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y83" t="n">
         <v>8.75</v>
       </c>
       <c r="Z83" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA83" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB83" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC83" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AD83" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AE83" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG83" t="n">
         <v>101</v>
       </c>
       <c r="AH83" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AI83" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AJ83" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AK83" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL83" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM83" t="n">
         <v>65</v>
       </c>
-      <c r="AM83" t="n">
-        <v>80</v>
-      </c>
       <c r="AN83" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="AO83" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AP83" t="n">
         <v>22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AR83" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS83" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU83" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV83" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW83" t="inlineStr"/>
       <c r="AX83" t="inlineStr"/>
       <c r="AY83" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AZ83" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="BA83" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="BB83" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD83" t="n">
         <v>500</v>
@@ -15483,22 +15483,22 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="H84" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I84" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="J84" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
         <v>1.98</v>
       </c>
       <c r="L84" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -15510,7 +15510,7 @@
         <v>1.38</v>
       </c>
       <c r="P84" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q84" t="n">
         <v>2.1</v>
@@ -15519,37 +15519,37 @@
         <v>1.57</v>
       </c>
       <c r="S84" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T84" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="U84" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V84" t="n">
         <v>1.82</v>
       </c>
       <c r="W84" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="X84" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z84" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB84" t="n">
         <v>35</v>
       </c>
       <c r="AC84" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD84" t="n">
         <v>5.7</v>
@@ -15561,40 +15561,40 @@
         <v>75</v>
       </c>
       <c r="AG84" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH84" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK84" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL84" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM84" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN84" t="n">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="AO84" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP84" t="n">
         <v>22</v>
       </c>
       <c r="AQ84" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS84" t="n">
         <v>300</v>
@@ -15611,22 +15611,22 @@
       <c r="AW84" t="inlineStr"/>
       <c r="AX84" t="inlineStr"/>
       <c r="AY84" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="AZ84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA84" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC84" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BD84" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85">
@@ -17588,7 +17588,7 @@
         <v>2.3</v>
       </c>
       <c r="H96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I96" t="n">
         <v>3.2</v>
@@ -17603,19 +17603,19 @@
         <v>3.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P96" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R96" t="n">
         <v>2</v>
@@ -17651,10 +17651,10 @@
         <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE96" t="n">
         <v>12</v>
@@ -17672,7 +17672,7 @@
         <v>17</v>
       </c>
       <c r="AJ96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK96" t="n">
         <v>34</v>
@@ -17684,7 +17684,7 @@
         <v>29</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO96" t="n">
         <v>12</v>
@@ -19525,22 +19525,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H107" t="n">
         <v>2.65</v>
       </c>
       <c r="I107" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J107" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K107" t="n">
         <v>1.95</v>
       </c>
       <c r="L107" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="M107" t="n">
         <v>1.03</v>
@@ -19555,7 +19555,7 @@
         <v>2.97</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R107" t="n">
         <v>1.7</v>
@@ -19567,67 +19567,67 @@
         <v>2.35</v>
       </c>
       <c r="U107" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V107" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W107" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X107" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y107" t="n">
         <v>9</v>
       </c>
       <c r="Z107" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA107" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB107" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC107" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD107" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AE107" t="n">
         <v>9.25</v>
       </c>
       <c r="AF107" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG107" t="n">
         <v>250</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI107" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ107" t="n">
         <v>7.3</v>
       </c>
       <c r="AK107" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL107" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AM107" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN107" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO107" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP107" t="n">
         <v>21</v>
@@ -19642,7 +19642,7 @@
         <v>200</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU107" t="n">
         <v>5.8</v>
@@ -19653,19 +19653,19 @@
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AZ107" t="n">
         <v>12.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB107" t="n">
         <v>50</v>
       </c>
       <c r="BC107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD107" t="n">
         <v>175</v>
@@ -20973,10 +20973,10 @@
         <v>6.8</v>
       </c>
       <c r="O115" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="P115" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="Q115" t="n">
         <v>2.32</v>
@@ -20991,10 +20991,10 @@
         <v>2.2</v>
       </c>
       <c r="U115" t="n">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="V115" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="W115" t="n">
         <v>4.05</v>
@@ -21140,7 +21140,7 @@
         <v>2.02</v>
       </c>
       <c r="L116" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M116" t="n">
         <v>1.02</v>
@@ -21155,7 +21155,7 @@
         <v>2.78</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R116" t="n">
         <v>1.62</v>
@@ -21173,13 +21173,13 @@
         <v>1.93</v>
       </c>
       <c r="W116" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X116" t="n">
         <v>11.75</v>
       </c>
       <c r="Y116" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z116" t="n">
         <v>28</v>
@@ -21188,22 +21188,22 @@
         <v>21</v>
       </c>
       <c r="AB116" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC116" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD116" t="n">
         <v>5.1</v>
       </c>
       <c r="AE116" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF116" t="n">
         <v>50</v>
       </c>
       <c r="AG116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH116" t="n">
         <v>6.3</v>
@@ -21212,13 +21212,13 @@
         <v>9.5</v>
       </c>
       <c r="AJ116" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AK116" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL116" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM116" t="n">
         <v>24</v>
@@ -21233,7 +21233,7 @@
         <v>23</v>
       </c>
       <c r="AQ116" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR116" t="n">
         <v>110</v>
@@ -21259,7 +21259,7 @@
         <v>12.5</v>
       </c>
       <c r="BA116" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BB116" t="n">
         <v>50</v>
@@ -21327,10 +21327,10 @@
         <v>13</v>
       </c>
       <c r="O117" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P117" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q117" t="n">
         <v>1.6</v>
@@ -21339,16 +21339,16 @@
         <v>2.07</v>
       </c>
       <c r="S117" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T117" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="U117" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V117" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W117" t="n">
         <v>6.3</v>
@@ -21479,22 +21479,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I118" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="K118" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L118" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="M118" t="n">
         <v>1.03</v>
@@ -21506,120 +21506,120 @@
         <v>1.14</v>
       </c>
       <c r="P118" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R118" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S118" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T118" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="U118" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V118" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W118" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="X118" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y118" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z118" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA118" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB118" t="n">
         <v>16.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AD118" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AE118" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG118" t="n">
         <v>175</v>
       </c>
       <c r="AH118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI118" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ118" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AK118" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL118" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AM118" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN118" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="AO118" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP118" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AR118" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS118" t="n">
         <v>150</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU118" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AV118" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW118" t="inlineStr"/>
       <c r="AX118" t="inlineStr"/>
       <c r="AY118" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AZ118" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="BA118" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB118" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BC118" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BD118" t="n">
         <v>200</v>
@@ -22191,34 +22191,34 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H122" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I122" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="J122" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="K122" t="n">
         <v>1.93</v>
       </c>
       <c r="L122" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="M122" t="n">
         <v>1.12</v>
       </c>
       <c r="N122" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O122" t="n">
         <v>1.53</v>
       </c>
       <c r="P122" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q122" t="n">
         <v>2.55</v>
@@ -22233,37 +22233,37 @@
         <v>2.3</v>
       </c>
       <c r="U122" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V122" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W122" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X122" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y122" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z122" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AA122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB122" t="n">
         <v>45</v>
       </c>
       <c r="AC122" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD122" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE122" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF122" t="n">
         <v>150</v>
@@ -22272,57 +22272,57 @@
         <v>101</v>
       </c>
       <c r="AH122" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AI122" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ122" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK122" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL122" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ122" t="n">
         <v>50</v>
       </c>
-      <c r="AM122" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO122" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP122" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ122" t="n">
-        <v>45</v>
-      </c>
       <c r="AR122" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS122" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT122" t="n">
         <v>2.3</v>
       </c>
       <c r="AU122" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV122" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW122" t="inlineStr"/>
       <c r="AX122" t="inlineStr"/>
       <c r="AY122" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AZ122" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA122" t="n">
         <v>37</v>
@@ -22378,25 +22378,25 @@
         <v>6.2</v>
       </c>
       <c r="J123" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K123" t="n">
         <v>1.95</v>
       </c>
       <c r="L123" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M123" t="n">
         <v>1.12</v>
       </c>
       <c r="N123" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O123" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P123" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q123" t="n">
         <v>2.52</v>
@@ -22411,46 +22411,46 @@
         <v>2.32</v>
       </c>
       <c r="U123" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="V123" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W123" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="X123" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y123" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z123" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA123" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB123" t="n">
         <v>45</v>
       </c>
       <c r="AC123" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AD123" t="n">
         <v>6.7</v>
       </c>
       <c r="AE123" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF123" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AG123" t="n">
         <v>101</v>
       </c>
       <c r="AH123" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI123" t="n">
         <v>35</v>
@@ -22459,25 +22459,25 @@
         <v>22</v>
       </c>
       <c r="AK123" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL123" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM123" t="n">
         <v>110</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>120</v>
       </c>
       <c r="AN123" t="n">
         <v>3.2</v>
       </c>
       <c r="AO123" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP123" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ123" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR123" t="n">
         <v>80</v>
@@ -22489,7 +22489,7 @@
         <v>2.32</v>
       </c>
       <c r="AU123" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV123" t="n">
         <v>120</v>
@@ -22503,13 +22503,13 @@
         <v>45</v>
       </c>
       <c r="BA123" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB123" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC123" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD123" t="inlineStr"/>
     </row>
@@ -22730,7 +22730,7 @@
         <v>1.75</v>
       </c>
       <c r="H125" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I125" t="n">
         <v>4.75</v>
@@ -22742,13 +22742,13 @@
         <v>2.2</v>
       </c>
       <c r="L125" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M125" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O125" t="n">
         <v>1.29</v>
@@ -22757,10 +22757,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R125" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="S125" t="n">
         <v>1.4</v>
@@ -22769,22 +22769,22 @@
         <v>2.75</v>
       </c>
       <c r="U125" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V125" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W125" t="n">
         <v>7</v>
       </c>
       <c r="X125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y125" t="n">
         <v>8.5</v>
       </c>
       <c r="Z125" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA125" t="n">
         <v>15</v>
@@ -22793,10 +22793,10 @@
         <v>26</v>
       </c>
       <c r="AC125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE125" t="n">
         <v>15</v>
@@ -22847,7 +22847,7 @@
         <v>2.75</v>
       </c>
       <c r="AU125" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV125" t="n">
         <v>51</v>
@@ -22874,7 +22874,7 @@
         <v>101</v>
       </c>
       <c r="BD125" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="126">
@@ -23111,16 +23111,16 @@
         <v>8</v>
       </c>
       <c r="O127" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P127" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S127" t="n">
         <v>1.44</v>
@@ -23448,19 +23448,19 @@
         <v>2</v>
       </c>
       <c r="H129" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I129" t="n">
         <v>3.2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="K129" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L129" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M129" t="n">
         <v>1.04</v>
@@ -23478,7 +23478,7 @@
         <v>1.6</v>
       </c>
       <c r="R129" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S129" t="n">
         <v>1.31</v>
@@ -23493,7 +23493,7 @@
         <v>2.15</v>
       </c>
       <c r="W129" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X129" t="n">
         <v>11</v>
@@ -23502,19 +23502,19 @@
         <v>8.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA129" t="n">
         <v>14.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC129" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD129" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE129" t="n">
         <v>12.5</v>
@@ -23523,37 +23523,37 @@
         <v>45</v>
       </c>
       <c r="AG129" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH129" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ129" t="n">
         <v>11.25</v>
       </c>
       <c r="AK129" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL129" t="n">
         <v>25</v>
       </c>
       <c r="AM129" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN129" t="n">
         <v>4.1</v>
       </c>
       <c r="AO129" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP129" t="n">
         <v>16</v>
       </c>
       <c r="AQ129" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR129" t="n">
         <v>55</v>
@@ -23562,13 +23562,13 @@
         <v>175</v>
       </c>
       <c r="AT129" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU129" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AV129" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW129" t="inlineStr"/>
       <c r="AX129" t="inlineStr"/>
@@ -23579,10 +23579,10 @@
         <v>16.5</v>
       </c>
       <c r="BA129" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB129" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC129" t="n">
         <v>90</v>
@@ -24367,10 +24367,10 @@
         <v>1.57</v>
       </c>
       <c r="S134" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T134" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="U134" t="n">
         <v>2</v>
@@ -24509,7 +24509,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
@@ -24521,16 +24521,16 @@
         <v>3.75</v>
       </c>
       <c r="K135" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M135" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O135" t="n">
         <v>1.4</v>
@@ -24539,25 +24539,25 @@
         <v>2.75</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R135" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S135" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="T135" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U135" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V135" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X135" t="n">
         <v>15</v>
@@ -24575,13 +24575,13 @@
         <v>41</v>
       </c>
       <c r="AC135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD135" t="n">
         <v>6</v>
       </c>
       <c r="AE135" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF135" t="n">
         <v>51</v>
@@ -24611,22 +24611,22 @@
         <v>4.75</v>
       </c>
       <c r="AO135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP135" t="n">
         <v>29</v>
       </c>
       <c r="AQ135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR135" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS135" t="n">
         <v>251</v>
       </c>
       <c r="AT135" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU135" t="n">
         <v>8.5</v>
@@ -24647,7 +24647,7 @@
         <v>15</v>
       </c>
       <c r="BA135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB135" t="n">
         <v>51</v>
@@ -24656,7 +24656,7 @@
         <v>81</v>
       </c>
       <c r="BD135" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136">
@@ -24727,10 +24727,10 @@
         <v>1.7</v>
       </c>
       <c r="S136" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T136" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U136" t="n">
         <v>2.5</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -837,13 +837,13 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN2" t="n">
         <v>6</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -882,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -989,7 +989,7 @@
         <v>41</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,16 +1001,16 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -1037,19 +1037,19 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
         <v>8.5</v>
@@ -1386,7 +1386,7 @@
         <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1416,7 +1416,7 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>140</v>
@@ -1434,10 +1434,10 @@
         <v>29</v>
       </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD5" t="n">
         <v>251</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
@@ -1708,10 +1708,10 @@
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
         <v>51</v>
@@ -1732,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,13 +1741,13 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1792,7 +1792,7 @@
         <v>3.75</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
@@ -1848,7 +1848,7 @@
         <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
@@ -1929,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -3123,10 +3123,10 @@
         <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
         <v>1.57</v>
@@ -3469,13 +3469,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H17" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J17" t="n">
         <v>1.53</v>
@@ -3484,13 +3484,13 @@
         <v>2.75</v>
       </c>
       <c r="L17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3511,16 +3511,16 @@
         <v>3.4</v>
       </c>
       <c r="U17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3544,26 +3544,26 @@
         <v>41</v>
       </c>
       <c r="AF17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>81</v>
       </c>
       <c r="AJ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK17" t="n">
         <v>351</v>
       </c>
       <c r="AL17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM17" t="n">
         <v>151</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>126</v>
       </c>
       <c r="AN17" t="n">
         <v>2.88</v>
@@ -3572,22 +3572,22 @@
         <v>4.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>3.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>101</v>
@@ -3599,13 +3599,13 @@
         <v>51</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>81</v>
       </c>
       <c r="BA17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
         <v>351</v>
@@ -3673,16 +3673,16 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
         <v>1.29</v>
@@ -4012,19 +4012,19 @@
         <v>3.05</v>
       </c>
       <c r="H20" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>1.87</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
@@ -4036,10 +4036,10 @@
         <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
@@ -4057,28 +4057,28 @@
         <v>1.65</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
         <v>45</v>
       </c>
       <c r="AA20" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE20" t="n">
         <v>19.5</v>
@@ -4090,46 +4090,46 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AI20" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
         <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
@@ -4141,22 +4141,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -5842,7 +5842,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.28</v>
@@ -6006,37 +6006,37 @@
         <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J31" t="n">
         <v>2.12</v>
       </c>
       <c r="K31" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.83</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.78</v>
       </c>
       <c r="S31" t="n">
         <v>1.38</v>
@@ -6045,88 +6045,88 @@
         <v>2.6</v>
       </c>
       <c r="U31" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V31" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W31" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="X31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AA31" t="n">
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH31" t="n">
         <v>13.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM31" t="n">
         <v>55</v>
       </c>
-      <c r="AM31" t="n">
-        <v>60</v>
-      </c>
       <c r="AN31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO31" t="n">
         <v>7.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS31" t="n">
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
@@ -6135,22 +6135,22 @@
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB31" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC31" t="n">
         <v>200</v>
       </c>
-      <c r="BC31" t="n">
-        <v>250</v>
-      </c>
       <c r="BD31" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32">
@@ -6733,10 +6733,10 @@
         <v>2.4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O35" t="n">
         <v>1.14</v>
@@ -6895,13 +6895,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J36" t="n">
         <v>2.1</v>
@@ -6913,10 +6913,10 @@
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
@@ -6967,7 +6967,7 @@
         <v>7.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -6976,7 +6976,7 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI36" t="n">
         <v>29</v>
@@ -7038,7 +7038,7 @@
         <v>101</v>
       </c>
       <c r="BD36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37">
@@ -7073,22 +7073,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7115,28 +7115,28 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
+        <v>8</v>
+      </c>
+      <c r="X37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y37" t="n">
         <v>8.5</v>
       </c>
-      <c r="X37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>9</v>
-      </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -7154,34 +7154,34 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP37" t="n">
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7204,19 +7204,19 @@
         <v>5.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA37" t="n">
         <v>26</v>
       </c>
       <c r="BB37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
         <v>3.4</v>
@@ -7787,16 +7787,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
@@ -7805,10 +7805,10 @@
         <v>4.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
         <v>1.5</v>
@@ -7835,7 +7835,7 @@
         <v>1.62</v>
       </c>
       <c r="W41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -7844,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
         <v>21</v>
@@ -7862,7 +7862,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
@@ -7893,7 +7893,7 @@
         <v>29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR41" t="n">
         <v>81</v>
@@ -8879,7 +8879,7 @@
         <v>4.33</v>
       </c>
       <c r="I47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
         <v>1.95</v>
@@ -8903,10 +8903,10 @@
         <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
         <v>1.36</v>
@@ -8921,7 +8921,7 @@
         <v>1.73</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X47" t="n">
         <v>6.5</v>
@@ -8930,13 +8930,13 @@
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA47" t="n">
         <v>12</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -8945,13 +8945,13 @@
         <v>8.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH47" t="n">
         <v>19</v>
@@ -8963,7 +8963,7 @@
         <v>23</v>
       </c>
       <c r="AK47" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="n">
         <v>51</v>
@@ -8993,7 +8993,7 @@
         <v>3</v>
       </c>
       <c r="AU47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV47" t="n">
         <v>67</v>
@@ -9055,13 +9055,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H48" t="n">
         <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>2.2</v>
@@ -9103,10 +9103,10 @@
         <v>2.1</v>
       </c>
       <c r="W48" t="n">
+        <v>8</v>
+      </c>
+      <c r="X48" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X48" t="n">
-        <v>9</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
@@ -9148,7 +9148,7 @@
         <v>51</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9255,10 +9255,10 @@
         <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -9419,13 +9419,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J50" t="n">
         <v>3.4</v>
@@ -9476,13 +9476,13 @@
         <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA50" t="n">
         <v>23</v>
       </c>
       <c r="AB50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
@@ -9491,7 +9491,7 @@
         <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>67</v>
@@ -9548,7 +9548,7 @@
         <v>126</v>
       </c>
       <c r="AX50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY50" t="n">
         <v>4.75</v>
@@ -12459,22 +12459,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.95</v>
+        <v>3.45</v>
       </c>
       <c r="H67" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I67" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L67" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="M67" t="n">
         <v>1.04</v>
@@ -12483,16 +12483,16 @@
         <v>11.4</v>
       </c>
       <c r="O67" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P67" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R67" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S67" t="n">
         <v>1.32</v>
@@ -12501,34 +12501,34 @@
         <v>3.2</v>
       </c>
       <c r="U67" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V67" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="W67" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X67" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y67" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="Z67" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC67" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD67" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE67" t="n">
         <v>13</v>
@@ -12537,72 +12537,72 @@
         <v>50</v>
       </c>
       <c r="AG67" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH67" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI67" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AJ67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AO67" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AP67" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ67" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AR67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS67" t="n">
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU67" t="n">
         <v>6.8</v>
       </c>
       <c r="AV67" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="AZ67" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="BA67" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB67" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="BC67" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BD67" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68">
@@ -13883,13 +13883,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I75" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="J75" t="n">
         <v>2.47</v>
@@ -13907,10 +13907,10 @@
         <v>8.25</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P75" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q75" t="n">
         <v>1.98</v>
@@ -13931,16 +13931,16 @@
         <v>1.82</v>
       </c>
       <c r="W75" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X75" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y75" t="n">
         <v>8.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA75" t="n">
         <v>16</v>
@@ -13949,7 +13949,7 @@
         <v>29</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD75" t="n">
         <v>6.2</v>
@@ -13958,16 +13958,16 @@
         <v>14.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG75" t="n">
         <v>600</v>
       </c>
       <c r="AH75" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
         <v>13</v>
@@ -13976,7 +13976,7 @@
         <v>65</v>
       </c>
       <c r="AL75" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM75" t="n">
         <v>45</v>
@@ -13988,16 +13988,16 @@
         <v>9.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ75" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR75" t="n">
         <v>65</v>
       </c>
       <c r="AS75" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT75" t="n">
         <v>2.55</v>
@@ -14006,7 +14006,7 @@
         <v>6.8</v>
       </c>
       <c r="AV75" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
@@ -14421,34 +14421,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I78" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J78" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K78" t="n">
         <v>1.9</v>
       </c>
       <c r="L78" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M78" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N78" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O78" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P78" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="Q78" t="n">
         <v>2.27</v>
@@ -14463,10 +14463,10 @@
         <v>2.12</v>
       </c>
       <c r="U78" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="V78" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="W78" t="n">
         <v>4.2</v>
@@ -14475,25 +14475,25 @@
         <v>5.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA78" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB78" t="n">
         <v>35</v>
       </c>
       <c r="AC78" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AD78" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF78" t="n">
         <v>110</v>
@@ -14506,13 +14506,13 @@
         <v>19.5</v>
       </c>
       <c r="AJ78" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK78" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM78" t="n">
         <v>60</v>
@@ -14527,7 +14527,7 @@
         <v>24</v>
       </c>
       <c r="AQ78" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR78" t="n">
         <v>100</v>
@@ -14542,24 +14542,24 @@
         <v>8.75</v>
       </c>
       <c r="AV78" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
       <c r="AY78" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AZ78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA78" t="n">
         <v>45</v>
       </c>
       <c r="BB78" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC78" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD78" t="inlineStr"/>
     </row>
@@ -14791,10 +14791,10 @@
         <v>4.6</v>
       </c>
       <c r="M80" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N80" t="n">
-        <v>6.78</v>
+        <v>7</v>
       </c>
       <c r="O80" t="n">
         <v>1.44</v>
@@ -14957,22 +14957,22 @@
         <v>4.05</v>
       </c>
       <c r="I81" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="J81" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="K81" t="n">
         <v>2.22</v>
       </c>
       <c r="L81" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O81" t="n">
         <v>1.27</v>
@@ -14984,7 +14984,7 @@
         <v>1.8</v>
       </c>
       <c r="R81" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S81" t="n">
         <v>1.4</v>
@@ -15008,10 +15008,10 @@
         <v>8.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA81" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB81" t="n">
         <v>30</v>
@@ -15023,7 +15023,7 @@
         <v>8</v>
       </c>
       <c r="AE81" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF81" t="n">
         <v>110</v>
@@ -15032,16 +15032,16 @@
         <v>1000</v>
       </c>
       <c r="AH81" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ81" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK81" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL81" t="n">
         <v>80</v>
@@ -15059,10 +15059,10 @@
         <v>17.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR81" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS81" t="n">
         <v>250</v>
@@ -15079,7 +15079,7 @@
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="inlineStr"/>
       <c r="AY81" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AZ81" t="n">
         <v>40</v>
@@ -15127,37 +15127,37 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H82" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I82" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L82" t="n">
         <v>5</v>
       </c>
-      <c r="J82" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.1</v>
-      </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>8.9</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P82" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R82" t="n">
         <v>1.75</v>
@@ -15169,73 +15169,73 @@
         <v>2.52</v>
       </c>
       <c r="U82" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V82" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="W82" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X82" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y82" t="n">
         <v>8</v>
       </c>
       <c r="Z82" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA82" t="n">
         <v>13.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC82" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AE82" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG82" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH82" t="n">
         <v>12</v>
       </c>
       <c r="AI82" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ82" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK82" t="n">
         <v>90</v>
       </c>
       <c r="AL82" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM82" t="n">
         <v>55</v>
       </c>
-      <c r="AM82" t="n">
-        <v>60</v>
-      </c>
       <c r="AN82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR82" t="n">
         <v>55</v>
@@ -15247,21 +15247,21 @@
         <v>2.57</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AV82" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
       <c r="AY82" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AZ82" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA82" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB82" t="n">
         <v>175</v>
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>2.9</v>
@@ -15498,7 +15498,7 @@
         <v>1.98</v>
       </c>
       <c r="L84" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
@@ -15510,7 +15510,7 @@
         <v>1.38</v>
       </c>
       <c r="P84" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q84" t="n">
         <v>2.1</v>
@@ -15528,7 +15528,7 @@
         <v>1.78</v>
       </c>
       <c r="V84" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W84" t="n">
         <v>7.6</v>
@@ -15537,13 +15537,13 @@
         <v>13</v>
       </c>
       <c r="Y84" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z84" t="n">
         <v>32</v>
       </c>
       <c r="AA84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB84" t="n">
         <v>35</v>
@@ -15552,19 +15552,19 @@
         <v>7.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE84" t="n">
         <v>14</v>
       </c>
       <c r="AF84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG84" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH84" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI84" t="n">
         <v>13</v>
@@ -15579,10 +15579,10 @@
         <v>25</v>
       </c>
       <c r="AM84" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN84" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AO84" t="n">
         <v>14.5</v>
@@ -15594,7 +15594,7 @@
         <v>65</v>
       </c>
       <c r="AR84" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS84" t="n">
         <v>300</v>
@@ -15603,7 +15603,7 @@
         <v>2.4</v>
       </c>
       <c r="AU84" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV84" t="n">
         <v>60</v>
@@ -15614,16 +15614,16 @@
         <v>4.55</v>
       </c>
       <c r="AZ84" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB84" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC84" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD84" t="n">
         <v>300</v>
@@ -17585,7 +17585,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H96" t="n">
         <v>3.3</v>
@@ -21125,22 +21125,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L116" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L116" t="n">
-        <v>2.9</v>
       </c>
       <c r="M116" t="n">
         <v>1.02</v>
@@ -21155,16 +21155,16 @@
         <v>2.78</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S116" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T116" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="U116" t="n">
         <v>1.83</v>
@@ -21173,10 +21173,10 @@
         <v>1.93</v>
       </c>
       <c r="W116" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X116" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y116" t="n">
         <v>9</v>
@@ -21185,90 +21185,90 @@
         <v>28</v>
       </c>
       <c r="AA116" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB116" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC116" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ116" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD116" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AK116" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL116" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM116" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP116" t="n">
         <v>24</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO116" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP116" t="n">
-        <v>23</v>
       </c>
       <c r="AQ116" t="n">
         <v>80</v>
       </c>
       <c r="AR116" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS116" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="AU116" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV116" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW116" t="inlineStr"/>
       <c r="AX116" t="inlineStr"/>
       <c r="AY116" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="AZ116" t="n">
         <v>12.5</v>
       </c>
       <c r="BA116" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="BB116" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC116" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BD116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117">
@@ -21479,100 +21479,100 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H118" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I118" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="K118" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L118" t="n">
         <v>3.55</v>
       </c>
       <c r="M118" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N118" t="n">
-        <v>9.85</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O118" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P118" t="n">
-        <v>4.2</v>
+        <v>3.94</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R118" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S118" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="T118" t="n">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="U118" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="V118" t="n">
-        <v>2.26</v>
+        <v>2.19</v>
       </c>
       <c r="W118" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X118" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y118" t="n">
         <v>7.4</v>
       </c>
       <c r="Z118" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB118" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE118" t="n">
         <v>10.75</v>
       </c>
       <c r="AF118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG118" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH118" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AI118" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ118" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK118" t="n">
         <v>32</v>
       </c>
       <c r="AL118" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM118" t="n">
         <v>22</v>
@@ -21581,25 +21581,25 @@
         <v>4.05</v>
       </c>
       <c r="AO118" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP118" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ118" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR118" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS118" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AU118" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV118" t="n">
         <v>50</v>
@@ -21607,7 +21607,7 @@
       <c r="AW118" t="inlineStr"/>
       <c r="AX118" t="inlineStr"/>
       <c r="AY118" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AZ118" t="n">
         <v>16.5</v>
@@ -21619,10 +21619,10 @@
         <v>75</v>
       </c>
       <c r="BC118" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD118" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119">
@@ -22191,28 +22191,28 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I122" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J122" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="K122" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="L122" t="n">
         <v>4.35</v>
       </c>
       <c r="M122" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N122" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O122" t="n">
         <v>1.53</v>
@@ -22221,52 +22221,52 @@
         <v>2.32</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R122" t="n">
         <v>1.45</v>
       </c>
       <c r="S122" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T122" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="U122" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V122" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W122" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X122" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y122" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z122" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA122" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB122" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC122" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD122" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE122" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG122" t="n">
         <v>101</v>
@@ -22281,7 +22281,7 @@
         <v>13.5</v>
       </c>
       <c r="AK122" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL122" t="n">
         <v>45</v>
@@ -22290,31 +22290,31 @@
         <v>65</v>
       </c>
       <c r="AN122" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO122" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AP122" t="n">
         <v>24</v>
       </c>
       <c r="AQ122" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR122" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS122" t="n">
         <v>400</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU122" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AV122" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW122" t="inlineStr"/>
       <c r="AX122" t="inlineStr"/>
@@ -22325,13 +22325,13 @@
         <v>23</v>
       </c>
       <c r="BA122" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB122" t="n">
         <v>150</v>
       </c>
       <c r="BC122" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD122" t="n">
         <v>500</v>
@@ -22548,55 +22548,55 @@
         <v>1.6</v>
       </c>
       <c r="H124" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I124" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J124" t="n">
         <v>2.2</v>
       </c>
       <c r="K124" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L124" t="n">
         <v>5.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O124" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P124" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R124" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S124" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T124" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V124" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W124" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X124" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y124" t="n">
         <v>8.5</v>
@@ -22608,13 +22608,13 @@
         <v>13</v>
       </c>
       <c r="AB124" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC124" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE124" t="n">
         <v>15</v>
@@ -22623,7 +22623,7 @@
         <v>51</v>
       </c>
       <c r="AG124" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH124" t="n">
         <v>15</v>
@@ -22653,19 +22653,19 @@
         <v>19</v>
       </c>
       <c r="AQ124" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR124" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS124" t="n">
         <v>126</v>
       </c>
       <c r="AT124" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV124" t="n">
         <v>51</v>
@@ -22680,19 +22680,19 @@
         <v>7</v>
       </c>
       <c r="AZ124" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA124" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB124" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC124" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD124" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125">
@@ -22727,16 +22727,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H125" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I125" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J125" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K125" t="n">
         <v>2.2</v>
@@ -22745,10 +22745,10 @@
         <v>5</v>
       </c>
       <c r="M125" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O125" t="n">
         <v>1.29</v>
@@ -22757,10 +22757,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R125" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S125" t="n">
         <v>1.4</v>
@@ -22793,10 +22793,10 @@
         <v>26</v>
       </c>
       <c r="AC125" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD125" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE125" t="n">
         <v>15</v>
@@ -22811,10 +22811,10 @@
         <v>13</v>
       </c>
       <c r="AI125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ125" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK125" t="n">
         <v>51</v>
@@ -22826,10 +22826,10 @@
         <v>41</v>
       </c>
       <c r="AN125" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO125" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP125" t="n">
         <v>21</v>
@@ -22859,10 +22859,10 @@
         <v>81</v>
       </c>
       <c r="AY125" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ125" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA125" t="n">
         <v>34</v>
@@ -24691,13 +24691,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H136" t="n">
         <v>4.5</v>
       </c>
       <c r="I136" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J136" t="n">
         <v>8</v>
@@ -24706,7 +24706,7 @@
         <v>2.2</v>
       </c>
       <c r="L136" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
         <v>1.07</v>
@@ -24739,22 +24739,22 @@
         <v>1.5</v>
       </c>
       <c r="W136" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X136" t="n">
         <v>34</v>
       </c>
       <c r="Y136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z136" t="n">
         <v>81</v>
       </c>
       <c r="AA136" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB136" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC136" t="n">
         <v>9</v>
@@ -24772,13 +24772,13 @@
         <v>101</v>
       </c>
       <c r="AH136" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI136" t="n">
         <v>5.5</v>
       </c>
       <c r="AJ136" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK136" t="n">
         <v>9</v>
@@ -24790,7 +24790,7 @@
         <v>41</v>
       </c>
       <c r="AN136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO136" t="n">
         <v>41</v>
@@ -24809,7 +24809,7 @@
         <v>2.63</v>
       </c>
       <c r="AU136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV136" t="n">
         <v>81</v>
@@ -24820,7 +24820,7 @@
         <v>3.2</v>
       </c>
       <c r="AZ136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BA136" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -795,7 +795,7 @@
         <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -843,10 +843,10 @@
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -867,13 +867,13 @@
         <v>3.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
         <v>160</v>
@@ -888,7 +888,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BC2" t="n">
         <v>41</v>
@@ -929,40 +929,40 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,16 +971,16 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -998,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1013,16 +1013,16 @@
         <v>7.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -1031,10 +1031,10 @@
         <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1070,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1141,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1478,7 +1478,7 @@
         <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>3.5</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
         <v>1.2</v>
@@ -1556,7 +1556,7 @@
         <v>126</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1613,7 +1613,7 @@
         <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
         <v>51</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
         <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>2.2</v>
@@ -1699,16 +1699,16 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1750,13 +1750,13 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>26</v>
@@ -1792,19 +1792,19 @@
         <v>3.75</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>41</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
@@ -1929,7 +1929,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -2251,7 +2251,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>8.5</v>
@@ -2260,7 +2260,7 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
@@ -2272,7 +2272,7 @@
         <v>19</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2284,13 +2284,13 @@
         <v>151</v>
       </c>
       <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>67</v>
@@ -2305,13 +2305,13 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR10" t="n">
         <v>34</v>
@@ -2329,16 +2329,16 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX10" t="n">
         <v>150</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -3487,10 +3487,10 @@
         <v>17</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
@@ -3499,10 +3499,10 @@
         <v>4.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S17" t="n">
         <v>1.3</v>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H18" t="n">
         <v>8</v>
@@ -3667,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
         <v>1.17</v>
@@ -3731,10 +3731,10 @@
         <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK18" t="n">
         <v>351</v>
@@ -3743,7 +3743,7 @@
         <v>301</v>
       </c>
       <c r="AM18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN18" t="n">
         <v>2.88</v>
@@ -3755,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3782,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="AZ18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA18" t="n">
         <v>101</v>
@@ -3853,10 +3853,10 @@
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.53</v>
@@ -4009,127 +4009,127 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="L20" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="M20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
         <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U20" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="V20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
         <v>45</v>
       </c>
       <c r="AA20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="n">
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR20" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
@@ -4144,19 +4144,19 @@
         <v>4.35</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD20" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
@@ -6003,28 +6003,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="K31" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>7.1</v>
+        <v>10.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.26</v>
@@ -6045,73 +6045,73 @@
         <v>2.6</v>
       </c>
       <c r="U31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.83</v>
       </c>
-      <c r="V31" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W31" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="X31" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC31" t="n">
         <v>10.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE31" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH31" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM31" t="n">
         <v>50</v>
       </c>
-      <c r="AM31" t="n">
-        <v>55</v>
-      </c>
       <c r="AN31" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>55</v>
@@ -6123,10 +6123,10 @@
         <v>2.62</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
         <v>51</v>
@@ -6135,22 +6135,22 @@
         <v>51</v>
       </c>
       <c r="AY31" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AZ31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
         <v>32</v>
       </c>
       <c r="BB31" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC31" t="n">
         <v>175</v>
       </c>
-      <c r="BC31" t="n">
-        <v>200</v>
-      </c>
       <c r="BD31" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32">
@@ -6541,105 +6541,109 @@
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.75</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.55</v>
-      </c>
       <c r="I34" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="K34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L34" t="n">
         <v>2.18</v>
       </c>
-      <c r="L34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12</v>
+      </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
-        <v>3.44</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T34" t="n">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="V34" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="W34" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="X34" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z34" t="n">
         <v>45</v>
       </c>
       <c r="AA34" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB34" t="n">
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE34" t="n">
         <v>11.75</v>
       </c>
       <c r="AF34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI34" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AJ34" t="n">
         <v>7</v>
       </c>
       <c r="AK34" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AL34" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM34" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP34" t="n">
         <v>26</v>
@@ -6654,13 +6658,13 @@
         <v>300</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="AU34" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
@@ -6668,19 +6672,19 @@
         <v>3.7</v>
       </c>
       <c r="AZ34" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="BA34" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BB34" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BC34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BD34" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
@@ -6745,10 +6749,10 @@
         <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6895,7 +6899,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
@@ -6961,10 +6965,10 @@
         <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7038,7 +7042,7 @@
         <v>101</v>
       </c>
       <c r="BD36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -7073,22 +7077,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7103,16 +7107,16 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
         <v>1.73</v>
@@ -7121,22 +7125,22 @@
         <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
         <v>17</v>
       </c>
-      <c r="AA37" t="n">
-        <v>15</v>
-      </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -7154,34 +7158,34 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>12</v>
       </c>
-      <c r="AI37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>13</v>
-      </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP37" t="n">
         <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
@@ -7190,7 +7194,7 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7201,22 +7205,22 @@
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA37" t="n">
         <v>26</v>
       </c>
       <c r="BB37" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC37" t="n">
         <v>81</v>
       </c>
       <c r="BD37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -7454,7 +7458,7 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="O39" t="n">
         <v>1.13</v>
@@ -7793,7 +7797,7 @@
         <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -7802,7 +7806,7 @@
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.13</v>
@@ -7811,10 +7815,10 @@
         <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q41" t="n">
         <v>2.7</v>
@@ -7838,7 +7842,7 @@
         <v>6</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -7847,7 +7851,7 @@
         <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
@@ -7866,7 +7870,7 @@
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
         <v>17</v>
@@ -7878,7 +7882,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
         <v>51</v>
@@ -7917,13 +7921,13 @@
         <v>126</v>
       </c>
       <c r="AY41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB41" t="n">
         <v>81</v>
@@ -7967,7 +7971,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
@@ -8003,10 +8007,10 @@
         <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
@@ -8084,7 +8088,7 @@
         <v>201</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
         <v>9</v>
@@ -8921,7 +8925,7 @@
         <v>1.73</v>
       </c>
       <c r="W47" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X47" t="n">
         <v>6.5</v>
@@ -8930,13 +8934,13 @@
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>12</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
         <v>11</v>
@@ -8945,13 +8949,13 @@
         <v>8.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG47" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH47" t="n">
         <v>19</v>
@@ -8993,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="AU47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV47" t="n">
         <v>67</v>
@@ -9058,7 +9062,7 @@
         <v>1.67</v>
       </c>
       <c r="H48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="n">
         <v>5</v>
@@ -9097,10 +9101,10 @@
         <v>3.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V48" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W48" t="n">
         <v>8</v>
@@ -9124,16 +9128,16 @@
         <v>13</v>
       </c>
       <c r="AD48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH48" t="n">
         <v>15</v>
@@ -9187,7 +9191,7 @@
         <v>151</v>
       </c>
       <c r="AY48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ48" t="n">
         <v>23</v>
@@ -9255,10 +9259,10 @@
         <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -12459,19 +12463,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H67" t="n">
         <v>3.65</v>
       </c>
       <c r="I67" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="J67" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K67" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L67" t="n">
         <v>2.45</v>
@@ -12480,31 +12484,31 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P67" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q67" t="n">
         <v>1.62</v>
       </c>
       <c r="R67" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S67" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="T67" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="U67" t="n">
         <v>1.57</v>
       </c>
       <c r="V67" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W67" t="n">
         <v>12.5</v>
@@ -12513,19 +12517,19 @@
         <v>20</v>
       </c>
       <c r="Y67" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z67" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA67" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AB67" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC67" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD67" t="n">
         <v>7.3</v>
@@ -12540,16 +12544,16 @@
         <v>300</v>
       </c>
       <c r="AH67" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI67" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>8.5</v>
       </c>
       <c r="AK67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL67" t="n">
         <v>14</v>
@@ -12558,13 +12562,13 @@
         <v>22</v>
       </c>
       <c r="AN67" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP67" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ67" t="n">
         <v>80</v>
@@ -12576,10 +12580,10 @@
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU67" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV67" t="n">
         <v>50</v>
@@ -12587,10 +12591,10 @@
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
       <c r="AY67" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AZ67" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="BA67" t="n">
         <v>16</v>
@@ -13705,34 +13709,34 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H74" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I74" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K74" t="n">
         <v>2.07</v>
       </c>
       <c r="L74" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="O74" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P74" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q74" t="n">
         <v>2.02</v>
@@ -13747,22 +13751,22 @@
         <v>2.47</v>
       </c>
       <c r="U74" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V74" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W74" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X74" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA74" t="n">
         <v>14.5</v>
@@ -13771,75 +13775,75 @@
         <v>32</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE74" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG74" t="n">
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI74" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ74" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM74" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO74" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AP74" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR74" t="n">
         <v>65</v>
       </c>
       <c r="AS74" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT74" t="n">
         <v>2.45</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AZ74" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB74" t="n">
         <v>200</v>
@@ -15305,28 +15309,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H83" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I83" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J83" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="K83" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L83" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M83" t="n">
         <v>1.07</v>
       </c>
       <c r="N83" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="O83" t="n">
         <v>1.45</v>
@@ -15347,37 +15351,37 @@
         <v>2.27</v>
       </c>
       <c r="U83" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V83" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W83" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X83" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y83" t="n">
         <v>8.75</v>
       </c>
       <c r="Z83" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA83" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE83" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>19</v>
       </c>
       <c r="AF83" t="n">
         <v>120</v>
@@ -15386,7 +15390,7 @@
         <v>101</v>
       </c>
       <c r="AH83" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI83" t="n">
         <v>21</v>
@@ -15401,31 +15405,31 @@
         <v>50</v>
       </c>
       <c r="AM83" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN83" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO83" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP83" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR83" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS83" t="n">
         <v>350</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU83" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV83" t="n">
         <v>90</v>
@@ -15436,13 +15440,13 @@
         <v>5.7</v>
       </c>
       <c r="AZ83" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA83" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB83" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC83" t="n">
         <v>250</v>
@@ -17591,7 +17595,7 @@
         <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J96" t="n">
         <v>2.88</v>
@@ -17600,13 +17604,13 @@
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M96" t="n">
         <v>1.04</v>
       </c>
       <c r="N96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O96" t="n">
         <v>1.22</v>
@@ -17633,13 +17637,13 @@
         <v>2.2</v>
       </c>
       <c r="W96" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X96" t="n">
         <v>12</v>
       </c>
       <c r="Y96" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z96" t="n">
         <v>21</v>
@@ -17672,7 +17676,7 @@
         <v>17</v>
       </c>
       <c r="AJ96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK96" t="n">
         <v>34</v>
@@ -17684,7 +17688,7 @@
         <v>29</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO96" t="n">
         <v>12</v>
@@ -19528,7 +19532,7 @@
         <v>3.35</v>
       </c>
       <c r="H107" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="I107" t="n">
         <v>2.3</v>
@@ -19546,7 +19550,7 @@
         <v>1.03</v>
       </c>
       <c r="N107" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O107" t="n">
         <v>1.28</v>
@@ -19555,10 +19559,10 @@
         <v>2.97</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R107" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S107" t="n">
         <v>1.42</v>
@@ -19567,16 +19571,16 @@
         <v>2.35</v>
       </c>
       <c r="U107" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V107" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W107" t="n">
         <v>8.5</v>
       </c>
       <c r="X107" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y107" t="n">
         <v>9</v>
@@ -19585,13 +19589,13 @@
         <v>40</v>
       </c>
       <c r="AA107" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB107" t="n">
         <v>24</v>
       </c>
-      <c r="AB107" t="n">
-        <v>25</v>
-      </c>
       <c r="AC107" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AD107" t="n">
         <v>4.7</v>
@@ -19603,16 +19607,16 @@
         <v>35</v>
       </c>
       <c r="AG107" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI107" t="n">
         <v>10</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK107" t="n">
         <v>21</v>
@@ -19630,7 +19634,7 @@
         <v>19</v>
       </c>
       <c r="AP107" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ107" t="n">
         <v>90</v>
@@ -19642,7 +19646,7 @@
         <v>200</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU107" t="n">
         <v>5.8</v>
@@ -19653,10 +19657,10 @@
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AZ107" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BA107" t="n">
         <v>16.5</v>
@@ -21143,16 +21147,16 @@
         <v>2.95</v>
       </c>
       <c r="M116" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>7.3</v>
+        <v>6.95</v>
       </c>
       <c r="O116" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P116" t="n">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="Q116" t="n">
         <v>2.12</v>
@@ -21167,10 +21171,10 @@
         <v>2.37</v>
       </c>
       <c r="U116" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V116" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="W116" t="n">
         <v>6.6</v>
@@ -21330,7 +21334,7 @@
         <v>1.14</v>
       </c>
       <c r="P117" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q117" t="n">
         <v>1.6</v>
@@ -21345,10 +21349,10 @@
         <v>3.34</v>
       </c>
       <c r="U117" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V117" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W117" t="n">
         <v>6.3</v>
@@ -21479,22 +21483,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H118" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I118" t="n">
         <v>3.1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K118" t="n">
         <v>2.27</v>
       </c>
       <c r="L118" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="n">
         <v>1.04</v>
@@ -21503,10 +21507,10 @@
         <v>9.949999999999999</v>
       </c>
       <c r="O118" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P118" t="n">
-        <v>3.94</v>
+        <v>4.05</v>
       </c>
       <c r="Q118" t="n">
         <v>1.6</v>
@@ -21515,19 +21519,19 @@
         <v>2.07</v>
       </c>
       <c r="S118" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T118" t="n">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="U118" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="V118" t="n">
-        <v>2.19</v>
+        <v>2.23</v>
       </c>
       <c r="W118" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X118" t="n">
         <v>9</v>
@@ -21542,7 +21546,7 @@
         <v>11.75</v>
       </c>
       <c r="AB118" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC118" t="n">
         <v>13.5</v>
@@ -21554,13 +21558,13 @@
         <v>10.75</v>
       </c>
       <c r="AF118" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG118" t="n">
         <v>200</v>
       </c>
       <c r="AH118" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI118" t="n">
         <v>15</v>
@@ -21584,7 +21588,7 @@
         <v>9.5</v>
       </c>
       <c r="AP118" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ118" t="n">
         <v>32</v>
@@ -21596,7 +21600,7 @@
         <v>175</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU118" t="n">
         <v>6.8</v>
@@ -21607,22 +21611,22 @@
       <c r="AW118" t="inlineStr"/>
       <c r="AX118" t="inlineStr"/>
       <c r="AY118" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AZ118" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BA118" t="n">
         <v>21</v>
       </c>
       <c r="BB118" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC118" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD118" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119">
@@ -22545,10 +22549,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H124" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I124" t="n">
         <v>5.75</v>
@@ -22557,16 +22561,16 @@
         <v>2.2</v>
       </c>
       <c r="K124" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L124" t="n">
         <v>5.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N124" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O124" t="n">
         <v>1.25</v>
@@ -22575,10 +22579,10 @@
         <v>3.75</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R124" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S124" t="n">
         <v>1.36</v>
@@ -22614,10 +22618,10 @@
         <v>11</v>
       </c>
       <c r="AD124" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF124" t="n">
         <v>51</v>
@@ -22653,10 +22657,10 @@
         <v>19</v>
       </c>
       <c r="AQ124" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR124" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS124" t="n">
         <v>126</v>
@@ -22727,13 +22731,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H125" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J125" t="n">
         <v>2.38</v>
@@ -22745,22 +22749,22 @@
         <v>5</v>
       </c>
       <c r="M125" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O125" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P125" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R125" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S125" t="n">
         <v>1.4</v>
@@ -22793,7 +22797,7 @@
         <v>26</v>
       </c>
       <c r="AC125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD125" t="n">
         <v>7</v>
@@ -22805,16 +22809,16 @@
         <v>51</v>
       </c>
       <c r="AG125" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH125" t="n">
         <v>13</v>
       </c>
       <c r="AI125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK125" t="n">
         <v>51</v>
@@ -22826,10 +22830,10 @@
         <v>41</v>
       </c>
       <c r="AN125" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP125" t="n">
         <v>21</v>
@@ -22909,28 +22913,28 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H126" t="n">
         <v>3.1</v>
       </c>
       <c r="I126" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J126" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K126" t="n">
         <v>1.95</v>
       </c>
       <c r="L126" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M126" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O126" t="n">
         <v>1.44</v>
@@ -22939,10 +22943,10 @@
         <v>2.63</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="R126" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S126" t="n">
         <v>1.53</v>
@@ -22951,16 +22955,16 @@
         <v>2.38</v>
       </c>
       <c r="U126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V126" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W126" t="n">
         <v>5.5</v>
       </c>
       <c r="X126" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y126" t="n">
         <v>9.5</v>
@@ -22972,19 +22976,19 @@
         <v>19</v>
       </c>
       <c r="AB126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC126" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD126" t="n">
         <v>6.5</v>
       </c>
       <c r="AE126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF126" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG126" t="n">
         <v>900</v>
@@ -22999,7 +23003,7 @@
         <v>17</v>
       </c>
       <c r="AK126" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL126" t="n">
         <v>41</v>
@@ -23008,16 +23012,16 @@
         <v>51</v>
       </c>
       <c r="AN126" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO126" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP126" t="n">
         <v>26</v>
       </c>
       <c r="AQ126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR126" t="n">
         <v>67</v>
@@ -23032,7 +23036,7 @@
         <v>9.5</v>
       </c>
       <c r="AV126" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW126" t="inlineStr"/>
       <c r="AX126" t="inlineStr"/>
@@ -23040,7 +23044,7 @@
         <v>6</v>
       </c>
       <c r="AZ126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA126" t="n">
         <v>41</v>
@@ -23087,13 +23091,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H127" t="n">
         <v>3.1</v>
       </c>
       <c r="I127" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J127" t="n">
         <v>2.63</v>
@@ -23123,10 +23127,10 @@
         <v>1.8</v>
       </c>
       <c r="S127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U127" t="n">
         <v>1.8</v>
@@ -23138,13 +23142,13 @@
         <v>7.5</v>
       </c>
       <c r="X127" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA127" t="n">
         <v>17</v>
@@ -23192,7 +23196,7 @@
         <v>11</v>
       </c>
       <c r="AP127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ127" t="n">
         <v>41</v>
@@ -23204,10 +23208,10 @@
         <v>151</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU127" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV127" t="n">
         <v>51</v>
@@ -23265,82 +23269,82 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H128" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I128" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J128" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="K128" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L128" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="M128" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N128" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R128" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="S128" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="T128" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="U128" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="V128" t="n">
         <v>2.7</v>
       </c>
       <c r="W128" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y128" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z128" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA128" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB128" t="n">
         <v>15.5</v>
       </c>
       <c r="AC128" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD128" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE128" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG128" t="n">
         <v>120</v>
@@ -23352,40 +23356,40 @@
         <v>29</v>
       </c>
       <c r="AJ128" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK128" t="n">
         <v>60</v>
       </c>
       <c r="AL128" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM128" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN128" t="n">
         <v>4.35</v>
       </c>
       <c r="AO128" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AP128" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ128" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AR128" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS128" t="n">
         <v>90</v>
       </c>
       <c r="AT128" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AU128" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AV128" t="n">
         <v>32</v>
@@ -23395,13 +23399,13 @@
       </c>
       <c r="AX128" t="inlineStr"/>
       <c r="AY128" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AZ128" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA128" t="n">
         <v>17.5</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>17</v>
       </c>
       <c r="BB128" t="n">
         <v>70</v>
@@ -23445,34 +23449,34 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H129" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I129" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J129" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="K129" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L129" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="M129" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N129" t="n">
-        <v>9.949999999999999</v>
+        <v>13</v>
       </c>
       <c r="O129" t="n">
         <v>1.2</v>
       </c>
       <c r="P129" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q129" t="n">
         <v>1.6</v>
@@ -23481,10 +23485,10 @@
         <v>2.05</v>
       </c>
       <c r="S129" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T129" t="n">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="U129" t="n">
         <v>1.55</v>
@@ -23493,28 +23497,28 @@
         <v>2.15</v>
       </c>
       <c r="W129" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X129" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y129" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA129" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB129" t="n">
         <v>22</v>
       </c>
       <c r="AC129" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD129" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE129" t="n">
         <v>12.5</v>
@@ -23526,66 +23530,66 @@
         <v>300</v>
       </c>
       <c r="AH129" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ129" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK129" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AL129" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AM129" t="n">
         <v>27</v>
       </c>
       <c r="AN129" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="AO129" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AP129" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ129" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR129" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS129" t="n">
         <v>175</v>
       </c>
       <c r="AT129" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU129" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV129" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW129" t="inlineStr"/>
       <c r="AX129" t="inlineStr"/>
       <c r="AY129" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AZ129" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA129" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BB129" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BC129" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BD129" t="n">
         <v>200</v>
@@ -24691,13 +24695,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H136" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I136" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J136" t="n">
         <v>8</v>
@@ -24706,13 +24710,13 @@
         <v>2.2</v>
       </c>
       <c r="L136" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M136" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N136" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O136" t="n">
         <v>1.36</v>
@@ -24721,10 +24725,10 @@
         <v>3</v>
       </c>
       <c r="Q136" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R136" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S136" t="n">
         <v>1.44</v>
@@ -24745,25 +24749,25 @@
         <v>34</v>
       </c>
       <c r="Y136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z136" t="n">
         <v>81</v>
       </c>
       <c r="AA136" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB136" t="n">
         <v>67</v>
       </c>
       <c r="AC136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF136" t="n">
         <v>101</v>
@@ -24772,10 +24776,10 @@
         <v>101</v>
       </c>
       <c r="AH136" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI136" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ136" t="n">
         <v>9</v>
@@ -24790,7 +24794,7 @@
         <v>41</v>
       </c>
       <c r="AN136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO136" t="n">
         <v>41</v>
@@ -24809,7 +24813,7 @@
         <v>2.63</v>
       </c>
       <c r="AU136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV136" t="n">
         <v>81</v>
@@ -24820,7 +24824,7 @@
         <v>3.2</v>
       </c>
       <c r="AZ136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BA136" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1159,10 +1159,10 @@
         <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1177,31 +1177,31 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1246,16 +1246,16 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>29</v>
       </c>
       <c r="BB4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD4" t="n">
         <v>251</v>
@@ -1293,55 +1293,55 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1359,22 +1359,22 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>15</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1404,13 +1404,13 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1428,10 +1428,10 @@
         <v>5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB5" t="n">
         <v>67</v>
@@ -1440,7 +1440,7 @@
         <v>101</v>
       </c>
       <c r="BD5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>3.75</v>
@@ -1505,13 +1505,13 @@
         <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T6" t="n">
         <v>3.4</v>
@@ -1562,13 +1562,13 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1580,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>101</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1681,40 +1681,40 @@
         <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="n">
         <v>41</v>
@@ -1723,16 +1723,16 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,43 +1741,43 @@
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1789,16 +1789,16 @@
         <v>160</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
         <v>41</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1875,7 +1875,7 @@
         <v>2.63</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T8" t="n">
         <v>3.75</v>
@@ -1896,10 +1896,10 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1920,28 +1920,28 @@
         <v>101</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
@@ -1971,22 +1971,22 @@
         <v>160</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA8" t="n">
         <v>21</v>
       </c>
-      <c r="BA8" t="n">
-        <v>23</v>
-      </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC8" t="n">
         <v>67</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
         <v>3.4</v>
@@ -2051,10 +2051,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2063,22 +2063,22 @@
         <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W9" t="n">
         <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2102,13 +2102,13 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -2123,10 +2123,10 @@
         <v>4.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2141,7 +2141,7 @@
         <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>41</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2227,22 +2227,22 @@
         <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>1.67</v>
@@ -2263,16 +2263,16 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
         <v>11</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>17</v>
@@ -2293,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2320,7 +2320,7 @@
         <v>81</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -3469,13 +3469,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H17" t="n">
         <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
         <v>1.53</v>
@@ -3484,43 +3484,43 @@
         <v>2.75</v>
       </c>
       <c r="L17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3535,44 +3535,44 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AM17" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO17" t="n">
         <v>4.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3581,13 +3581,13 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>101</v>
@@ -3599,13 +3599,13 @@
         <v>51</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB17" t="n">
         <v>351</v>
@@ -3649,55 +3649,55 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>5</v>
@@ -3706,7 +3706,7 @@
         <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA18" t="n">
         <v>15</v>
@@ -3715,47 +3715,47 @@
         <v>51</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>51</v>
       </c>
       <c r="AF18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
         <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="n">
         <v>351</v>
       </c>
       <c r="AL18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AM18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN18" t="n">
         <v>2.88</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AR18" t="n">
         <v>41</v>
@@ -3764,10 +3764,10 @@
         <v>301</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
         <v>151</v>
@@ -3779,13 +3779,13 @@
         <v>51</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA18" t="n">
         <v>126</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>101</v>
       </c>
       <c r="BB18" t="n">
         <v>351</v>
@@ -3859,10 +3859,10 @@
         <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="n">
         <v>1.25</v>
@@ -4009,34 +4009,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P20" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="Q20" t="n">
         <v>2.62</v>
@@ -4048,7 +4048,7 @@
         <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
         <v>2.07</v>
@@ -4057,25 +4057,25 @@
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
         <v>5.9</v>
@@ -4102,16 +4102,16 @@
         <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AP20" t="n">
         <v>30</v>
@@ -4126,10 +4126,10 @@
         <v>500</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
@@ -4144,19 +4144,19 @@
         <v>4.35</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21">
@@ -6719,22 +6719,22 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.4</v>
       </c>
       <c r="L35" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -6749,10 +6749,10 @@
         <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S35" t="n">
         <v>1.29</v>
@@ -6767,31 +6767,31 @@
         <v>2.5</v>
       </c>
       <c r="W35" t="n">
+        <v>15</v>
+      </c>
+      <c r="X35" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
         <v>17</v>
       </c>
-      <c r="X35" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>19</v>
-      </c>
       <c r="AD35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
         <v>34</v>
@@ -6800,28 +6800,28 @@
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM35" t="n">
         <v>19</v>
       </c>
       <c r="AN35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
@@ -6849,22 +6849,22 @@
       </c>
       <c r="AX35" t="inlineStr"/>
       <c r="AY35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA35" t="n">
         <v>17</v>
       </c>
       <c r="BB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC35" t="n">
         <v>41</v>
       </c>
       <c r="BD35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -6899,28 +6899,28 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
@@ -6947,16 +6947,16 @@
         <v>2.1</v>
       </c>
       <c r="W36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
@@ -6965,13 +6965,13 @@
         <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -7001,7 +7001,7 @@
         <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP36" t="n">
         <v>17</v>
@@ -7027,10 +7027,10 @@
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA36" t="n">
         <v>29</v>
@@ -7039,7 +7039,7 @@
         <v>81</v>
       </c>
       <c r="BC36" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7107,10 +7107,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7119,10 +7119,10 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7197,7 +7197,7 @@
         <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7208,7 +7208,7 @@
         <v>5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA37" t="n">
         <v>26</v>
@@ -7217,7 +7217,7 @@
         <v>51</v>
       </c>
       <c r="BC37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7255,28 +7255,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -7306,25 +7306,25 @@
         <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE38" t="n">
         <v>17</v>
@@ -7333,13 +7333,13 @@
         <v>51</v>
       </c>
       <c r="AG38" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ38" t="n">
         <v>13</v>
@@ -7354,10 +7354,10 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -7390,19 +7390,19 @@
         <v>5.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA38" t="n">
         <v>34</v>
       </c>
       <c r="BB38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC38" t="n">
         <v>101</v>
       </c>
       <c r="BD38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
@@ -7437,22 +7437,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J39" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="K39" t="n">
         <v>2.25</v>
       </c>
       <c r="L39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -7467,22 +7467,22 @@
         <v>5.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R39" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T39" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="U39" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="V39" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="W39" t="n">
         <v>10.25</v>
@@ -7494,25 +7494,25 @@
         <v>7.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB39" t="n">
         <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD39" t="n">
         <v>6.4</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG39" t="n">
         <v>110</v>
@@ -7527,25 +7527,25 @@
         <v>8.75</v>
       </c>
       <c r="AK39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM39" t="n">
         <v>17</v>
       </c>
-      <c r="AM39" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AN39" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AP39" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR39" t="n">
         <v>50</v>
@@ -7557,7 +7557,7 @@
         <v>3.4</v>
       </c>
       <c r="AU39" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AV39" t="n">
         <v>35</v>
@@ -7567,19 +7567,19 @@
       </c>
       <c r="AX39" t="inlineStr"/>
       <c r="AY39" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AZ39" t="n">
         <v>14.5</v>
       </c>
       <c r="BA39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BB39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD39" t="n">
         <v>150</v>
@@ -7797,7 +7797,7 @@
         <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -7806,7 +7806,7 @@
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.13</v>
@@ -7839,10 +7839,10 @@
         <v>1.62</v>
       </c>
       <c r="W41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -7866,7 +7866,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
@@ -7882,7 +7882,7 @@
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="n">
         <v>51</v>
@@ -7921,13 +7921,13 @@
         <v>126</v>
       </c>
       <c r="AY41" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB41" t="n">
         <v>81</v>
@@ -7974,19 +7974,19 @@
         <v>2.05</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -7995,28 +7995,28 @@
         <v>7</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S42" t="n">
         <v>1.57</v>
       </c>
-      <c r="S42" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W42" t="n">
         <v>6</v>
@@ -8031,28 +8031,28 @@
         <v>17</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD42" t="n">
         <v>6</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="n">
         <v>67</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
         <v>19</v>
@@ -8067,10 +8067,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
         <v>12</v>
@@ -8085,10 +8085,10 @@
         <v>67</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU42" t="n">
         <v>9</v>
@@ -8109,7 +8109,7 @@
         <v>23</v>
       </c>
       <c r="BA42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB42" t="n">
         <v>81</v>
@@ -8118,7 +8118,7 @@
         <v>126</v>
       </c>
       <c r="BD42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43">
@@ -8695,13 +8695,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J46" t="n">
         <v>2.6</v>
@@ -8713,16 +8713,16 @@
         <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q46" t="n">
         <v>2.1</v>
@@ -8743,16 +8743,16 @@
         <v>1.83</v>
       </c>
       <c r="W46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA46" t="n">
         <v>17</v>
@@ -8761,7 +8761,7 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
         <v>6.5</v>
@@ -8827,7 +8827,7 @@
         <v>151</v>
       </c>
       <c r="AY46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ46" t="n">
         <v>21</v>
@@ -8877,88 +8877,88 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H47" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>8</v>
       </c>
       <c r="J47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y47" t="n">
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC47" t="n">
         <v>9</v>
       </c>
-      <c r="AA47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>11</v>
-      </c>
       <c r="AD47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE47" t="n">
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG47" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI47" t="n">
         <v>41</v>
@@ -8973,7 +8973,7 @@
         <v>51</v>
       </c>
       <c r="AM47" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN47" t="n">
         <v>3.25</v>
@@ -8982,28 +8982,28 @@
         <v>7</v>
       </c>
       <c r="AP47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU47" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV47" t="n">
         <v>67</v>
       </c>
       <c r="AW47" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX47" t="n">
         <v>151</v>
@@ -9021,10 +9021,10 @@
         <v>151</v>
       </c>
       <c r="BC47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD47" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48">
@@ -9059,13 +9059,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J48" t="n">
         <v>2.2</v>
@@ -9101,43 +9101,43 @@
         <v>3.5</v>
       </c>
       <c r="U48" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
         <v>8.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA48" t="n">
         <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>13</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF48" t="n">
         <v>41</v>
       </c>
       <c r="AG48" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH48" t="n">
         <v>15</v>
@@ -9152,10 +9152,10 @@
         <v>51</v>
       </c>
       <c r="AL48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN48" t="n">
         <v>4</v>
@@ -9241,19 +9241,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J49" t="n">
         <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L49" t="n">
         <v>3.2</v>
@@ -9271,10 +9271,10 @@
         <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S49" t="n">
         <v>1.57</v>
@@ -9295,19 +9295,19 @@
         <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z49" t="n">
         <v>34</v>
       </c>
       <c r="AA49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
@@ -9322,16 +9322,16 @@
         <v>501</v>
       </c>
       <c r="AH49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ49" t="n">
         <v>10</v>
       </c>
       <c r="AK49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL49" t="n">
         <v>23</v>
@@ -9343,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="AO49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP49" t="n">
         <v>34</v>
@@ -9355,7 +9355,7 @@
         <v>101</v>
       </c>
       <c r="AS49" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT49" t="n">
         <v>2.25</v>
@@ -9388,7 +9388,7 @@
         <v>81</v>
       </c>
       <c r="BD49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
@@ -9435,7 +9435,7 @@
         <v>3.4</v>
       </c>
       <c r="K50" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>3.6</v>
@@ -9453,16 +9453,16 @@
         <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R50" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -9480,13 +9480,13 @@
         <v>10</v>
       </c>
       <c r="Z50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA50" t="n">
         <v>23</v>
       </c>
       <c r="AB50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC50" t="n">
         <v>8</v>
@@ -9501,10 +9501,10 @@
         <v>67</v>
       </c>
       <c r="AG50" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI50" t="n">
         <v>13</v>
@@ -9540,7 +9540,7 @@
         <v>251</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU50" t="n">
         <v>8.5</v>
@@ -9552,7 +9552,7 @@
         <v>126</v>
       </c>
       <c r="AX50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AY50" t="n">
         <v>4.75</v>
@@ -15309,150 +15309,150 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I83" t="n">
-        <v>4.15</v>
+        <v>3.55</v>
       </c>
       <c r="J83" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K83" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="L83" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N83" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="O83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R83" t="n">
         <v>1.45</v>
       </c>
-      <c r="P83" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R83" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S83" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T83" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U83" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V83" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W83" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X83" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="Y83" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z83" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AA83" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB83" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC83" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD83" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE83" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF83" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG83" t="n">
         <v>101</v>
       </c>
       <c r="AH83" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AI83" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ83" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AK83" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AL83" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM83" t="n">
         <v>50</v>
       </c>
-      <c r="AM83" t="n">
-        <v>70</v>
-      </c>
       <c r="AN83" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AO83" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP83" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ83" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AR83" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV83" t="n">
         <v>80</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT83" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU83" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>90</v>
       </c>
       <c r="AW83" t="inlineStr"/>
       <c r="AX83" t="inlineStr"/>
       <c r="AY83" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="AZ83" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BA83" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="BB83" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC83" t="n">
         <v>175</v>
       </c>
-      <c r="BC83" t="n">
-        <v>250</v>
-      </c>
       <c r="BD83" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84">
@@ -15487,147 +15487,147 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
-        <v>2.7</v>
+        <v>2.22</v>
       </c>
       <c r="J84" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K84" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="M84" t="n">
         <v>1.06</v>
       </c>
       <c r="N84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X84" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU84" t="n">
         <v>7.3</v>
       </c>
-      <c r="O84" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R84" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S84" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U84" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W84" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X84" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF84" t="n">
+      <c r="AV84" t="n">
         <v>70</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>60</v>
       </c>
       <c r="AW84" t="inlineStr"/>
       <c r="AX84" t="inlineStr"/>
       <c r="AY84" t="n">
-        <v>4.55</v>
+        <v>4</v>
       </c>
       <c r="AZ84" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB84" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="BC84" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD84" t="n">
         <v>300</v>
@@ -17589,19 +17589,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H96" t="n">
         <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J96" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L96" t="n">
         <v>3.6</v>
@@ -17640,7 +17640,7 @@
         <v>9</v>
       </c>
       <c r="X96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -19529,130 +19529,130 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H107" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="I107" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
       </c>
       <c r="K107" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N107" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V107" t="n">
         <v>1.95</v>
       </c>
-      <c r="L107" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N107" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O107" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P107" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R107" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S107" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T107" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U107" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V107" t="n">
-        <v>2</v>
-      </c>
       <c r="W107" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="X107" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y107" t="n">
         <v>9</v>
       </c>
       <c r="Z107" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF107" t="n">
         <v>40</v>
       </c>
-      <c r="AA107" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>35</v>
-      </c>
       <c r="AG107" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI107" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK107" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM107" t="n">
         <v>21</v>
       </c>
-      <c r="AL107" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AN107" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO107" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ107" t="n">
         <v>90</v>
       </c>
       <c r="AR107" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS107" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AU107" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AV107" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
@@ -19660,19 +19660,19 @@
         <v>4.4</v>
       </c>
       <c r="AZ107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA107" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="BB107" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC107" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BD107" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108">
@@ -21132,73 +21132,73 @@
         <v>2.9</v>
       </c>
       <c r="H116" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I116" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J116" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K116" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L116" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N116" t="n">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="O116" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="P116" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R116" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S116" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T116" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="U116" t="n">
-        <v>1.88</v>
+        <v>2.09</v>
       </c>
       <c r="V116" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="W116" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="X116" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y116" t="n">
         <v>9</v>
       </c>
       <c r="Z116" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA116" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB116" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC116" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD116" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AE116" t="n">
         <v>12</v>
@@ -21210,16 +21210,16 @@
         <v>450</v>
       </c>
       <c r="AH116" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AI116" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ116" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AK116" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL116" t="n">
         <v>17</v>
@@ -21231,25 +21231,25 @@
         <v>4.75</v>
       </c>
       <c r="AO116" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP116" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ116" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR116" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS116" t="n">
         <v>350</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AU116" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV116" t="n">
         <v>65</v>
@@ -21257,10 +21257,10 @@
       <c r="AW116" t="inlineStr"/>
       <c r="AX116" t="inlineStr"/>
       <c r="AY116" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AZ116" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA116" t="n">
         <v>21</v>
@@ -21310,58 +21310,58 @@
         <v>1.33</v>
       </c>
       <c r="H117" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I117" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="J117" t="n">
         <v>1.78</v>
       </c>
       <c r="K117" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L117" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M117" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="P117" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R117" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S117" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="T117" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="U117" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="V117" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="W117" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="X117" t="n">
         <v>5.6</v>
       </c>
       <c r="Y117" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z117" t="n">
         <v>7.1</v>
@@ -21373,10 +21373,10 @@
         <v>21</v>
       </c>
       <c r="AC117" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE117" t="n">
         <v>17</v>
@@ -21391,40 +21391,40 @@
         <v>16.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ117" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK117" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL117" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM117" t="n">
         <v>60</v>
-      </c>
-      <c r="AM117" t="n">
-        <v>55</v>
       </c>
       <c r="AN117" t="n">
         <v>3.15</v>
       </c>
       <c r="AO117" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AP117" t="n">
         <v>16</v>
       </c>
       <c r="AQ117" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AS117" t="n">
         <v>200</v>
       </c>
       <c r="AT117" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU117" t="n">
         <v>8.5</v>
@@ -21435,19 +21435,19 @@
       <c r="AW117" t="inlineStr"/>
       <c r="AX117" t="inlineStr"/>
       <c r="AY117" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AZ117" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA117" t="n">
         <v>45</v>
       </c>
       <c r="BB117" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC117" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD117" t="inlineStr"/>
     </row>
@@ -21486,10 +21486,10 @@
         <v>1.93</v>
       </c>
       <c r="H118" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I118" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J118" t="n">
         <v>2.45</v>
@@ -21498,7 +21498,7 @@
         <v>2.27</v>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M118" t="n">
         <v>1.04</v>
@@ -21507,37 +21507,37 @@
         <v>9.949999999999999</v>
       </c>
       <c r="O118" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P118" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R118" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S118" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T118" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="U118" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V118" t="n">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="W118" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X118" t="n">
         <v>9</v>
       </c>
       <c r="Y118" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z118" t="n">
         <v>14.5</v>
@@ -21546,25 +21546,25 @@
         <v>11.75</v>
       </c>
       <c r="AB118" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD118" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE118" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF118" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG118" t="n">
         <v>200</v>
       </c>
       <c r="AH118" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI118" t="n">
         <v>15</v>
@@ -21576,19 +21576,19 @@
         <v>32</v>
       </c>
       <c r="AL118" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM118" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN118" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO118" t="n">
         <v>9.5</v>
       </c>
       <c r="AP118" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ118" t="n">
         <v>32</v>
@@ -21600,7 +21600,7 @@
         <v>175</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU118" t="n">
         <v>6.8</v>
@@ -21614,19 +21614,19 @@
         <v>5.3</v>
       </c>
       <c r="AZ118" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA118" t="n">
         <v>21</v>
       </c>
       <c r="BB118" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC118" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD118" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119">
@@ -23091,22 +23091,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H127" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K127" t="n">
         <v>2.1</v>
       </c>
       <c r="L127" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M127" t="n">
         <v>1.06</v>
@@ -23115,16 +23115,16 @@
         <v>8</v>
       </c>
       <c r="O127" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P127" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R127" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S127" t="n">
         <v>1.4</v>
@@ -23133,31 +23133,31 @@
         <v>2.75</v>
       </c>
       <c r="U127" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V127" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W127" t="n">
         <v>7.5</v>
       </c>
       <c r="X127" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y127" t="n">
         <v>9</v>
       </c>
       <c r="Z127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB127" t="n">
         <v>29</v>
       </c>
       <c r="AC127" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD127" t="n">
         <v>6.5</v>
@@ -23172,19 +23172,19 @@
         <v>500</v>
       </c>
       <c r="AH127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK127" t="n">
         <v>41</v>
       </c>
       <c r="AL127" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM127" t="n">
         <v>41</v>
@@ -23193,13 +23193,13 @@
         <v>4</v>
       </c>
       <c r="AO127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP127" t="n">
         <v>21</v>
       </c>
       <c r="AQ127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR127" t="n">
         <v>51</v>
@@ -23211,7 +23211,7 @@
         <v>2.75</v>
       </c>
       <c r="AU127" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV127" t="n">
         <v>51</v>
@@ -23219,10 +23219,10 @@
       <c r="AW127" t="inlineStr"/>
       <c r="AX127" t="inlineStr"/>
       <c r="AY127" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ127" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA127" t="n">
         <v>29</v>
@@ -23231,7 +23231,7 @@
         <v>67</v>
       </c>
       <c r="BC127" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD127" t="n">
         <v>300</v>
@@ -23305,10 +23305,10 @@
         <v>2.8</v>
       </c>
       <c r="S128" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T128" t="n">
-        <v>4</v>
+        <v>4.17</v>
       </c>
       <c r="U128" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD140"/>
+  <dimension ref="A1:BD141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
@@ -1171,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1195,7 +1195,7 @@
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1243,13 +1243,13 @@
         <v>140</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB4" t="n">
         <v>67</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>3.1</v>
@@ -1347,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>81</v>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
         <v>34</v>
@@ -1490,7 +1490,7 @@
         <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,10 +1499,10 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1.62</v>
@@ -1511,7 +1511,7 @@
         <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
         <v>3.4</v>
@@ -1523,7 +1523,7 @@
         <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1553,7 +1553,7 @@
         <v>34</v>
       </c>
       <c r="AG6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1562,16 +1562,16 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
         <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>29</v>
       </c>
       <c r="AN6" t="n">
         <v>4.33</v>
@@ -1601,7 +1601,7 @@
         <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX6" t="n">
         <v>150</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J7" t="n">
         <v>6.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
@@ -1687,16 +1687,16 @@
         <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
         <v>1.8</v>
@@ -1708,16 +1708,16 @@
         <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1726,16 +1726,16 @@
         <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
@@ -1744,10 +1744,10 @@
         <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL7" t="n">
         <v>11</v>
@@ -1756,7 +1756,7 @@
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO7" t="n">
         <v>34</v>
@@ -1765,16 +1765,16 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR7" t="n">
         <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1792,13 +1792,13 @@
         <v>3.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>41</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
         <v>2.5</v>
@@ -1875,7 +1875,7 @@
         <v>2.63</v>
       </c>
       <c r="S8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
         <v>3.75</v>
@@ -1890,10 +1890,10 @@
         <v>11</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>17</v>
@@ -1941,13 +1941,13 @@
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -2072,13 +2072,13 @@
         <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2102,13 +2102,13 @@
         <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK9" t="n">
         <v>29</v>
@@ -2224,7 +2224,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
         <v>1.13</v>
@@ -2233,10 +2233,10 @@
         <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>1.22</v>
@@ -4009,22 +4009,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>1.88</v>
       </c>
       <c r="L20" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
@@ -4036,7 +4036,7 @@
         <v>1.55</v>
       </c>
       <c r="P20" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="Q20" t="n">
         <v>2.62</v>
@@ -4057,22 +4057,22 @@
         <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC20" t="n">
         <v>6</v>
@@ -4090,46 +4090,46 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AK20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL20" t="n">
         <v>35</v>
       </c>
-      <c r="AL20" t="n">
-        <v>30</v>
-      </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AP20" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR20" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV20" t="n">
         <v>90</v>
@@ -4141,22 +4141,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BC20" t="n">
         <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -6917,10 +6917,10 @@
         <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
         <v>1.18</v>
@@ -7077,13 +7077,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
         <v>2.88</v>
@@ -7092,7 +7092,7 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
@@ -7107,10 +7107,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S37" t="n">
         <v>1.4</v>
@@ -7119,10 +7119,10 @@
         <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7131,7 +7131,7 @@
         <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
@@ -7170,7 +7170,7 @@
         <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -7197,7 +7197,7 @@
         <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7255,13 +7255,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.75</v>
@@ -7273,10 +7273,10 @@
         <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
         <v>1.4</v>
@@ -7285,10 +7285,10 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S38" t="n">
         <v>1.5</v>
@@ -7318,10 +7318,10 @@
         <v>19</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
         <v>6</v>
@@ -7791,28 +7791,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
@@ -7833,34 +7833,34 @@
         <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W41" t="n">
         <v>5.5</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
       </c>
       <c r="Z41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA41" t="n">
         <v>21</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>23</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
       </c>
       <c r="AC41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD41" t="n">
         <v>6</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>5.5</v>
       </c>
       <c r="AE41" t="n">
         <v>19</v>
@@ -7870,16 +7870,16 @@
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>17</v>
       </c>
-      <c r="AJ41" t="n">
-        <v>15</v>
-      </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL41" t="n">
         <v>41</v>
@@ -7888,16 +7888,16 @@
         <v>51</v>
       </c>
       <c r="AN41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP41" t="n">
         <v>29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>81</v>
@@ -7924,16 +7924,16 @@
         <v>5.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA41" t="n">
         <v>41</v>
       </c>
       <c r="BB41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD41" t="n">
         <v>351</v>
@@ -7971,16 +7971,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="n">
         <v>1.95</v>
@@ -7989,10 +7989,10 @@
         <v>4.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -8001,10 +8001,10 @@
         <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S42" t="n">
         <v>1.57</v>
@@ -8019,10 +8019,10 @@
         <v>1.67</v>
       </c>
       <c r="W42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8031,7 +8031,7 @@
         <v>17</v>
       </c>
       <c r="AA42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
         <v>41</v>
@@ -8052,7 +8052,7 @@
         <v>1250</v>
       </c>
       <c r="AH42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI42" t="n">
         <v>19</v>
@@ -8091,10 +8091,10 @@
         <v>2.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW42" t="n">
         <v>126</v>
@@ -8513,130 +8513,130 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="H45" t="n">
-        <v>4.15</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6.6</v>
+        <v>7.9</v>
       </c>
       <c r="J45" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L45" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T45" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U45" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V45" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W45" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X45" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z45" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AA45" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AF45" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG45" t="n">
         <v>700</v>
       </c>
       <c r="AH45" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AI45" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK45" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AL45" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM45" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AO45" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AP45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AR45" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS45" t="n">
         <v>350</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW45" t="n">
         <v>51</v>
@@ -8645,19 +8645,19 @@
         <v>51</v>
       </c>
       <c r="AY45" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AZ45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA45" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB45" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC45" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BD45" t="n">
         <v>500</v>
@@ -9423,22 +9423,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H50" t="n">
         <v>3.3</v>
       </c>
       <c r="I50" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
@@ -9459,10 +9459,10 @@
         <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -9471,7 +9471,7 @@
         <v>1.73</v>
       </c>
       <c r="W50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X50" t="n">
         <v>11</v>
@@ -9495,13 +9495,13 @@
         <v>6.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="n">
         <v>67</v>
       </c>
       <c r="AG50" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH50" t="n">
         <v>7.5</v>
@@ -9522,7 +9522,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO50" t="n">
         <v>15</v>
@@ -9540,7 +9540,7 @@
         <v>251</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU50" t="n">
         <v>8.5</v>
@@ -13730,13 +13730,13 @@
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="O74" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P74" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q74" t="n">
         <v>2.02</v>
@@ -13748,19 +13748,19 @@
         <v>1.42</v>
       </c>
       <c r="T74" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U74" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
         <v>1.65</v>
       </c>
       <c r="W74" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X74" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
@@ -13772,10 +13772,10 @@
         <v>14.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC74" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD74" t="n">
         <v>6.8</v>
@@ -13790,10 +13790,10 @@
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI74" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ74" t="n">
         <v>17.5</v>
@@ -13808,13 +13808,13 @@
         <v>70</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO74" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AP74" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ74" t="n">
         <v>27</v>
@@ -13826,7 +13826,7 @@
         <v>300</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU74" t="n">
         <v>7.9</v>
@@ -19529,58 +19529,58 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I107" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
       </c>
       <c r="K107" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L107" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M107" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>7.41</v>
+        <v>6.27</v>
       </c>
       <c r="O107" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="P107" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="Q107" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R107" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S107" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T107" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="U107" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V107" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W107" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="X107" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y107" t="n">
         <v>9</v>
@@ -19592,84 +19592,84 @@
         <v>24</v>
       </c>
       <c r="AB107" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC107" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AD107" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AE107" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AI107" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ107" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL107" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN107" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO107" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP107" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ107" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR107" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS107" t="n">
         <v>250</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="AU107" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV107" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AZ107" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB107" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC107" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BD107" t="n">
         <v>200</v>
@@ -24519,7 +24519,7 @@
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J135" t="n">
         <v>3.75</v>
@@ -24528,7 +24528,7 @@
         <v>1.95</v>
       </c>
       <c r="L135" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M135" t="n">
         <v>1.1</v>
@@ -24537,16 +24537,16 @@
         <v>7</v>
       </c>
       <c r="O135" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P135" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R135" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S135" t="n">
         <v>1.53</v>
@@ -24561,7 +24561,7 @@
         <v>1.73</v>
       </c>
       <c r="W135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X135" t="n">
         <v>15</v>
@@ -24612,7 +24612,7 @@
         <v>34</v>
       </c>
       <c r="AN135" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO135" t="n">
         <v>19</v>
@@ -24713,10 +24713,10 @@
         <v>2.05</v>
       </c>
       <c r="M136" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N136" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O136" t="n">
         <v>1.36</v>
@@ -25020,7 +25020,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>l4TiyW5N</t>
+          <t>nkEHSNjn</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -25030,175 +25030,171 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ZAMBIA - SUPER LEAGUE</t>
+          <t>WORLD - FRIENDLY INTERNATIONAL WOMEN</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Green Buffaloes</t>
+          <t>Algeria W</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Nkwazi</t>
+          <t>Uganda W</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.57</v>
+        <v>1.78</v>
       </c>
       <c r="H138" t="n">
-        <v>2.57</v>
+        <v>3.5</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="J138" t="n">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="K138" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="L138" t="n">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="M138" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="N138" t="n">
-        <v>5</v>
+        <v>7.85</v>
       </c>
       <c r="O138" t="n">
-        <v>1.6</v>
+        <v>1.31</v>
       </c>
       <c r="P138" t="n">
-        <v>2.07</v>
+        <v>3.14</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.82</v>
+        <v>1.85</v>
       </c>
       <c r="R138" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="S138" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="T138" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U138" t="n">
         <v>2.5</v>
       </c>
-      <c r="V138" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
       <c r="W138" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="X138" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="Y138" t="n">
-        <v>8.75</v>
+        <v>7.1</v>
       </c>
       <c r="Z138" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AA138" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AB138" t="n">
         <v>22</v>
       </c>
-      <c r="AB138" t="n">
-        <v>37</v>
-      </c>
       <c r="AC138" t="n">
-        <v>5.2</v>
+        <v>9.75</v>
       </c>
       <c r="AD138" t="n">
-        <v>4.65</v>
+        <v>6</v>
       </c>
       <c r="AE138" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF138" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AG138" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AH138" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="AI138" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ138" t="n">
         <v>11</v>
       </c>
-      <c r="AJ138" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AK138" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AL138" t="n">
         <v>28</v>
       </c>
       <c r="AM138" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AN138" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AO138" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AP138" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AQ138" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV138" t="n">
         <v>75</v>
-      </c>
-      <c r="AR138" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS138" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT138" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AU138" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV138" t="n">
-        <v>100</v>
       </c>
       <c r="AW138" t="inlineStr"/>
       <c r="AX138" t="inlineStr"/>
       <c r="AY138" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="AZ138" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA138" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB138" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC138" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BD138" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>6FShSzNh</t>
+          <t>l4TiyW5N</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -25218,49 +25214,49 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Kabwe</t>
+          <t>Green Buffaloes</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Mutondo Stars</t>
+          <t>Nkwazi</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.85</v>
+        <v>2.57</v>
       </c>
       <c r="H139" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="I139" t="n">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
-        <v>2.57</v>
+        <v>3.3</v>
       </c>
       <c r="K139" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L139" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="M139" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N139" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O139" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P139" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="R139" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="S139" t="n">
         <v>1.57</v>
@@ -25275,106 +25271,108 @@
         <v>1.5</v>
       </c>
       <c r="W139" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="X139" t="n">
-        <v>6.2</v>
+        <v>9.25</v>
       </c>
       <c r="Y139" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z139" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AA139" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO139" t="n">
         <v>15</v>
       </c>
-      <c r="AB139" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM139" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO139" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AP139" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ139" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AR139" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AS139" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT139" t="n">
         <v>2.02</v>
       </c>
       <c r="AU139" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV139" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AW139" t="inlineStr"/>
       <c r="AX139" t="inlineStr"/>
       <c r="AY139" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="AZ139" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="BA139" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BB139" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC139" t="n">
         <v>200</v>
       </c>
-      <c r="BC139" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD139" t="inlineStr"/>
+      <c r="BD139" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>EoF9OhMH</t>
+          <t>6FShSzNh</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -25394,55 +25392,55 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MUZA</t>
+          <t>Kabwe</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ZESCO</t>
+          <t>Mutondo Stars</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.82</v>
+        <v>1.85</v>
       </c>
       <c r="H140" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L140" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N140" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q140" t="n">
         <v>2.65</v>
       </c>
-      <c r="I140" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="L140" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5</v>
-      </c>
-      <c r="O140" t="n">
+      <c r="R140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S140" t="n">
         <v>1.57</v>
       </c>
-      <c r="P140" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R140" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S140" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T140" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="U140" t="n">
         <v>2.5</v>
@@ -25451,101 +25449,277 @@
         <v>1.5</v>
       </c>
       <c r="W140" t="n">
-        <v>5.6</v>
+        <v>4.35</v>
       </c>
       <c r="X140" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y140" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AA140" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB140" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC140" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AD140" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="AE140" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AF140" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG140" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AH140" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AI140" t="n">
-        <v>9.25</v>
+        <v>18</v>
       </c>
       <c r="AJ140" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK140" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AL140" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AM140" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN140" t="n">
-        <v>4.45</v>
+        <v>3.45</v>
       </c>
       <c r="AO140" t="n">
-        <v>17.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP140" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AQ140" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AR140" t="n">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="AS140" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AU140" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV140" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW140" t="inlineStr"/>
       <c r="AX140" t="inlineStr"/>
       <c r="AY140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EoF9OhMH</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>27/11/2024</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ZAMBIA - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>MUZA</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ZESCO</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P141" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X141" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>600</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>110</v>
+      </c>
+      <c r="AW141" t="inlineStr"/>
+      <c r="AX141" t="inlineStr"/>
+      <c r="AY141" t="n">
         <v>4.3</v>
       </c>
-      <c r="AZ140" t="n">
+      <c r="AZ141" t="n">
         <v>17</v>
       </c>
-      <c r="BA140" t="n">
+      <c r="BA141" t="n">
         <v>32</v>
       </c>
-      <c r="BB140" t="n">
+      <c r="BB141" t="n">
         <v>90</v>
       </c>
-      <c r="BC140" t="n">
+      <c r="BC141" t="n">
         <v>200</v>
       </c>
-      <c r="BD140" t="inlineStr"/>
+      <c r="BD141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -4009,79 +4009,79 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="L20" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="U20" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA20" t="n">
         <v>37</v>
       </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
       <c r="AB20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF20" t="n">
         <v>120</v>
@@ -4090,34 +4090,34 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AI20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR20" t="n">
         <v>150</v>
@@ -4126,13 +4126,13 @@
         <v>450</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
@@ -4141,22 +4141,22 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="AZ20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC20" t="n">
         <v>150</v>
       </c>
       <c r="BD20" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21">
@@ -6899,19 +6899,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
@@ -6923,31 +6923,31 @@
         <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V36" t="n">
         <v>2.2</v>
       </c>
-      <c r="S36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X36" t="n">
         <v>9</v>
@@ -6956,7 +6956,7 @@
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
         <v>12</v>
@@ -6965,10 +6965,10 @@
         <v>21</v>
       </c>
       <c r="AC36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -6980,13 +6980,13 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK36" t="n">
         <v>51</v>
@@ -6998,42 +6998,44 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT36" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR36" t="n">
+      <c r="AU36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV36" t="n">
         <v>41</v>
       </c>
-      <c r="AS36" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v>351</v>
+      </c>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB36" t="n">
         <v>81</v>
@@ -7077,19 +7079,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
         <v>3.3</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.2</v>
       </c>
       <c r="J37" t="n">
         <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
         <v>3.6</v>
@@ -7107,22 +7109,22 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7131,7 +7133,7 @@
         <v>11</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>21</v>
@@ -7155,7 +7157,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
         <v>11</v>
@@ -7170,13 +7172,13 @@
         <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>12</v>
@@ -7191,16 +7193,16 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
@@ -7211,7 +7213,7 @@
         <v>17</v>
       </c>
       <c r="BA37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB37" t="n">
         <v>51</v>
@@ -7285,13 +7287,13 @@
         <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T38" t="n">
         <v>2.5</v>
@@ -7324,7 +7326,7 @@
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
         <v>17</v>
@@ -7396,7 +7398,7 @@
         <v>34</v>
       </c>
       <c r="BB38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC38" t="n">
         <v>101</v>
@@ -7791,28 +7793,28 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
         <v>1.53</v>
@@ -7842,16 +7844,16 @@
         <v>5.5</v>
       </c>
       <c r="X41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
@@ -7870,16 +7872,16 @@
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="n">
         <v>41</v>
@@ -7888,16 +7890,16 @@
         <v>51</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
         <v>29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR41" t="n">
         <v>81</v>
@@ -7924,13 +7926,13 @@
         <v>5.5</v>
       </c>
       <c r="AZ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA41" t="n">
         <v>41</v>
       </c>
       <c r="BB41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC41" t="n">
         <v>151</v>
@@ -7971,16 +7973,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K42" t="n">
         <v>1.95</v>
@@ -7989,10 +7991,10 @@
         <v>4.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N42" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -8007,10 +8009,10 @@
         <v>1.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
         <v>2.1</v>
@@ -8019,10 +8021,10 @@
         <v>1.67</v>
       </c>
       <c r="W42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8052,7 +8054,7 @@
         <v>1250</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
         <v>19</v>
@@ -8088,13 +8090,13 @@
         <v>251</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW42" t="n">
         <v>126</v>
@@ -8109,7 +8111,7 @@
         <v>23</v>
       </c>
       <c r="BA42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB42" t="n">
         <v>81</v>
@@ -13709,79 +13711,79 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H74" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I74" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="J74" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K74" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L74" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M74" t="n">
         <v>1.03</v>
       </c>
       <c r="N74" t="n">
-        <v>7.7</v>
+        <v>7.95</v>
       </c>
       <c r="O74" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P74" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S74" t="n">
         <v>1.42</v>
       </c>
       <c r="T74" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V74" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W74" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X74" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA74" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB74" t="n">
         <v>35</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF74" t="n">
         <v>110</v>
@@ -13790,34 +13792,34 @@
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AI74" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ74" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL74" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM74" t="n">
         <v>70</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO74" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AP74" t="n">
         <v>19</v>
       </c>
       <c r="AQ74" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR74" t="n">
         <v>65</v>
@@ -13826,10 +13828,10 @@
         <v>300</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU74" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV74" t="n">
         <v>80</v>
@@ -13837,16 +13839,16 @@
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="inlineStr"/>
       <c r="AY74" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AZ74" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA74" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB74" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC74" t="n">
         <v>250</v>
@@ -13887,34 +13889,34 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H75" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I75" t="n">
         <v>4.05</v>
       </c>
       <c r="J75" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L75" t="n">
         <v>4.3</v>
       </c>
       <c r="M75" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N75" t="n">
-        <v>8.25</v>
+        <v>8.1</v>
       </c>
       <c r="O75" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="Q75" t="n">
         <v>1.98</v>
@@ -13932,34 +13934,34 @@
         <v>1.78</v>
       </c>
       <c r="V75" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W75" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X75" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y75" t="n">
         <v>8.25</v>
       </c>
       <c r="Z75" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA75" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>16</v>
       </c>
       <c r="AB75" t="n">
         <v>29</v>
       </c>
       <c r="AC75" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF75" t="n">
         <v>70</v>
@@ -13971,66 +13973,66 @@
         <v>11.25</v>
       </c>
       <c r="AI75" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ75" t="n">
         <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL75" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM75" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO75" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP75" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR75" t="n">
         <v>65</v>
       </c>
       <c r="AS75" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT75" t="n">
         <v>2.55</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV75" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AZ75" t="n">
         <v>22</v>
       </c>
       <c r="BA75" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB75" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC75" t="n">
         <v>120</v>
       </c>
-      <c r="BC75" t="n">
-        <v>150</v>
-      </c>
       <c r="BD75" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76">
@@ -17589,40 +17591,40 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H96" t="n">
         <v>3.3</v>
       </c>
       <c r="I96" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J96" t="n">
         <v>2.75</v>
       </c>
       <c r="K96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M96" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O96" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P96" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R96" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S96" t="n">
         <v>1.36</v>
@@ -17631,10 +17633,10 @@
         <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V96" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W96" t="n">
         <v>9</v>
@@ -17655,7 +17657,7 @@
         <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD96" t="n">
         <v>6.5</v>
@@ -17673,7 +17675,7 @@
         <v>12</v>
       </c>
       <c r="AI96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ96" t="n">
         <v>12</v>
@@ -17682,7 +17684,7 @@
         <v>34</v>
       </c>
       <c r="AL96" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM96" t="n">
         <v>29</v>
@@ -17691,7 +17693,7 @@
         <v>4.33</v>
       </c>
       <c r="AO96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP96" t="n">
         <v>21</v>
@@ -17721,7 +17723,7 @@
         <v>126</v>
       </c>
       <c r="AY96" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ96" t="n">
         <v>17</v>
@@ -19529,28 +19531,28 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H107" t="n">
         <v>2.57</v>
       </c>
       <c r="I107" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J107" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K107" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L107" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M107" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>6.27</v>
+        <v>6.69</v>
       </c>
       <c r="O107" t="n">
         <v>1.35</v>
@@ -19559,43 +19561,43 @@
         <v>2.65</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R107" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S107" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T107" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="U107" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V107" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W107" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X107" t="n">
         <v>14</v>
       </c>
       <c r="Y107" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z107" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA107" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB107" t="n">
         <v>27</v>
       </c>
       <c r="AC107" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD107" t="n">
         <v>4.5</v>
@@ -19604,16 +19606,16 @@
         <v>10</v>
       </c>
       <c r="AF107" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG107" t="n">
         <v>300</v>
       </c>
       <c r="AH107" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AI107" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ107" t="n">
         <v>7.6</v>
@@ -19622,7 +19624,7 @@
         <v>23</v>
       </c>
       <c r="AL107" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM107" t="n">
         <v>23</v>
@@ -19631,39 +19633,39 @@
         <v>5.2</v>
       </c>
       <c r="AO107" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP107" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ107" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR107" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS107" t="n">
         <v>250</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AU107" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AV107" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AZ107" t="n">
         <v>13.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BB107" t="n">
         <v>60</v>
@@ -24695,13 +24697,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H136" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I136" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J136" t="n">
         <v>8</v>
@@ -24713,10 +24715,10 @@
         <v>2.05</v>
       </c>
       <c r="M136" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N136" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O136" t="n">
         <v>1.36</v>
@@ -24764,10 +24766,10 @@
         <v>8.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE136" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF136" t="n">
         <v>101</v>
@@ -24776,13 +24778,13 @@
         <v>101</v>
       </c>
       <c r="AH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI136" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI136" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK136" t="n">
         <v>9</v>
@@ -24813,7 +24815,7 @@
         <v>2.63</v>
       </c>
       <c r="AU136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV136" t="n">
         <v>81</v>
@@ -24836,7 +24838,7 @@
         <v>51</v>
       </c>
       <c r="BD136" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="137">

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -4009,22 +4009,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H20" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="I20" t="n">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>1.85</v>
       </c>
       <c r="L20" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
         <v>1.14</v>
@@ -4036,10 +4036,10 @@
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R20" t="n">
         <v>1.47</v>
@@ -4051,25 +4051,25 @@
         <v>2.27</v>
       </c>
       <c r="U20" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB20" t="n">
         <v>55</v>
@@ -4078,10 +4078,10 @@
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF20" t="n">
         <v>120</v>
@@ -4090,49 +4090,49 @@
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AP20" t="n">
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR20" t="n">
         <v>150</v>
       </c>
       <c r="AS20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT20" t="n">
         <v>2.27</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
@@ -4141,16 +4141,16 @@
         <v>126</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC20" t="n">
         <v>150</v>
@@ -7079,13 +7079,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
         <v>2.88</v>
@@ -7115,7 +7115,7 @@
         <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
         <v>3</v>
@@ -7127,7 +7127,7 @@
         <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>11</v>
@@ -7172,10 +7172,10 @@
         <v>34</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN37" t="n">
         <v>4.5</v>
@@ -7257,34 +7257,34 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K38" t="n">
         <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q38" t="n">
         <v>2.15</v>
@@ -7293,10 +7293,10 @@
         <v>1.67</v>
       </c>
       <c r="S38" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U38" t="n">
         <v>1.95</v>
@@ -7308,28 +7308,28 @@
         <v>6.5</v>
       </c>
       <c r="X38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
@@ -7338,13 +7338,13 @@
         <v>351</v>
       </c>
       <c r="AH38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK38" t="n">
         <v>41</v>
@@ -7359,7 +7359,7 @@
         <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP38" t="n">
         <v>23</v>
@@ -7374,7 +7374,7 @@
         <v>201</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU38" t="n">
         <v>8.5</v>
@@ -7392,7 +7392,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA38" t="n">
         <v>34</v>
@@ -7796,7 +7796,7 @@
         <v>2.15</v>
       </c>
       <c r="H41" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
         <v>3.8</v>
@@ -7811,37 +7811,37 @@
         <v>4.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W41" t="n">
         <v>6</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W41" t="n">
-        <v>5.5</v>
       </c>
       <c r="X41" t="n">
         <v>9</v>
@@ -7853,13 +7853,13 @@
         <v>21</v>
       </c>
       <c r="AA41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB41" t="n">
         <v>41</v>
       </c>
       <c r="AC41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD41" t="n">
         <v>6</v>
@@ -7868,11 +7868,11 @@
         <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI41" t="n">
         <v>17</v>
@@ -7899,7 +7899,7 @@
         <v>29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
         <v>81</v>
@@ -7908,7 +7908,7 @@
         <v>301</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU41" t="n">
         <v>9.5</v>
@@ -7929,13 +7929,13 @@
         <v>23</v>
       </c>
       <c r="BA41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB41" t="n">
         <v>81</v>
       </c>
       <c r="BC41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD41" t="n">
         <v>351</v>
@@ -8003,10 +8003,10 @@
         <v>2.63</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S42" t="n">
         <v>1.53</v>
@@ -13711,16 +13711,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K74" t="n">
         <v>2.1</v>
@@ -13729,16 +13729,16 @@
         <v>5.7</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>7.95</v>
+        <v>8.85</v>
       </c>
       <c r="O74" t="n">
         <v>1.34</v>
       </c>
       <c r="P74" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q74" t="n">
         <v>2</v>
@@ -13747,43 +13747,43 @@
         <v>1.65</v>
       </c>
       <c r="S74" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U74" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W74" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X74" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y74" t="n">
         <v>8.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA74" t="n">
         <v>14</v>
       </c>
       <c r="AB74" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC74" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD74" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE74" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF74" t="n">
         <v>110</v>
@@ -13792,10 +13792,10 @@
         <v>900</v>
       </c>
       <c r="AH74" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI74" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ74" t="n">
         <v>18.5</v>
@@ -13807,31 +13807,31 @@
         <v>70</v>
       </c>
       <c r="AM74" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO74" t="n">
         <v>7.6</v>
       </c>
       <c r="AP74" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>25</v>
       </c>
       <c r="AR74" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS74" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV74" t="n">
         <v>80</v>
@@ -17591,22 +17591,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H96" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I96" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J96" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -17615,16 +17615,16 @@
         <v>11</v>
       </c>
       <c r="O96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P96" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R96" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S96" t="n">
         <v>1.36</v>
@@ -17633,16 +17633,16 @@
         <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V96" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y96" t="n">
         <v>9</v>
@@ -17657,7 +17657,7 @@
         <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD96" t="n">
         <v>6.5</v>
@@ -17675,7 +17675,7 @@
         <v>12</v>
       </c>
       <c r="AI96" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ96" t="n">
         <v>12</v>
@@ -17684,7 +17684,7 @@
         <v>34</v>
       </c>
       <c r="AL96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM96" t="n">
         <v>29</v>
@@ -17693,7 +17693,7 @@
         <v>4.33</v>
       </c>
       <c r="AO96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP96" t="n">
         <v>21</v>
@@ -17723,7 +17723,7 @@
         <v>126</v>
       </c>
       <c r="AY96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ96" t="n">
         <v>17</v>
@@ -19531,147 +19531,147 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="I107" t="n">
-        <v>2.47</v>
+        <v>2.12</v>
       </c>
       <c r="J107" t="n">
-        <v>3.65</v>
+        <v>4.05</v>
       </c>
       <c r="K107" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="L107" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="M107" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N107" t="n">
-        <v>6.69</v>
+        <v>8</v>
       </c>
       <c r="O107" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P107" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="R107" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S107" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T107" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U107" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V107" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="W107" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="X107" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y107" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Z107" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA107" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AB107" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC107" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AD107" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="AE107" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AF107" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG107" t="n">
         <v>300</v>
       </c>
       <c r="AH107" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU107" t="n">
         <v>6.3</v>
       </c>
-      <c r="AI107" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ107" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR107" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>6</v>
-      </c>
       <c r="AV107" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW107" t="inlineStr"/>
       <c r="AX107" t="inlineStr"/>
       <c r="AY107" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="AZ107" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="BA107" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB107" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="BC107" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BD107" t="n">
         <v>200</v>
@@ -24697,22 +24697,22 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H136" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I136" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J136" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K136" t="n">
         <v>2.2</v>
       </c>
       <c r="L136" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
         <v>1.06</v>
@@ -24739,10 +24739,10 @@
         <v>2.63</v>
       </c>
       <c r="U136" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V136" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W136" t="n">
         <v>13</v>
@@ -24751,13 +24751,13 @@
         <v>34</v>
       </c>
       <c r="Y136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z136" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA136" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB136" t="n">
         <v>67</v>
@@ -24766,13 +24766,13 @@
         <v>8.5</v>
       </c>
       <c r="AD136" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE136" t="n">
         <v>29</v>
       </c>
       <c r="AF136" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG136" t="n">
         <v>101</v>
@@ -24787,7 +24787,7 @@
         <v>9.5</v>
       </c>
       <c r="AK136" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL136" t="n">
         <v>15</v>
@@ -24796,7 +24796,7 @@
         <v>41</v>
       </c>
       <c r="AN136" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AO136" t="n">
         <v>41</v>
@@ -24805,10 +24805,10 @@
         <v>51</v>
       </c>
       <c r="AQ136" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AR136" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AS136" t="inlineStr"/>
       <c r="AT136" t="n">
@@ -24823,16 +24823,16 @@
       <c r="AW136" t="inlineStr"/>
       <c r="AX136" t="inlineStr"/>
       <c r="AY136" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AZ136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="BA136" t="n">
         <v>23</v>
       </c>
       <c r="BB136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC136" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-27.xlsx
@@ -7973,22 +7973,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
         <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K42" t="n">
         <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>1.1</v>
@@ -8015,16 +8015,16 @@
         <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8075,7 +8075,7 @@
         <v>3.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP42" t="n">
         <v>26</v>
@@ -8093,10 +8093,10 @@
         <v>2.38</v>
       </c>
       <c r="AU42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW42" t="n">
         <v>126</v>
@@ -8105,19 +8105,19 @@
         <v>126</v>
       </c>
       <c r="AY42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD42" t="n">
         <v>351</v>
@@ -13889,34 +13889,34 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I75" t="n">
-        <v>4.05</v>
+        <v>3.45</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
       </c>
       <c r="L75" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="M75" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N75" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O75" t="n">
         <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q75" t="n">
         <v>1.98</v>
@@ -13925,31 +13925,31 @@
         <v>1.65</v>
       </c>
       <c r="S75" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="T75" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="U75" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V75" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W75" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="X75" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y75" t="n">
         <v>8.75</v>
       </c>
-      <c r="Y75" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z75" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AB75" t="n">
         <v>29</v>
@@ -13958,7 +13958,7 @@
         <v>8.5</v>
       </c>
       <c r="AD75" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE75" t="n">
         <v>14</v>
@@ -13970,69 +13970,69 @@
         <v>600</v>
       </c>
       <c r="AH75" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI75" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AJ75" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AK75" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AL75" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ75" t="n">
         <v>40</v>
       </c>
-      <c r="AM75" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AO75" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ75" t="n">
-        <v>35</v>
-      </c>
       <c r="AR75" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS75" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU75" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV75" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="AZ75" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="BA75" t="n">
         <v>24</v>
       </c>
       <c r="BB75" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BC75" t="n">
         <v>120</v>
       </c>
       <c r="BD75" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76">
